--- a/bibliografia/results/Comparativa Resultados.xlsx
+++ b/bibliografia/results/Comparativa Resultados.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\José Enrique\Desktop\cell-formation\cell-formation\bibliografia\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00B449C-A204-40FA-B4EC-50C03A3C3028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED64418B-1450-474C-907F-28B8A4A5CE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DatasetA" sheetId="1" r:id="rId1"/>
-    <sheet name="OlderResults" sheetId="2" r:id="rId2"/>
+    <sheet name="DatasetA-2" sheetId="3" r:id="rId2"/>
+    <sheet name="OlderResults" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,112 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="99">
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>A12</t>
-  </si>
-  <si>
-    <t>A13</t>
-  </si>
-  <si>
-    <t>A14</t>
-  </si>
-  <si>
-    <t>A15</t>
-  </si>
-  <si>
-    <t>A16</t>
-  </si>
-  <si>
-    <t>A17</t>
-  </si>
-  <si>
-    <t>A18</t>
-  </si>
-  <si>
-    <t>A19</t>
-  </si>
-  <si>
-    <t>A20</t>
-  </si>
-  <si>
-    <t>A21</t>
-  </si>
-  <si>
-    <t>A22</t>
-  </si>
-  <si>
-    <t>A23</t>
-  </si>
-  <si>
-    <t>A24</t>
-  </si>
-  <si>
-    <t>A25</t>
-  </si>
-  <si>
-    <t>A26</t>
-  </si>
-  <si>
-    <t>A27</t>
-  </si>
-  <si>
-    <t>A28</t>
-  </si>
-  <si>
-    <t>A29</t>
-  </si>
-  <si>
-    <t>A30</t>
-  </si>
-  <si>
-    <t>A31</t>
-  </si>
-  <si>
-    <t>A32</t>
-  </si>
-  <si>
-    <t>A33</t>
-  </si>
-  <si>
-    <t>A34</t>
-  </si>
-  <si>
-    <t>A35</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="70">
   <si>
     <t>ZODIAC</t>
   </si>
@@ -184,9 +80,6 @@
   </si>
   <si>
     <t>Ying 2011</t>
-  </si>
-  <si>
-    <t>Noktehdan 2016</t>
   </si>
   <si>
     <t>GGA</t>
@@ -335,12 +228,34 @@
   <si>
     <t>58.72 5</t>
   </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Noktehdan 2016
+(Avg)</t>
+  </si>
+  <si>
+    <t>0,7984*</t>
+  </si>
+  <si>
+    <t>0,7353*</t>
+  </si>
+  <si>
+    <t>* SOLUTIONS WITH SINGLETONS</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,8 +304,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,8 +332,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -489,49 +418,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -563,11 +455,121 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -593,9 +595,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -607,28 +606,16 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -637,15 +624,387 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="109">
+  <dxfs count="274">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1038,16 +1397,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1093,6 +1442,1346 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1747,6 +3436,1034 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Número</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> de mejores soluciones por propuesta</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Número mejores soluciones</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>DatasetA!$C$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Ulutas 2019 
+(Avg)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Karoum 2018 
+(Avg)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Noktehdan 2016
+(Avg)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Elbenani 2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ying 2011</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DatasetA-2'!$C$37:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EB35-425C-BFA3-E3C33C7FCC8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1959934576"/>
+        <c:axId val="1959933328"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1959934576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1959933328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1959933328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Número de mejores</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES" baseline="0"/>
+                  <a:t> soluciones</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1959934576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D61A7DFD-9DF9-4FAF-AC5A-3DA9C0148BD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2012,1611 +4729,3686 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="11" width="16.28515625" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="12" width="16.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="13">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="29">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
         <v>0.82350000000000001</v>
       </c>
-      <c r="C2" s="13">
+      <c r="D2" s="12">
         <v>0.82350000000000001</v>
       </c>
-      <c r="D2" s="26">
+      <c r="E2" s="21">
         <v>0.82350000000000001</v>
       </c>
-      <c r="E2" s="13">
+      <c r="F2" s="12">
         <v>0.82350000000000001</v>
       </c>
-      <c r="F2" s="13">
+      <c r="G2" s="12">
         <v>0.82350000000000001</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="15">
-        <f>MAX(B2:E2)</f>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="14">
+        <f>MAX(C2:F2)</f>
         <v>0.82350000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="13">
+      <c r="O2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="29">
+        <v>2</v>
+      </c>
+      <c r="C3" s="12">
         <v>0.69569999999999999</v>
       </c>
-      <c r="C3" s="13">
+      <c r="D3" s="12">
         <v>0.69569999999999999</v>
       </c>
-      <c r="D3" s="26">
+      <c r="E3" s="21">
         <v>0.69569999999999999</v>
       </c>
-      <c r="E3" s="13">
+      <c r="F3" s="12">
         <v>0.69569999999999999</v>
       </c>
-      <c r="F3" s="13">
+      <c r="G3" s="12">
         <v>0.69569999999999999</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="15">
-        <f t="shared" ref="L3:L36" si="0">MAX(B3:E3)</f>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="14">
+        <f t="shared" ref="M3:M36" si="0">MAX(C3:F3)</f>
         <v>0.69569999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="13">
+    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="29">
+        <v>3</v>
+      </c>
+      <c r="C4" s="12">
         <v>0.79590000000000005</v>
       </c>
-      <c r="C4" s="13">
+      <c r="D4" s="12">
         <v>0.79590000000000005</v>
       </c>
-      <c r="D4" s="26">
-        <v>0.7984</v>
-      </c>
-      <c r="E4" s="13">
+      <c r="E4" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="12">
         <v>0.79590000000000005</v>
       </c>
-      <c r="F4" s="13">
+      <c r="G4" s="12">
         <v>0.79590000000000005</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="15">
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="14">
         <f t="shared" si="0"/>
-        <v>0.7984</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="13">
+        <v>0.79590000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="29">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12">
         <v>0.76919999999999999</v>
       </c>
-      <c r="C5" s="13">
+      <c r="D5" s="12">
         <v>0.76919999999999999</v>
       </c>
-      <c r="D5" s="26">
+      <c r="E5" s="21">
         <v>0.76919999999999999</v>
       </c>
-      <c r="E5" s="13">
+      <c r="F5" s="12">
         <v>0.76919999999999999</v>
       </c>
-      <c r="F5" s="13">
+      <c r="G5" s="12">
         <v>0.76919999999999999</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="15">
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="14">
         <f t="shared" si="0"/>
         <v>0.76919999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="13">
+    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="29">
+        <v>5</v>
+      </c>
+      <c r="C6" s="12">
         <v>0.60870000000000002</v>
       </c>
-      <c r="C6" s="13">
+      <c r="D6" s="12">
         <v>0.60870000000000002</v>
       </c>
-      <c r="D6" s="26">
+      <c r="E6" s="21">
         <v>0.60870000000000002</v>
       </c>
-      <c r="E6" s="13">
+      <c r="F6" s="12">
         <v>0.60870000000000002</v>
       </c>
-      <c r="F6" s="13">
+      <c r="G6" s="12">
         <v>0.60870000000000002</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="15">
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="14">
         <f t="shared" si="0"/>
         <v>0.60870000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="13">
+    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="29">
+        <v>6</v>
+      </c>
+      <c r="C7" s="12">
         <v>0.70830000000000004</v>
       </c>
-      <c r="C7" s="13">
+      <c r="D7" s="12">
         <v>0.70830000000000004</v>
       </c>
-      <c r="D7" s="26">
+      <c r="E7" s="21">
         <v>0.70830000000000004</v>
       </c>
-      <c r="E7" s="13">
+      <c r="F7" s="12">
         <v>0.70830000000000004</v>
       </c>
-      <c r="F7" s="13">
+      <c r="G7" s="12">
         <v>0.70830000000000004</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="15">
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="14">
         <f t="shared" si="0"/>
         <v>0.70830000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="13">
+    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="29">
+        <v>7</v>
+      </c>
+      <c r="C8" s="12">
         <v>0.69440000000000002</v>
       </c>
-      <c r="C8" s="13">
+      <c r="D8" s="12">
         <v>0.69440000000000002</v>
       </c>
-      <c r="D8" s="26">
+      <c r="E8" s="21">
         <v>0.69440000000000002</v>
       </c>
-      <c r="E8" s="13">
+      <c r="F8" s="12">
         <v>0.69440000000000002</v>
       </c>
-      <c r="F8" s="13">
+      <c r="G8" s="12">
         <v>0.69440000000000002</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="15">
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="14">
         <f t="shared" si="0"/>
         <v>0.69440000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="13">
+    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="29">
+        <v>8</v>
+      </c>
+      <c r="C9" s="12">
         <v>0.85250000000000004</v>
       </c>
-      <c r="C9" s="13">
+      <c r="D9" s="12">
         <v>0.85250000000000004</v>
       </c>
-      <c r="D9" s="26">
+      <c r="E9" s="21">
         <v>0.85250000000000004</v>
       </c>
-      <c r="E9" s="13">
+      <c r="F9" s="12">
         <v>0.85250000000000004</v>
       </c>
-      <c r="F9" s="13">
+      <c r="G9" s="12">
         <v>0.85250000000000004</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="15">
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="14">
         <f t="shared" si="0"/>
         <v>0.85250000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="13">
+    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="29">
+        <v>9</v>
+      </c>
+      <c r="C10" s="12">
         <v>0.58720000000000006</v>
       </c>
-      <c r="C10" s="13">
+      <c r="D10" s="12">
         <v>0.58720000000000006</v>
       </c>
-      <c r="D10" s="26">
+      <c r="E10" s="21">
         <v>0.58720000000000006</v>
       </c>
-      <c r="E10" s="13">
+      <c r="F10" s="12">
         <v>0.58720000000000006</v>
       </c>
-      <c r="F10" s="13">
+      <c r="G10" s="12">
         <v>0.58720000000000006</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="15">
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="14">
         <f t="shared" si="0"/>
         <v>0.58720000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="13">
+    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="29">
+        <v>10</v>
+      </c>
+      <c r="C11" s="12">
         <v>0.75</v>
       </c>
-      <c r="C11" s="13">
+      <c r="D11" s="12">
         <v>0.75</v>
       </c>
-      <c r="D11" s="26">
+      <c r="E11" s="21">
         <v>0.75</v>
       </c>
-      <c r="E11" s="13">
+      <c r="F11" s="12">
         <v>0.75</v>
       </c>
-      <c r="F11" s="13">
+      <c r="G11" s="12">
         <v>0.75</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="15">
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="14">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="13">
+    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="29">
+        <v>11</v>
+      </c>
+      <c r="C12" s="12">
         <v>0.92</v>
       </c>
-      <c r="C12" s="13">
+      <c r="D12" s="12">
         <v>0.92</v>
       </c>
-      <c r="D12" s="26">
+      <c r="E12" s="21">
         <v>0.92</v>
       </c>
-      <c r="E12" s="13">
+      <c r="F12" s="12">
         <v>0.92</v>
       </c>
-      <c r="F12" s="13">
+      <c r="G12" s="12">
         <v>0.92</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="15">
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="14">
         <f t="shared" si="0"/>
         <v>0.92</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="13">
+    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="29">
+        <v>12</v>
+      </c>
+      <c r="C13" s="12">
         <v>0.72060000000000002</v>
       </c>
-      <c r="C13" s="13">
+      <c r="D13" s="12">
         <v>0.72060000000000002</v>
       </c>
-      <c r="D13" s="26">
-        <v>0.73529999999999995</v>
-      </c>
-      <c r="E13" s="13">
+      <c r="E13" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="12">
         <v>0.72060000000000002</v>
       </c>
-      <c r="F13" s="13">
+      <c r="G13" s="12">
         <v>0.72060000000000002</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="15">
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="14">
         <f t="shared" si="0"/>
-        <v>0.73529999999999995</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="13">
+        <v>0.72060000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="29">
+        <v>13</v>
+      </c>
+      <c r="C14" s="12">
         <v>0.71830000000000005</v>
       </c>
-      <c r="C14" s="13">
+      <c r="D14" s="12">
         <v>0.71830000000000005</v>
       </c>
-      <c r="D14" s="26">
+      <c r="E14" s="21">
         <v>0.71830000000000005</v>
       </c>
-      <c r="E14" s="13">
+      <c r="F14" s="12">
         <v>0.71830000000000005</v>
       </c>
-      <c r="F14" s="13">
+      <c r="G14" s="12">
         <v>0.71830000000000005</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="15">
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="14">
         <f t="shared" si="0"/>
         <v>0.71830000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="13">
+    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="29">
+        <v>14</v>
+      </c>
+      <c r="C15" s="12">
         <v>0.53259999999999996</v>
       </c>
-      <c r="C15" s="13">
+      <c r="D15" s="12">
         <v>0.53259999999999996</v>
       </c>
-      <c r="D15" s="26">
+      <c r="E15" s="21">
         <v>0.53390000000000004</v>
       </c>
-      <c r="E15" s="13">
+      <c r="F15" s="12">
         <v>0.53259999999999996</v>
       </c>
-      <c r="F15" s="13">
+      <c r="G15" s="12">
         <v>0.53259999999999996</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="15">
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="14">
         <f t="shared" si="0"/>
         <v>0.53390000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="13">
+    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="29">
+        <v>15</v>
+      </c>
+      <c r="C16" s="12">
         <v>0.68989999999999996</v>
       </c>
-      <c r="C16" s="13">
+      <c r="D16" s="12">
         <v>0.69530000000000003</v>
       </c>
-      <c r="D16" s="26">
-        <v>0.5746</v>
-      </c>
-      <c r="E16" s="13">
+      <c r="E16" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="12">
         <v>0.69530000000000003</v>
       </c>
-      <c r="F16" s="13">
+      <c r="G16" s="12">
         <v>0.68989999999999996</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="15">
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="14">
         <f t="shared" si="0"/>
         <v>0.69530000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="13">
+    <row r="17" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="29">
+        <v>16</v>
+      </c>
+      <c r="C17" s="12">
         <v>0.57450000000000001</v>
       </c>
-      <c r="C17" s="13">
+      <c r="D17" s="12">
         <v>0.57530000000000003</v>
       </c>
-      <c r="D17" s="26">
+      <c r="E17" s="21">
+        <v>0.5746</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0.57530000000000003</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0.57530000000000003</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="14">
+        <f t="shared" si="0"/>
+        <v>0.57530000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="29">
+        <v>17</v>
+      </c>
+      <c r="C18" s="12">
+        <v>0.57609999999999995</v>
+      </c>
+      <c r="D18" s="12">
         <v>0.57730000000000004</v>
       </c>
-      <c r="E17" s="13">
-        <v>0.57530000000000003</v>
-      </c>
-      <c r="F17" s="13">
-        <v>0.57530000000000003</v>
-      </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="15">
+      <c r="E18" s="21">
+        <v>0.57730000000000004</v>
+      </c>
+      <c r="F18" s="12">
+        <v>0.57730000000000004</v>
+      </c>
+      <c r="G18" s="12">
+        <v>0.57730000000000004</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="14">
         <f t="shared" si="0"/>
         <v>0.57730000000000004</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="13">
-        <v>0.57609999999999995</v>
-      </c>
-      <c r="C18" s="13">
-        <v>0.57730000000000004</v>
-      </c>
-      <c r="D18" s="26">
+      <c r="R18" s="21"/>
+    </row>
+    <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="29">
+        <v>18</v>
+      </c>
+      <c r="C19" s="12">
+        <v>0.43430000000000002</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0.4345</v>
+      </c>
+      <c r="E19" s="21">
         <v>0.42780000000000001</v>
       </c>
-      <c r="E18" s="13">
-        <v>0.57730000000000004</v>
-      </c>
-      <c r="F18" s="13">
-        <v>0.57730000000000004</v>
-      </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="15">
+      <c r="F19" s="12">
+        <v>0.4345</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0.4345</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="14">
         <f t="shared" si="0"/>
-        <v>0.57730000000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="13">
-        <v>0.43430000000000002</v>
-      </c>
-      <c r="C19" s="13">
         <v>0.4345</v>
       </c>
-      <c r="D19" s="26">
+      <c r="R19" s="21"/>
+    </row>
+    <row r="20" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="29">
+        <v>19</v>
+      </c>
+      <c r="C20" s="12">
+        <v>0.50209999999999999</v>
+      </c>
+      <c r="D20" s="12">
         <v>0.5081</v>
       </c>
-      <c r="E19" s="13">
-        <v>0.4345</v>
-      </c>
-      <c r="F19" s="13">
-        <v>0.4345</v>
-      </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="15">
+      <c r="E20" s="21">
+        <v>0.5081</v>
+      </c>
+      <c r="F20" s="12">
+        <v>0.5081</v>
+      </c>
+      <c r="G20" s="12">
+        <v>0.5081</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="14">
         <f t="shared" si="0"/>
         <v>0.5081</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="13">
-        <v>0.50209999999999999</v>
-      </c>
-      <c r="C20" s="13">
-        <v>0.5081</v>
-      </c>
-      <c r="D20" s="26">
+      <c r="R20" s="21"/>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="29">
+        <v>20</v>
+      </c>
+      <c r="C21" s="12">
         <v>0.77910000000000001</v>
       </c>
-      <c r="E20" s="13">
-        <v>0.5081</v>
-      </c>
-      <c r="F20" s="13">
-        <v>0.5081</v>
-      </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="15">
+      <c r="D21" s="12">
+        <v>0.77910000000000001</v>
+      </c>
+      <c r="E21" s="21">
+        <v>0.77910000000000001</v>
+      </c>
+      <c r="F21" s="12">
+        <v>0.77910000000000001</v>
+      </c>
+      <c r="G21" s="12">
+        <v>0.77910000000000001</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="14">
         <f t="shared" si="0"/>
         <v>0.77910000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="13">
-        <v>0.77910000000000001</v>
-      </c>
-      <c r="C21" s="13">
-        <v>0.77910000000000001</v>
-      </c>
-      <c r="D21" s="26">
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="29">
+        <v>21</v>
+      </c>
+      <c r="C22" s="12">
         <v>0.57979999999999998</v>
       </c>
-      <c r="E21" s="13">
-        <v>0.77910000000000001</v>
-      </c>
-      <c r="F21" s="13">
-        <v>0.77910000000000001</v>
-      </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="15">
+      <c r="D22" s="12">
+        <v>0.57979999999999998</v>
+      </c>
+      <c r="E22" s="21">
+        <v>0.57979999999999998</v>
+      </c>
+      <c r="F22" s="12">
+        <v>0.57979999999999998</v>
+      </c>
+      <c r="G22" s="12">
+        <v>0.57979999999999998</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="14">
         <f t="shared" si="0"/>
-        <v>0.77910000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="13">
         <v>0.57979999999999998</v>
       </c>
-      <c r="C22" s="13">
-        <v>0.57979999999999998</v>
-      </c>
-      <c r="D22" s="26">
-        <v>1</v>
-      </c>
-      <c r="E22" s="13">
-        <v>0.57979999999999998</v>
-      </c>
-      <c r="F22" s="13">
-        <v>0.57979999999999998</v>
-      </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="15">
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+    </row>
+    <row r="23" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="29">
+        <v>22</v>
+      </c>
+      <c r="C23" s="12">
+        <v>1</v>
+      </c>
+      <c r="D23" s="12">
+        <v>1</v>
+      </c>
+      <c r="E23" s="21">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12">
+        <v>1</v>
+      </c>
+      <c r="G23" s="12">
+        <v>1</v>
+      </c>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="13">
-        <v>1</v>
-      </c>
-      <c r="C23" s="13">
-        <v>1</v>
-      </c>
-      <c r="D23" s="26">
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+    </row>
+    <row r="24" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="29">
+        <v>23</v>
+      </c>
+      <c r="C24" s="12">
         <v>0.85109999999999997</v>
       </c>
-      <c r="E23" s="13">
-        <v>1</v>
-      </c>
-      <c r="F23" s="13">
-        <v>1</v>
-      </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="13">
+      <c r="D24" s="12">
         <v>0.85109999999999997</v>
       </c>
-      <c r="C24" s="13">
+      <c r="E24" s="21">
         <v>0.85109999999999997</v>
       </c>
-      <c r="D24" s="26">
-        <v>0.73509999999999998</v>
-      </c>
-      <c r="E24" s="13">
+      <c r="F24" s="12">
         <v>0.85109999999999997</v>
       </c>
-      <c r="F24" s="13">
+      <c r="G24" s="12">
         <v>0.85109999999999997</v>
       </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="15">
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="14">
         <f t="shared" si="0"/>
         <v>0.85109999999999997</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="13">
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+    </row>
+    <row r="25" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="29">
+        <v>24</v>
+      </c>
+      <c r="C25" s="12">
         <v>0.73509999999999998</v>
       </c>
-      <c r="C25" s="13">
+      <c r="D25" s="12">
         <v>0.73509999999999998</v>
       </c>
-      <c r="D25" s="26">
-        <v>0.53290000000000004</v>
-      </c>
-      <c r="E25" s="13">
+      <c r="E25" s="21">
         <v>0.73509999999999998</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="12">
         <v>0.73509999999999998</v>
       </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="15">
+      <c r="G25" s="12">
+        <v>0.73509999999999998</v>
+      </c>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="14">
         <f t="shared" si="0"/>
         <v>0.73509999999999998</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="13">
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+    </row>
+    <row r="26" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="29">
+        <v>25</v>
+      </c>
+      <c r="C26" s="12">
         <v>0.5323</v>
       </c>
-      <c r="C26" s="13">
+      <c r="D26" s="12">
         <v>0.53290000000000004</v>
       </c>
-      <c r="D26" s="26">
-        <v>0.54790000000000005</v>
-      </c>
-      <c r="E26" s="13">
+      <c r="E26" s="21">
         <v>0.53290000000000004</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="12">
         <v>0.53290000000000004</v>
       </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="15">
+      <c r="G26" s="12">
+        <v>0.53290000000000004</v>
+      </c>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="14">
         <f t="shared" si="0"/>
-        <v>0.54790000000000005</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="13">
+        <v>0.53290000000000004</v>
+      </c>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+    </row>
+    <row r="27" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="29">
+        <v>26</v>
+      </c>
+      <c r="C27" s="12">
         <v>0.48670000000000002</v>
       </c>
-      <c r="C27" s="13">
+      <c r="D27" s="12">
         <v>0.48609999999999998</v>
       </c>
-      <c r="D27" s="26">
-        <v>0.59589999999999999</v>
-      </c>
-      <c r="E27" s="13">
+      <c r="E27" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="12">
         <v>0.48949999999999999</v>
       </c>
-      <c r="F27" s="13">
+      <c r="G27" s="12">
         <v>0.48949999999999999</v>
       </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="15">
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="14">
         <f t="shared" si="0"/>
-        <v>0.59589999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="13">
+        <v>0.48949999999999999</v>
+      </c>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+    </row>
+    <row r="28" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="29">
+        <v>27</v>
+      </c>
+      <c r="C28" s="12">
         <v>0.46</v>
       </c>
-      <c r="C28" s="13">
+      <c r="D28" s="12">
         <v>0.46210000000000001</v>
       </c>
-      <c r="D28" s="26">
-        <v>0.5948</v>
-      </c>
-      <c r="E28" s="13">
+      <c r="E28" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="12">
         <v>0.46579999999999999</v>
       </c>
-      <c r="F28" s="13">
+      <c r="G28" s="12">
         <v>0.47260000000000002</v>
       </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="15">
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="14">
         <f t="shared" si="0"/>
-        <v>0.5948</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="13">
+        <v>0.46579999999999999</v>
+      </c>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+    </row>
+    <row r="29" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="29">
+        <v>28</v>
+      </c>
+      <c r="C29" s="12">
         <v>0.54820000000000002</v>
       </c>
-      <c r="C29" s="13">
+      <c r="D29" s="12">
         <v>0.54820000000000002</v>
       </c>
-      <c r="D29" s="26">
-        <v>0.52180000000000004</v>
-      </c>
-      <c r="E29" s="13">
+      <c r="E29" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="12">
         <v>0.54820000000000002</v>
       </c>
-      <c r="F29" s="13">
+      <c r="G29" s="12">
         <v>0.54820000000000002</v>
       </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="15">
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="14">
         <f t="shared" si="0"/>
         <v>0.54820000000000002</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="13">
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+    </row>
+    <row r="30" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="29">
+        <v>29</v>
+      </c>
+      <c r="C30" s="12">
         <v>0.46550000000000002</v>
       </c>
-      <c r="C30" s="13">
+      <c r="D30" s="12">
         <v>0.47060000000000002</v>
       </c>
-      <c r="D30" s="26">
-        <v>0.63039999999999996</v>
-      </c>
-      <c r="E30" s="13">
+      <c r="E30" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="12">
         <v>0.47060000000000002</v>
       </c>
-      <c r="F30" s="13">
+      <c r="G30" s="12">
         <v>0.4723</v>
       </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="15">
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="14">
         <f t="shared" si="0"/>
-        <v>0.63039999999999996</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="13">
+        <v>0.47060000000000002</v>
+      </c>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+    </row>
+    <row r="31" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="29">
+        <v>30</v>
+      </c>
+      <c r="C31" s="12">
         <v>0.62639999999999996</v>
       </c>
-      <c r="C31" s="13">
+      <c r="D31" s="12">
         <v>0.6331</v>
       </c>
-      <c r="D31" s="26">
-        <v>0.68379999999999996</v>
-      </c>
-      <c r="E31" s="13">
+      <c r="E31" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="12">
         <v>0.63119999999999998</v>
       </c>
-      <c r="F31" s="13">
+      <c r="G31" s="12">
         <v>0.6331</v>
       </c>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="15">
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="14">
         <f t="shared" si="0"/>
-        <v>0.68379999999999996</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="13">
+        <v>0.6331</v>
+      </c>
+      <c r="R31" s="21"/>
+    </row>
+    <row r="32" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="29">
+        <v>31</v>
+      </c>
+      <c r="C32" s="12">
         <v>0.59670000000000001</v>
       </c>
-      <c r="C32" s="13">
+      <c r="D32" s="12">
         <v>0.59770000000000001</v>
       </c>
-      <c r="D32" s="26">
-        <v>0.49959999999999999</v>
-      </c>
-      <c r="E32" s="13">
+      <c r="E32" s="23">
+        <v>0.59589999999999999</v>
+      </c>
+      <c r="F32" s="12">
         <v>0.60119999999999996</v>
       </c>
-      <c r="F32" s="13">
+      <c r="G32" s="12">
         <v>0.59770000000000001</v>
       </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="15">
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="14">
         <f t="shared" si="0"/>
         <v>0.60119999999999996</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="13">
+      <c r="R32" s="21"/>
+    </row>
+    <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="29">
+        <v>32</v>
+      </c>
+      <c r="C33" s="12">
         <v>0.50619999999999998</v>
       </c>
-      <c r="C33" s="13">
+      <c r="D33" s="12">
         <v>0.50829999999999997</v>
       </c>
-      <c r="D33" s="26">
-        <v>0.72370000000000001</v>
-      </c>
-      <c r="E33" s="13">
+      <c r="E33" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="12">
         <v>0.50829999999999997</v>
       </c>
-      <c r="F33" s="13">
+      <c r="G33" s="12">
         <v>0.50829999999999997</v>
       </c>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="15">
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="14">
         <f t="shared" si="0"/>
-        <v>0.72370000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="13">
+        <v>0.50829999999999997</v>
+      </c>
+      <c r="R33" s="21"/>
+    </row>
+    <row r="34" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="29">
+        <v>33</v>
+      </c>
+      <c r="C34" s="12">
         <v>0.47820000000000001</v>
       </c>
-      <c r="C34" s="13">
+      <c r="D34" s="12">
         <v>0.47749999999999998</v>
       </c>
-      <c r="D34" s="26">
-        <v>0.77310000000000001</v>
-      </c>
-      <c r="E34" s="13">
+      <c r="E34" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="12">
         <v>0.47749999999999998</v>
       </c>
-      <c r="F34" s="13">
+      <c r="G34" s="12">
         <v>0.47139999999999999</v>
       </c>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="15">
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="14">
         <f t="shared" si="0"/>
-        <v>0.77310000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="13">
+        <v>0.47820000000000001</v>
+      </c>
+      <c r="R34" s="21"/>
+    </row>
+    <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="29">
+        <v>34</v>
+      </c>
+      <c r="C35" s="12">
         <v>0.60140000000000005</v>
       </c>
-      <c r="C35" s="13">
+      <c r="D35" s="12">
         <v>0.60640000000000005</v>
       </c>
-      <c r="D35" s="26">
-        <v>0.73240000000000005</v>
-      </c>
-      <c r="E35" s="13">
+      <c r="E35" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" s="12">
         <v>0.60629999999999995</v>
       </c>
-      <c r="F35" s="13">
+      <c r="G35" s="12">
         <v>0.60640000000000005</v>
       </c>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="15">
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="14">
         <f t="shared" si="0"/>
-        <v>0.73240000000000005</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="14">
+        <v>0.60640000000000005</v>
+      </c>
+      <c r="R35" s="21"/>
+    </row>
+    <row r="36" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="32">
+        <v>35</v>
+      </c>
+      <c r="C36" s="13">
         <v>0.84030000000000005</v>
       </c>
-      <c r="C36" s="14">
+      <c r="D36" s="13">
         <v>0.84030000000000005</v>
       </c>
-      <c r="D36" s="26">
-        <v>0.62949999999999995</v>
-      </c>
-      <c r="E36" s="14">
+      <c r="E36" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="13">
         <v>0.84030000000000005</v>
       </c>
-      <c r="F36" s="14">
+      <c r="G36" s="13">
         <v>0.84030000000000005</v>
       </c>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="16">
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="15">
         <f t="shared" si="0"/>
         <v>0.84030000000000005</v>
       </c>
+      <c r="R36" s="21"/>
+    </row>
+    <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R37" s="21"/>
+    </row>
+    <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R38" s="21"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="108" priority="117" operator="equal">
-      <formula>$L$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="107" priority="114" operator="equal">
-      <formula>$L$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="116" operator="equal">
-      <formula>$L$2</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="105" priority="115" operator="equal">
-      <formula>$L$2</formula>
+    <cfRule type="cellIs" dxfId="273" priority="148" operator="equal">
+      <formula>$M$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="104" priority="112" operator="equal">
-      <formula>$L$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="113" operator="equal">
-      <formula>$L$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="102" priority="111" operator="equal">
-      <formula>$L$16</formula>
+    <cfRule type="cellIs" dxfId="272" priority="145" operator="equal">
+      <formula>$M$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="cellIs" dxfId="271" priority="146" operator="equal">
+      <formula>$M$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="cellIs" dxfId="270" priority="143" operator="equal">
+      <formula>$M$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="101" priority="110" operator="equal">
-      <formula>$L$16</formula>
+    <cfRule type="cellIs" dxfId="269" priority="142" operator="equal">
+      <formula>$M$16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="cellIs" dxfId="268" priority="141" operator="equal">
+      <formula>$M$16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="cellIs" dxfId="267" priority="140" operator="equal">
+      <formula>$M$17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="cellIs" dxfId="266" priority="138" operator="equal">
+      <formula>$M$18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="cellIs" dxfId="265" priority="137" operator="equal">
+      <formula>$M$18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="cellIs" dxfId="100" priority="109" operator="equal">
-      <formula>$L$17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="cellIs" dxfId="99" priority="107" operator="equal">
-      <formula>$L$18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="cellIs" dxfId="98" priority="106" operator="equal">
-      <formula>$L$18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
-    <cfRule type="cellIs" dxfId="97" priority="105" operator="equal">
-      <formula>$L$17</formula>
+    <cfRule type="cellIs" dxfId="264" priority="136" operator="equal">
+      <formula>$M$17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="cellIs" dxfId="263" priority="135" operator="equal">
+      <formula>$M$19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="96" priority="104" operator="equal">
-      <formula>$L$19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="cellIs" dxfId="95" priority="103" operator="equal">
-      <formula>$L$19</formula>
+    <cfRule type="cellIs" dxfId="262" priority="134" operator="equal">
+      <formula>$M$19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="cellIs" dxfId="261" priority="133" operator="equal">
+      <formula>$M$20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="cellIs" dxfId="94" priority="102" operator="equal">
-      <formula>$L$20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
-    <cfRule type="cellIs" dxfId="93" priority="101" operator="equal">
-      <formula>$L$20</formula>
+    <cfRule type="cellIs" dxfId="260" priority="132" operator="equal">
+      <formula>$M$20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="cellIs" dxfId="259" priority="131" operator="equal">
+      <formula>$M$21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="cellIs" dxfId="92" priority="100" operator="equal">
-      <formula>$L$21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21">
-    <cfRule type="cellIs" dxfId="91" priority="99" operator="equal">
-      <formula>$L$21</formula>
+    <cfRule type="cellIs" dxfId="258" priority="130" operator="equal">
+      <formula>$M$21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="cellIs" dxfId="257" priority="129" operator="equal">
+      <formula>$M$22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="cellIs" dxfId="90" priority="98" operator="equal">
-      <formula>$L$22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
-    <cfRule type="cellIs" dxfId="89" priority="97" operator="equal">
-      <formula>$L$22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27:K27">
-    <cfRule type="cellIs" dxfId="88" priority="96" operator="equal">
-      <formula>$L$27</formula>
+    <cfRule type="cellIs" dxfId="256" priority="128" operator="equal">
+      <formula>$M$22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:L27">
+    <cfRule type="cellIs" dxfId="255" priority="127" operator="equal">
+      <formula>$M$27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="cellIs" dxfId="254" priority="124" operator="equal">
+      <formula>$M$28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="cellIs" dxfId="87" priority="93" operator="equal">
-      <formula>$L$28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28">
-    <cfRule type="cellIs" dxfId="86" priority="92" operator="equal">
-      <formula>$L$28</formula>
+    <cfRule type="cellIs" dxfId="253" priority="123" operator="equal">
+      <formula>$M$28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="cellIs" dxfId="252" priority="122" operator="equal">
+      <formula>$M$29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="cellIs" dxfId="85" priority="91" operator="equal">
-      <formula>$L$29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29">
-    <cfRule type="cellIs" dxfId="84" priority="90" operator="equal">
-      <formula>$L$29</formula>
+    <cfRule type="cellIs" dxfId="251" priority="121" operator="equal">
+      <formula>$M$29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="cellIs" dxfId="250" priority="119" operator="equal">
+      <formula>$M$30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="cellIs" dxfId="249" priority="117" operator="equal">
+      <formula>$M$31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="cellIs" dxfId="248" priority="116" operator="equal">
+      <formula>$M$32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="cellIs" dxfId="247" priority="115" operator="equal">
+      <formula>$M$33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="cellIs" dxfId="246" priority="114" operator="equal">
+      <formula>$M$34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="cellIs" dxfId="245" priority="113" operator="equal">
+      <formula>$M$34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="cellIs" dxfId="244" priority="112" operator="equal">
+      <formula>$M$33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="cellIs" dxfId="243" priority="111" operator="equal">
+      <formula>$M$32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="cellIs" dxfId="242" priority="110" operator="equal">
+      <formula>$M$31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="cellIs" dxfId="83" priority="88" operator="equal">
-      <formula>$L$30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="cellIs" dxfId="82" priority="86" operator="equal">
-      <formula>$L$31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="cellIs" dxfId="81" priority="85" operator="equal">
-      <formula>$L$32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="cellIs" dxfId="80" priority="84" operator="equal">
-      <formula>$L$33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="cellIs" dxfId="79" priority="83" operator="equal">
-      <formula>$L$34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34">
-    <cfRule type="cellIs" dxfId="78" priority="82" operator="equal">
-      <formula>$L$34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33">
-    <cfRule type="cellIs" dxfId="77" priority="81" operator="equal">
-      <formula>$L$33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32">
-    <cfRule type="cellIs" dxfId="76" priority="80" operator="equal">
-      <formula>$L$32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B31">
-    <cfRule type="cellIs" dxfId="75" priority="79" operator="equal">
-      <formula>$L$31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30">
-    <cfRule type="cellIs" dxfId="74" priority="78" operator="equal">
-      <formula>$L$30</formula>
+    <cfRule type="cellIs" dxfId="241" priority="109" operator="equal">
+      <formula>$M$30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="cellIs" dxfId="240" priority="108" operator="equal">
+      <formula>$M$35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="cellIs" dxfId="239" priority="106" operator="equal">
+      <formula>$M$36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="cellIs" dxfId="238" priority="105" operator="equal">
+      <formula>$M$36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="cellIs" dxfId="73" priority="77" operator="equal">
-      <formula>$L$35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
-    <cfRule type="cellIs" dxfId="72" priority="75" operator="equal">
-      <formula>$L$36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36">
-    <cfRule type="cellIs" dxfId="71" priority="74" operator="equal">
-      <formula>$L$36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35">
-    <cfRule type="cellIs" dxfId="70" priority="73" operator="equal">
-      <formula>$L$35</formula>
+    <cfRule type="cellIs" dxfId="237" priority="104" operator="equal">
+      <formula>$M$35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="cellIs" dxfId="236" priority="103" operator="equal">
+      <formula>$M$26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="cellIs" dxfId="69" priority="72" operator="equal">
-      <formula>$L$26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26">
-    <cfRule type="cellIs" dxfId="68" priority="71" operator="equal">
-      <formula>$L$26</formula>
+    <cfRule type="cellIs" dxfId="235" priority="102" operator="equal">
+      <formula>$M$26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="cellIs" dxfId="234" priority="101" operator="equal">
+      <formula>$M$25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="cellIs" dxfId="67" priority="70" operator="equal">
-      <formula>$L$25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25">
-    <cfRule type="cellIs" dxfId="66" priority="69" operator="equal">
-      <formula>$L$25</formula>
+    <cfRule type="cellIs" dxfId="233" priority="100" operator="equal">
+      <formula>$M$25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="cellIs" dxfId="232" priority="99" operator="equal">
+      <formula>$M$24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="cellIs" dxfId="65" priority="68" operator="equal">
-      <formula>$L$24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
-    <cfRule type="cellIs" dxfId="64" priority="67" operator="equal">
-      <formula>$L$24</formula>
+    <cfRule type="cellIs" dxfId="231" priority="98" operator="equal">
+      <formula>$M$24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="cellIs" dxfId="230" priority="97" operator="equal">
+      <formula>$M$23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="cellIs" dxfId="63" priority="66" operator="equal">
-      <formula>$L$23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="cellIs" dxfId="62" priority="65" operator="equal">
-      <formula>$L$23</formula>
+    <cfRule type="cellIs" dxfId="229" priority="96" operator="equal">
+      <formula>$M$23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="cellIs" dxfId="228" priority="95" operator="equal">
+      <formula>$M$15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="61" priority="64" operator="equal">
-      <formula>$L$15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
-    <cfRule type="cellIs" dxfId="60" priority="63" operator="equal">
-      <formula>$L$15</formula>
+    <cfRule type="cellIs" dxfId="227" priority="94" operator="equal">
+      <formula>$M$15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="cellIs" dxfId="226" priority="93" operator="equal">
+      <formula>$M$14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="59" priority="62" operator="equal">
-      <formula>$L$14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="58" priority="61" operator="equal">
-      <formula>$L$14</formula>
+    <cfRule type="cellIs" dxfId="225" priority="92" operator="equal">
+      <formula>$M$14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="cellIs" dxfId="224" priority="91" operator="equal">
+      <formula>$M$13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="cellIs" dxfId="57" priority="60" operator="equal">
-      <formula>$L$13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="56" priority="59" operator="equal">
-      <formula>$L$13</formula>
+    <cfRule type="cellIs" dxfId="223" priority="90" operator="equal">
+      <formula>$M$13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="222" priority="89" operator="equal">
+      <formula>$M$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="55" priority="58" operator="equal">
-      <formula>$L$12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
-    <cfRule type="cellIs" dxfId="54" priority="57" operator="equal">
-      <formula>$L$12</formula>
+    <cfRule type="cellIs" dxfId="221" priority="88" operator="equal">
+      <formula>$M$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="cellIs" dxfId="220" priority="87" operator="equal">
+      <formula>$M$11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="53" priority="56" operator="equal">
-      <formula>$L$11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="52" priority="55" operator="equal">
-      <formula>$L$11</formula>
+    <cfRule type="cellIs" dxfId="219" priority="86" operator="equal">
+      <formula>$M$11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="cellIs" dxfId="218" priority="85" operator="equal">
+      <formula>$M$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="51" priority="54" operator="equal">
-      <formula>$L$10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
-    <cfRule type="cellIs" dxfId="50" priority="53" operator="equal">
-      <formula>$L$10</formula>
+    <cfRule type="cellIs" dxfId="217" priority="84" operator="equal">
+      <formula>$M$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="cellIs" dxfId="216" priority="83" operator="equal">
+      <formula>$M$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="49" priority="52" operator="equal">
-      <formula>$L$9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="48" priority="51" operator="equal">
-      <formula>$L$9</formula>
+    <cfRule type="cellIs" dxfId="215" priority="82" operator="equal">
+      <formula>$M$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="214" priority="81" operator="equal">
+      <formula>$M$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="47" priority="50" operator="equal">
-      <formula>$L$8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="46" priority="49" operator="equal">
-      <formula>$L$8</formula>
+    <cfRule type="cellIs" dxfId="213" priority="80" operator="equal">
+      <formula>$M$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="cellIs" dxfId="212" priority="79" operator="equal">
+      <formula>$M$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
-      <formula>$L$7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="44" priority="47" operator="equal">
-      <formula>$L$7</formula>
+    <cfRule type="cellIs" dxfId="211" priority="78" operator="equal">
+      <formula>$M$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="cellIs" dxfId="210" priority="76" operator="equal">
+      <formula>$M$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="209" priority="77" operator="equal">
+      <formula>$M$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="43" priority="45" operator="equal">
-      <formula>$L$6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="46" operator="equal">
-      <formula>$L$6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
-      <formula>$L$6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
-      <formula>$L$6</formula>
+    <cfRule type="cellIs" dxfId="208" priority="74" operator="equal">
+      <formula>$M$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="207" priority="75" operator="equal">
+      <formula>$M$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="cellIs" dxfId="206" priority="73" operator="equal">
+      <formula>$M$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="39" priority="42" operator="equal">
-      <formula>$L$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="38" priority="41" operator="equal">
-      <formula>$L$5</formula>
+    <cfRule type="cellIs" dxfId="205" priority="72" operator="equal">
+      <formula>$M$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="cellIs" dxfId="204" priority="71" operator="equal">
+      <formula>$M$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="37" priority="40" operator="equal">
-      <formula>$L$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="36" priority="39" operator="equal">
-      <formula>$L$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:K2">
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
-      <formula>$L$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:K3">
+    <cfRule type="cellIs" dxfId="203" priority="70" operator="equal">
+      <formula>$M$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:L2">
+    <cfRule type="cellIs" dxfId="202" priority="67" operator="equal">
+      <formula>$M$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:L3">
+    <cfRule type="cellIs" dxfId="201" priority="65" operator="equal">
+      <formula>$M$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:L4">
+    <cfRule type="cellIs" dxfId="200" priority="64" operator="equal">
+      <formula>$M$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:L5">
+    <cfRule type="cellIs" dxfId="199" priority="63" operator="equal">
+      <formula>$M$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:L6">
+    <cfRule type="cellIs" dxfId="198" priority="61" operator="equal">
+      <formula>$M$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="197" priority="62" operator="equal">
+      <formula>$M$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:L7">
+    <cfRule type="cellIs" dxfId="196" priority="60" operator="equal">
+      <formula>$M$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8:L8">
+    <cfRule type="cellIs" dxfId="195" priority="59" operator="equal">
+      <formula>$M$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:L9">
+    <cfRule type="cellIs" dxfId="194" priority="58" operator="equal">
+      <formula>$M$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:L10">
+    <cfRule type="cellIs" dxfId="193" priority="57" operator="equal">
+      <formula>$M$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:L11">
+    <cfRule type="cellIs" dxfId="192" priority="56" operator="equal">
+      <formula>$M$11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:L12">
+    <cfRule type="cellIs" dxfId="191" priority="55" operator="equal">
+      <formula>$M$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:L13">
+    <cfRule type="cellIs" dxfId="190" priority="54" operator="equal">
+      <formula>$M$13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:L14">
+    <cfRule type="cellIs" dxfId="189" priority="53" operator="equal">
+      <formula>$M$14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15:L15">
+    <cfRule type="cellIs" dxfId="188" priority="52" operator="equal">
+      <formula>$M$15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:L16">
+    <cfRule type="cellIs" dxfId="187" priority="51" operator="equal">
+      <formula>$M$16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:L17">
+    <cfRule type="cellIs" dxfId="186" priority="50" operator="equal">
+      <formula>$M$17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18:L18">
+    <cfRule type="cellIs" dxfId="185" priority="49" operator="equal">
+      <formula>$M$18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19:L19">
+    <cfRule type="cellIs" dxfId="184" priority="48" operator="equal">
+      <formula>$M$19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20:L20">
+    <cfRule type="cellIs" dxfId="183" priority="47" operator="equal">
+      <formula>$M$20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21:L21">
+    <cfRule type="cellIs" dxfId="182" priority="46" operator="equal">
+      <formula>$M$21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22:L22">
+    <cfRule type="cellIs" dxfId="181" priority="45" operator="equal">
+      <formula>$M$22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23:L23">
+    <cfRule type="cellIs" dxfId="180" priority="44" operator="equal">
+      <formula>$M$23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24:L24">
+    <cfRule type="cellIs" dxfId="179" priority="43" operator="equal">
+      <formula>$M$24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25:L25">
+    <cfRule type="cellIs" dxfId="178" priority="42" operator="equal">
+      <formula>$M$25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26:L26">
+    <cfRule type="cellIs" dxfId="177" priority="41" operator="equal">
+      <formula>$M$26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:L28">
+    <cfRule type="cellIs" dxfId="176" priority="40" operator="equal">
+      <formula>$M$28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29:L29">
+    <cfRule type="cellIs" dxfId="175" priority="39" operator="equal">
+      <formula>$M$29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30:L30">
+    <cfRule type="cellIs" dxfId="174" priority="38" operator="equal">
+      <formula>$M$30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31:L31">
+    <cfRule type="cellIs" dxfId="173" priority="37" operator="equal">
+      <formula>$M$31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:L32">
+    <cfRule type="cellIs" dxfId="172" priority="36" operator="equal">
+      <formula>$M$32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33:L33">
+    <cfRule type="cellIs" dxfId="171" priority="35" operator="equal">
+      <formula>$M$33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34:L34">
+    <cfRule type="cellIs" dxfId="170" priority="34" operator="equal">
+      <formula>$M$34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35:L35">
+    <cfRule type="cellIs" dxfId="169" priority="33" operator="equal">
+      <formula>$M$35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36:L36">
+    <cfRule type="cellIs" dxfId="168" priority="32" operator="equal">
+      <formula>$M$36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R29">
+    <cfRule type="cellIs" dxfId="167" priority="31" operator="equal">
+      <formula>$M$27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R18">
+    <cfRule type="cellIs" dxfId="166" priority="30" operator="equal">
+      <formula>$M$16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R19">
+    <cfRule type="cellIs" dxfId="165" priority="29" operator="equal">
+      <formula>$M$17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R20">
+    <cfRule type="cellIs" dxfId="164" priority="28" operator="equal">
+      <formula>$M$18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R21">
+    <cfRule type="cellIs" dxfId="163" priority="27" operator="equal">
+      <formula>$M$19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R22">
+    <cfRule type="cellIs" dxfId="162" priority="26" operator="equal">
+      <formula>$M$20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R23">
+    <cfRule type="cellIs" dxfId="161" priority="25" operator="equal">
+      <formula>$M$21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R24">
+    <cfRule type="cellIs" dxfId="160" priority="24" operator="equal">
+      <formula>$M$22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R25">
+    <cfRule type="cellIs" dxfId="159" priority="23" operator="equal">
+      <formula>$M$23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R26">
+    <cfRule type="cellIs" dxfId="158" priority="22" operator="equal">
+      <formula>$M$24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R27">
+    <cfRule type="cellIs" dxfId="157" priority="21" operator="equal">
+      <formula>$M$25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R28">
+    <cfRule type="cellIs" dxfId="156" priority="20" operator="equal">
+      <formula>$M$26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R30">
+    <cfRule type="cellIs" dxfId="155" priority="19" operator="equal">
+      <formula>$M$28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R31">
+    <cfRule type="cellIs" dxfId="154" priority="18" operator="equal">
+      <formula>$M$29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R32">
+    <cfRule type="cellIs" dxfId="153" priority="17" operator="equal">
+      <formula>$M$30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R33">
+    <cfRule type="cellIs" dxfId="152" priority="16" operator="equal">
+      <formula>$M$31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R34">
+    <cfRule type="cellIs" dxfId="151" priority="15" operator="equal">
+      <formula>$M$32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R35">
+    <cfRule type="cellIs" dxfId="150" priority="14" operator="equal">
+      <formula>$M$33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R36">
+    <cfRule type="cellIs" dxfId="149" priority="13" operator="equal">
+      <formula>$M$34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R37">
+    <cfRule type="cellIs" dxfId="148" priority="12" operator="equal">
+      <formula>$M$35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R38">
+    <cfRule type="cellIs" dxfId="147" priority="11" operator="equal">
+      <formula>$M$36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S21">
+    <cfRule type="cellIs" dxfId="146" priority="10" operator="equal">
+      <formula>$M$27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S22">
+    <cfRule type="cellIs" dxfId="145" priority="9" operator="equal">
+      <formula>$M$28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S23">
+    <cfRule type="cellIs" dxfId="144" priority="8" operator="equal">
+      <formula>$M$29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S24">
+    <cfRule type="cellIs" dxfId="143" priority="7" operator="equal">
+      <formula>$M$30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S25">
+    <cfRule type="cellIs" dxfId="142" priority="6" operator="equal">
+      <formula>$M$31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S26">
+    <cfRule type="cellIs" dxfId="141" priority="5" operator="equal">
+      <formula>$M$32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S27">
+    <cfRule type="cellIs" dxfId="140" priority="4" operator="equal">
+      <formula>$M$33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S28">
+    <cfRule type="cellIs" dxfId="139" priority="3" operator="equal">
+      <formula>$M$34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S29">
+    <cfRule type="cellIs" dxfId="138" priority="2" operator="equal">
+      <formula>$M$35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S30">
+    <cfRule type="cellIs" dxfId="137" priority="1" operator="equal">
+      <formula>$M$36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD723B9-01A1-48E4-8446-9816D42E97F1}">
+  <dimension ref="A1:S38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="30" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="12" width="16.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="29">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <f>IF(DatasetA!C2=DatasetA!$M2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="12">
+        <f>IF(DatasetA!D2=DatasetA!$M2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="12">
+        <f>IF(DatasetA!E2=DatasetA!$M2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="12">
+        <f>IF(DatasetA!F2=DatasetA!$M2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G2" s="12">
+        <f>IF(DatasetA!G2=DatasetA!$M2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="14">
+        <f>MAX(C2:F2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="29">
+        <v>2</v>
+      </c>
+      <c r="C3" s="12">
+        <f>IF(DatasetA!C3=DatasetA!$M3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="12">
+        <f>IF(DatasetA!D3=DatasetA!$M3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="12">
+        <f>IF(DatasetA!E3=DatasetA!$M3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="12">
+        <f>IF(DatasetA!F3=DatasetA!$M3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="12">
+        <f>IF(DatasetA!G3=DatasetA!$M3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="14">
+        <f t="shared" ref="M3:M36" si="0">MAX(C3:F3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="29">
+        <v>3</v>
+      </c>
+      <c r="C4" s="12">
+        <f>IF(DatasetA!C4=DatasetA!$M4,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="12">
+        <f>IF(DatasetA!D4=DatasetA!$M4,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="12">
+        <f>IF(DatasetA!E4=DatasetA!$M4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="12">
+        <f>IF(DatasetA!F4=DatasetA!$M4,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="12">
+        <f>IF(DatasetA!G4=DatasetA!$M4,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="29">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12">
+        <f>IF(DatasetA!C5=DatasetA!$M5,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="12">
+        <f>IF(DatasetA!D5=DatasetA!$M5,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="12">
+        <f>IF(DatasetA!E5=DatasetA!$M5,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="12">
+        <f>IF(DatasetA!F5=DatasetA!$M5,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="12">
+        <f>IF(DatasetA!G5=DatasetA!$M5,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="29">
+        <v>5</v>
+      </c>
+      <c r="C6" s="12">
+        <f>IF(DatasetA!C6=DatasetA!$M6,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="12">
+        <f>IF(DatasetA!D6=DatasetA!$M6,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="12">
+        <f>IF(DatasetA!E6=DatasetA!$M6,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="12">
+        <f>IF(DatasetA!F6=DatasetA!$M6,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="12">
+        <f>IF(DatasetA!G6=DatasetA!$M6,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="29">
+        <v>6</v>
+      </c>
+      <c r="C7" s="12">
+        <f>IF(DatasetA!C7=DatasetA!$M7,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="12">
+        <f>IF(DatasetA!D7=DatasetA!$M7,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="12">
+        <f>IF(DatasetA!E7=DatasetA!$M7,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="12">
+        <f>IF(DatasetA!F7=DatasetA!$M7,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="12">
+        <f>IF(DatasetA!G7=DatasetA!$M7,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="29">
+        <v>7</v>
+      </c>
+      <c r="C8" s="12">
+        <f>IF(DatasetA!C8=DatasetA!$M8,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="12">
+        <f>IF(DatasetA!D8=DatasetA!$M8,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="12">
+        <f>IF(DatasetA!E8=DatasetA!$M8,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="12">
+        <f>IF(DatasetA!F8=DatasetA!$M8,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="12">
+        <f>IF(DatasetA!G8=DatasetA!$M8,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="29">
+        <v>8</v>
+      </c>
+      <c r="C9" s="12">
+        <f>IF(DatasetA!C9=DatasetA!$M9,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="12">
+        <f>IF(DatasetA!D9=DatasetA!$M9,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="12">
+        <f>IF(DatasetA!E9=DatasetA!$M9,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="12">
+        <f>IF(DatasetA!F9=DatasetA!$M9,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G9" s="12">
+        <f>IF(DatasetA!G9=DatasetA!$M9,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="29">
+        <v>9</v>
+      </c>
+      <c r="C10" s="12">
+        <f>IF(DatasetA!C10=DatasetA!$M10,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="12">
+        <f>IF(DatasetA!D10=DatasetA!$M10,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="12">
+        <f>IF(DatasetA!E10=DatasetA!$M10,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="12">
+        <f>IF(DatasetA!F10=DatasetA!$M10,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="12">
+        <f>IF(DatasetA!G10=DatasetA!$M10,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="29">
+        <v>10</v>
+      </c>
+      <c r="C11" s="12">
+        <f>IF(DatasetA!C11=DatasetA!$M11,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="12">
+        <f>IF(DatasetA!D11=DatasetA!$M11,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="12">
+        <f>IF(DatasetA!E11=DatasetA!$M11,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="12">
+        <f>IF(DatasetA!F11=DatasetA!$M11,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="12">
+        <f>IF(DatasetA!G11=DatasetA!$M11,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="29">
+        <v>11</v>
+      </c>
+      <c r="C12" s="12">
+        <f>IF(DatasetA!C12=DatasetA!$M12,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D12" s="12">
+        <f>IF(DatasetA!D12=DatasetA!$M12,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="12">
+        <f>IF(DatasetA!E12=DatasetA!$M12,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="12">
+        <f>IF(DatasetA!F12=DatasetA!$M12,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="12">
+        <f>IF(DatasetA!G12=DatasetA!$M12,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="29">
+        <v>12</v>
+      </c>
+      <c r="C13" s="12">
+        <f>IF(DatasetA!C13=DatasetA!$M13,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D13" s="12">
+        <f>IF(DatasetA!D13=DatasetA!$M13,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="12">
+        <f>IF(DatasetA!E13=DatasetA!$M13,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="12">
+        <f>IF(DatasetA!F13=DatasetA!$M13,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="12">
+        <f>IF(DatasetA!G13=DatasetA!$M13,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="29">
+        <v>13</v>
+      </c>
+      <c r="C14" s="12">
+        <f>IF(DatasetA!C14=DatasetA!$M14,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="12">
+        <f>IF(DatasetA!D14=DatasetA!$M14,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="12">
+        <f>IF(DatasetA!E14=DatasetA!$M14,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F14" s="12">
+        <f>IF(DatasetA!F14=DatasetA!$M14,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G14" s="12">
+        <f>IF(DatasetA!G14=DatasetA!$M14,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="29">
+        <v>14</v>
+      </c>
+      <c r="C15" s="12">
+        <f>IF(DatasetA!C15=DatasetA!$M15,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="12">
+        <f>IF(DatasetA!D15=DatasetA!$M15,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="12">
+        <f>IF(DatasetA!E15=DatasetA!$M15,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F15" s="12">
+        <f>IF(DatasetA!F15=DatasetA!$M15,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="12">
+        <f>IF(DatasetA!G15=DatasetA!$M15,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="29">
+        <v>15</v>
+      </c>
+      <c r="C16" s="12">
+        <f>IF(DatasetA!C16=DatasetA!$M16,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="12">
+        <f>IF(DatasetA!D16=DatasetA!$M16,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="12">
+        <f>IF(DatasetA!E16=DatasetA!$M16,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="12">
+        <f>IF(DatasetA!F16=DatasetA!$M16,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="12">
+        <f>IF(DatasetA!G16=DatasetA!$M16,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="29">
+        <v>16</v>
+      </c>
+      <c r="C17" s="12">
+        <f>IF(DatasetA!C17=DatasetA!$M17,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="12">
+        <f>IF(DatasetA!D17=DatasetA!$M17,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E17" s="12">
+        <f>IF(DatasetA!E17=DatasetA!$M17,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="12">
+        <f>IF(DatasetA!F17=DatasetA!$M17,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G17" s="12">
+        <f>IF(DatasetA!G17=DatasetA!$M17,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="29">
+        <v>17</v>
+      </c>
+      <c r="C18" s="12">
+        <f>IF(DatasetA!C18=DatasetA!$M18,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="12">
+        <f>IF(DatasetA!D18=DatasetA!$M18,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E18" s="12">
+        <f>IF(DatasetA!E18=DatasetA!$M18,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F18" s="12">
+        <f>IF(DatasetA!F18=DatasetA!$M18,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G18" s="12">
+        <f>IF(DatasetA!G18=DatasetA!$M18,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R18" s="21"/>
+    </row>
+    <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="29">
+        <v>18</v>
+      </c>
+      <c r="C19" s="12">
+        <f>IF(DatasetA!C19=DatasetA!$M19,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="12">
+        <f>IF(DatasetA!D19=DatasetA!$M19,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E19" s="12">
+        <f>IF(DatasetA!E19=DatasetA!$M19,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="12">
+        <f>IF(DatasetA!F19=DatasetA!$M19,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G19" s="12">
+        <f>IF(DatasetA!G19=DatasetA!$M19,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R19" s="21"/>
+    </row>
+    <row r="20" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="29">
+        <v>19</v>
+      </c>
+      <c r="C20" s="12">
+        <f>IF(DatasetA!C20=DatasetA!$M20,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="12">
+        <f>IF(DatasetA!D20=DatasetA!$M20,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E20" s="12">
+        <f>IF(DatasetA!E20=DatasetA!$M20,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="12">
+        <f>IF(DatasetA!F20=DatasetA!$M20,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G20" s="12">
+        <f>IF(DatasetA!G20=DatasetA!$M20,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R20" s="21"/>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="29">
+        <v>20</v>
+      </c>
+      <c r="C21" s="12">
+        <f>IF(DatasetA!C21=DatasetA!$M21,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D21" s="12">
+        <f>IF(DatasetA!D21=DatasetA!$M21,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E21" s="12">
+        <f>IF(DatasetA!E21=DatasetA!$M21,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F21" s="12">
+        <f>IF(DatasetA!F21=DatasetA!$M21,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G21" s="12">
+        <f>IF(DatasetA!G21=DatasetA!$M21,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="29">
+        <v>21</v>
+      </c>
+      <c r="C22" s="12">
+        <f>IF(DatasetA!C22=DatasetA!$M22,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D22" s="12">
+        <f>IF(DatasetA!D22=DatasetA!$M22,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E22" s="12">
+        <f>IF(DatasetA!E22=DatasetA!$M22,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F22" s="12">
+        <f>IF(DatasetA!F22=DatasetA!$M22,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G22" s="12">
+        <f>IF(DatasetA!G22=DatasetA!$M22,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+    </row>
+    <row r="23" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="29">
+        <v>22</v>
+      </c>
+      <c r="C23" s="12">
+        <f>IF(DatasetA!C23=DatasetA!$M23,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D23" s="12">
+        <f>IF(DatasetA!D23=DatasetA!$M23,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E23" s="12">
+        <f>IF(DatasetA!E23=DatasetA!$M23,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F23" s="12">
+        <f>IF(DatasetA!F23=DatasetA!$M23,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G23" s="12">
+        <f>IF(DatasetA!G23=DatasetA!$M23,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+    </row>
+    <row r="24" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="29">
+        <v>23</v>
+      </c>
+      <c r="C24" s="12">
+        <f>IF(DatasetA!C24=DatasetA!$M24,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D24" s="12">
+        <f>IF(DatasetA!D24=DatasetA!$M24,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E24" s="12">
+        <f>IF(DatasetA!E24=DatasetA!$M24,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F24" s="12">
+        <f>IF(DatasetA!F24=DatasetA!$M24,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G24" s="12">
+        <f>IF(DatasetA!G24=DatasetA!$M24,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+    </row>
+    <row r="25" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="29">
+        <v>24</v>
+      </c>
+      <c r="C25" s="12">
+        <f>IF(DatasetA!C25=DatasetA!$M25,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D25" s="12">
+        <f>IF(DatasetA!D25=DatasetA!$M25,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E25" s="12">
+        <f>IF(DatasetA!E25=DatasetA!$M25,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F25" s="12">
+        <f>IF(DatasetA!F25=DatasetA!$M25,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G25" s="12">
+        <f>IF(DatasetA!G25=DatasetA!$M25,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+    </row>
+    <row r="26" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="29">
+        <v>25</v>
+      </c>
+      <c r="C26" s="12">
+        <f>IF(DatasetA!C26=DatasetA!$M26,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="12">
+        <f>IF(DatasetA!D26=DatasetA!$M26,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E26" s="12">
+        <f>IF(DatasetA!E26=DatasetA!$M26,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F26" s="12">
+        <f>IF(DatasetA!F26=DatasetA!$M26,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G26" s="12">
+        <f>IF(DatasetA!G26=DatasetA!$M26,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+    </row>
+    <row r="27" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="29">
+        <v>26</v>
+      </c>
+      <c r="C27" s="12">
+        <f>IF(DatasetA!C27=DatasetA!$M27,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="12">
+        <f>IF(DatasetA!D27=DatasetA!$M27,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="12">
+        <f>IF(DatasetA!E27=DatasetA!$M27,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="12">
+        <f>IF(DatasetA!F27=DatasetA!$M27,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G27" s="12">
+        <f>IF(DatasetA!G27=DatasetA!$M27,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+    </row>
+    <row r="28" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="29">
+        <v>27</v>
+      </c>
+      <c r="C28" s="12">
+        <f>IF(DatasetA!C28=DatasetA!$M28,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="12">
+        <f>IF(DatasetA!D28=DatasetA!$M28,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="12">
+        <f>IF(DatasetA!E28=DatasetA!$M28,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="12">
+        <f>IF(DatasetA!F28=DatasetA!$M28,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G28" s="12">
+        <f>IF(DatasetA!G28=DatasetA!$M28,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+    </row>
+    <row r="29" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="29">
+        <v>28</v>
+      </c>
+      <c r="C29" s="12">
+        <f>IF(DatasetA!C29=DatasetA!$M29,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D29" s="12">
+        <f>IF(DatasetA!D29=DatasetA!$M29,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E29" s="12">
+        <f>IF(DatasetA!E29=DatasetA!$M29,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="12">
+        <f>IF(DatasetA!F29=DatasetA!$M29,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G29" s="12">
+        <f>IF(DatasetA!G29=DatasetA!$M29,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+    </row>
+    <row r="30" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="29">
+        <v>29</v>
+      </c>
+      <c r="C30" s="12">
+        <f>IF(DatasetA!C30=DatasetA!$M30,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="12">
+        <f>IF(DatasetA!D30=DatasetA!$M30,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E30" s="12">
+        <f>IF(DatasetA!E30=DatasetA!$M30,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="12">
+        <f>IF(DatasetA!F30=DatasetA!$M30,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G30" s="12">
+        <f>IF(DatasetA!G30=DatasetA!$M30,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+    </row>
+    <row r="31" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="29">
+        <v>30</v>
+      </c>
+      <c r="C31" s="12">
+        <f>IF(DatasetA!C31=DatasetA!$M31,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="12">
+        <f>IF(DatasetA!D31=DatasetA!$M31,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E31" s="12">
+        <f>IF(DatasetA!E31=DatasetA!$M31,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="12">
+        <f>IF(DatasetA!F31=DatasetA!$M31,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="12">
+        <f>IF(DatasetA!G31=DatasetA!$M31,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R31" s="21"/>
+    </row>
+    <row r="32" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="29">
+        <v>31</v>
+      </c>
+      <c r="C32" s="12">
+        <f>IF(DatasetA!C32=DatasetA!$M32,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="12">
+        <f>IF(DatasetA!D32=DatasetA!$M32,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="12">
+        <f>IF(DatasetA!E32=DatasetA!$M32,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="12">
+        <f>IF(DatasetA!F32=DatasetA!$M32,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G32" s="12">
+        <f>IF(DatasetA!G32=DatasetA!$M32,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R32" s="21"/>
+    </row>
+    <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="29">
+        <v>32</v>
+      </c>
+      <c r="C33" s="12">
+        <f>IF(DatasetA!C33=DatasetA!$M33,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="12">
+        <f>IF(DatasetA!D33=DatasetA!$M33,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E33" s="12">
+        <f>IF(DatasetA!E33=DatasetA!$M33,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="12">
+        <f>IF(DatasetA!F33=DatasetA!$M33,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G33" s="12">
+        <f>IF(DatasetA!G33=DatasetA!$M33,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R33" s="21"/>
+    </row>
+    <row r="34" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="29">
+        <v>33</v>
+      </c>
+      <c r="C34" s="12">
+        <f>IF(DatasetA!C34=DatasetA!$M34,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D34" s="12">
+        <f>IF(DatasetA!D34=DatasetA!$M34,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="12">
+        <f>IF(DatasetA!E34=DatasetA!$M34,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="12">
+        <f>IF(DatasetA!F34=DatasetA!$M34,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="12">
+        <f>IF(DatasetA!G34=DatasetA!$M34,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R34" s="21"/>
+    </row>
+    <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="29">
+        <v>34</v>
+      </c>
+      <c r="C35" s="12">
+        <f>IF(DatasetA!C35=DatasetA!$M35,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="12">
+        <f>IF(DatasetA!D35=DatasetA!$M35,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E35" s="12">
+        <f>IF(DatasetA!E35=DatasetA!$M35,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="12">
+        <f>IF(DatasetA!F35=DatasetA!$M35,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="12">
+        <f>IF(DatasetA!G35=DatasetA!$M35,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R35" s="21"/>
+    </row>
+    <row r="36" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="32">
+        <v>35</v>
+      </c>
+      <c r="C36" s="13">
+        <f>IF(DatasetA!C36=DatasetA!$M36,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D36" s="13">
+        <f>IF(DatasetA!D36=DatasetA!$M36,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E36" s="13">
+        <f>IF(DatasetA!E36=DatasetA!$M36,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="13">
+        <f>IF(DatasetA!F36=DatasetA!$M36,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G36" s="13">
+        <f>IF(DatasetA!G36=DatasetA!$M36,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R36" s="21"/>
+    </row>
+    <row r="37" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="34"/>
+      <c r="C37" s="35">
+        <f>SUM(C2:C36)</f>
+        <v>21</v>
+      </c>
+      <c r="D37" s="36">
+        <f t="shared" ref="D37:L37" si="1">SUM(D2:D36)</f>
+        <v>30</v>
+      </c>
+      <c r="E37" s="36">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F37" s="36">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="G37" s="36">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="H37" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="33">
+        <f>SUM(M2:M36)</f>
+        <v>35</v>
+      </c>
+      <c r="R37" s="21"/>
+    </row>
+    <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R38" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A37:B37"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C2:G36">
+    <cfRule type="cellIs" dxfId="0" priority="137" operator="equal">
+      <formula>$M$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27:L27">
+    <cfRule type="cellIs" dxfId="119" priority="119" operator="equal">
+      <formula>$M$27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:L2">
+    <cfRule type="cellIs" dxfId="66" priority="66" operator="equal">
+      <formula>$M$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:L3">
+    <cfRule type="cellIs" dxfId="65" priority="65" operator="equal">
+      <formula>$M$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:L4">
+    <cfRule type="cellIs" dxfId="64" priority="64" operator="equal">
+      <formula>$M$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:L5">
+    <cfRule type="cellIs" dxfId="63" priority="63" operator="equal">
+      <formula>$M$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:L6">
+    <cfRule type="cellIs" dxfId="62" priority="61" operator="equal">
+      <formula>$M$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="62" operator="equal">
+      <formula>$M$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7:L7">
+    <cfRule type="cellIs" dxfId="60" priority="60" operator="equal">
+      <formula>$M$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:L8">
+    <cfRule type="cellIs" dxfId="59" priority="59" operator="equal">
+      <formula>$M$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:L9">
+    <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
+      <formula>$M$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:L10">
+    <cfRule type="cellIs" dxfId="57" priority="57" operator="equal">
+      <formula>$M$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11:L11">
+    <cfRule type="cellIs" dxfId="56" priority="56" operator="equal">
+      <formula>$M$11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:L12">
+    <cfRule type="cellIs" dxfId="55" priority="55" operator="equal">
+      <formula>$M$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:L13">
+    <cfRule type="cellIs" dxfId="54" priority="54" operator="equal">
+      <formula>$M$13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:L14">
+    <cfRule type="cellIs" dxfId="53" priority="53" operator="equal">
+      <formula>$M$14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15:L15">
+    <cfRule type="cellIs" dxfId="52" priority="52" operator="equal">
+      <formula>$M$15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16:L16">
+    <cfRule type="cellIs" dxfId="51" priority="51" operator="equal">
+      <formula>$M$16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:L17">
+    <cfRule type="cellIs" dxfId="50" priority="50" operator="equal">
+      <formula>$M$17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18:L18">
+    <cfRule type="cellIs" dxfId="49" priority="49" operator="equal">
+      <formula>$M$18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19:L19">
+    <cfRule type="cellIs" dxfId="48" priority="48" operator="equal">
+      <formula>$M$19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20:L20">
+    <cfRule type="cellIs" dxfId="47" priority="47" operator="equal">
+      <formula>$M$20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21:L21">
+    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
+      <formula>$M$21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22:L22">
+    <cfRule type="cellIs" dxfId="45" priority="45" operator="equal">
+      <formula>$M$22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23:L23">
+    <cfRule type="cellIs" dxfId="44" priority="44" operator="equal">
+      <formula>$M$23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24:L24">
+    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
+      <formula>$M$24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25:L25">
+    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
+      <formula>$M$25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26:L26">
+    <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
+      <formula>$M$26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28:L28">
+    <cfRule type="cellIs" dxfId="40" priority="40" operator="equal">
+      <formula>$M$28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29:L29">
+    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
+      <formula>$M$29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30:L30">
+    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
+      <formula>$M$30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31:L31">
+    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
+      <formula>$M$31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:L32">
+    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
+      <formula>$M$32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33:L33">
+    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
+      <formula>$M$33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34:L34">
     <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
-      <formula>$L$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
-      <formula>$L$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4:K4">
-    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
-      <formula>$L$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
-      <formula>$L$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:K6">
+      <formula>$M$34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35:L35">
+    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
+      <formula>$M$35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36:L36">
+    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
+      <formula>$M$36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R29">
+    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
+      <formula>$M$27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R18">
     <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
-      <formula>$L$6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
-      <formula>$L$6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7:K7">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
-      <formula>$L$7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:K8">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
-      <formula>$L$8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9:K9">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
-      <formula>$L$9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:K10">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
-      <formula>$L$10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11:K11">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
-      <formula>$L$11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12:K12">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
-      <formula>$L$12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13:K13">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
-      <formula>$L$13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:K14">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
-      <formula>$L$14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15:K15">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
-      <formula>$L$15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:K16">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
-      <formula>$L$16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:K17">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
-      <formula>$L$17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18:K18">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
-      <formula>$L$18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19:K19">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
-      <formula>$L$19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20:K20">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
-      <formula>$L$20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21:K21">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
-      <formula>$L$21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22:K22">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
-      <formula>$L$22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:K23">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
-      <formula>$L$23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24:K24">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
-      <formula>$L$24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:K25">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>$L$25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:K26">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>$L$26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:K28">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>$L$28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29:K29">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>$L$29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30:K30">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>$L$30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31:K31">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>$L$31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32:K32">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>$L$32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33:K33">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>$L$33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34:K34">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>$L$34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35:K35">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>$L$35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36:K36">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>$L$36</formula>
+      <formula>$M$16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R19">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
+      <formula>$M$17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R20">
+    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
+      <formula>$M$18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R21">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
+      <formula>$M$19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R22">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+      <formula>$M$20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R23">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
+      <formula>$M$21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R24">
+    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
+      <formula>$M$22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R25">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+      <formula>$M$23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R26">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+      <formula>$M$24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R27">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+      <formula>$M$25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R28">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+      <formula>$M$26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R30">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+      <formula>$M$28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R31">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+      <formula>$M$29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R32">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+      <formula>$M$30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R33">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+      <formula>$M$31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R34">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+      <formula>$M$32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R35">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+      <formula>$M$33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R36">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+      <formula>$M$34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R37">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+      <formula>$M$35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R38">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+      <formula>$M$36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S21">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+      <formula>$M$27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S22">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>$M$28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S23">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+      <formula>$M$29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S24">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>$M$30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S25">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>$M$31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S26">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>$M$32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S27">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>$M$33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S28">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>$M$34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S29">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>$M$35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S30">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>$M$36</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B0DA31A-F31B-4500-9F26-8A1017F0132C}">
   <dimension ref="B1:W37"/>
   <sheetViews>
@@ -3631,25 +8423,25 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
@@ -3683,25 +8475,25 @@
         <v>0.8234999999999999</v>
       </c>
       <c r="Q2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="R2" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="S2" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="T2" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="U2" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="V2" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
@@ -3734,34 +8526,34 @@
         <f t="shared" ref="K3:K36" si="1">F3/100</f>
         <v>0.69569999999999999</v>
       </c>
-      <c r="N3" s="21">
-        <v>1</v>
-      </c>
-      <c r="O3" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="P3" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q3" s="21">
+      <c r="N3" s="16">
+        <v>1</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="16">
         <v>82.35</v>
       </c>
-      <c r="R3" s="21">
+      <c r="R3" s="16">
         <v>82.35</v>
       </c>
-      <c r="S3" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="T3" s="21">
+      <c r="S3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" s="16">
         <v>82.35</v>
       </c>
-      <c r="U3" s="21">
+      <c r="U3" s="16">
         <v>82.35</v>
       </c>
-      <c r="V3" s="21">
+      <c r="V3" s="16">
         <v>82.35</v>
       </c>
-      <c r="W3" s="21">
+      <c r="W3" s="16">
         <v>82.35</v>
       </c>
     </row>
@@ -3770,10 +8562,10 @@
         <v>79.59</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="E4" s="6">
         <v>79.59</v>
@@ -3795,34 +8587,34 @@
         <f t="shared" si="1"/>
         <v>0.79590000000000005</v>
       </c>
-      <c r="N4" s="23">
+      <c r="N4" s="18">
         <v>2</v>
       </c>
-      <c r="O4" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="P4" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q4" s="23">
+      <c r="O4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="18">
         <v>69.569999999999993</v>
       </c>
-      <c r="R4" s="23">
+      <c r="R4" s="18">
         <v>69.569999999999993</v>
       </c>
-      <c r="S4" s="23">
+      <c r="S4" s="18">
         <v>69.569999999999993</v>
       </c>
-      <c r="T4" s="23">
+      <c r="T4" s="18">
         <v>69.569999999999993</v>
       </c>
-      <c r="U4" s="23">
+      <c r="U4" s="18">
         <v>69.569999999999993</v>
       </c>
-      <c r="V4" s="23">
+      <c r="V4" s="18">
         <v>68</v>
       </c>
-      <c r="W4" s="23">
+      <c r="W4" s="18">
         <v>69.569999999999993</v>
       </c>
     </row>
@@ -3831,10 +8623,10 @@
         <v>76.92</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="E5" s="6">
         <v>76.92</v>
@@ -3856,34 +8648,34 @@
         <f t="shared" si="1"/>
         <v>0.76919999999999999</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="18">
         <v>3</v>
       </c>
-      <c r="O5" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="P5" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q5" s="23">
+      <c r="O5" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="18">
         <v>79.59</v>
       </c>
-      <c r="R5" s="23">
+      <c r="R5" s="18">
         <v>79.59</v>
       </c>
-      <c r="S5" s="23">
+      <c r="S5" s="18">
         <v>79.59</v>
       </c>
-      <c r="T5" s="23">
+      <c r="T5" s="18">
         <v>79.59</v>
       </c>
-      <c r="U5" s="23">
+      <c r="U5" s="18">
         <v>79.59</v>
       </c>
-      <c r="V5" s="23">
+      <c r="V5" s="18">
         <v>79.59</v>
       </c>
-      <c r="W5" s="23">
+      <c r="W5" s="18">
         <v>79.59</v>
       </c>
     </row>
@@ -3917,34 +8709,34 @@
         <f t="shared" si="1"/>
         <v>0.60870000000000002</v>
       </c>
-      <c r="N6" s="23">
+      <c r="N6" s="18">
         <v>4</v>
       </c>
-      <c r="O6" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="P6" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q6" s="23">
+      <c r="O6" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="18">
         <v>76.92</v>
       </c>
-      <c r="R6" s="23">
+      <c r="R6" s="18">
         <v>76.92</v>
       </c>
-      <c r="S6" s="23">
+      <c r="S6" s="18">
         <v>76.92</v>
       </c>
-      <c r="T6" s="23">
+      <c r="T6" s="18">
         <v>76.92</v>
       </c>
-      <c r="U6" s="23">
+      <c r="U6" s="18">
         <v>76.92</v>
       </c>
-      <c r="V6" s="23">
+      <c r="V6" s="18">
         <v>76.92</v>
       </c>
-      <c r="W6" s="23">
+      <c r="W6" s="18">
         <v>76.92</v>
       </c>
     </row>
@@ -3953,10 +8745,10 @@
         <v>70.83</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="E7" s="5">
         <v>70.37</v>
@@ -3978,34 +8770,34 @@
         <f t="shared" si="1"/>
         <v>0.70829999999999993</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N7" s="18">
         <v>5</v>
       </c>
-      <c r="O7" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="P7" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q7" s="23">
+      <c r="O7" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="18">
         <v>60.87</v>
       </c>
-      <c r="R7" s="23">
+      <c r="R7" s="18">
         <v>60.87</v>
       </c>
-      <c r="S7" s="23">
+      <c r="S7" s="18">
         <v>60.87</v>
       </c>
-      <c r="T7" s="23">
+      <c r="T7" s="18">
         <v>60.87</v>
       </c>
-      <c r="U7" s="23">
+      <c r="U7" s="18">
         <v>60.87</v>
       </c>
-      <c r="V7" s="23">
+      <c r="V7" s="18">
         <v>60.87</v>
       </c>
-      <c r="W7" s="23">
+      <c r="W7" s="18">
         <v>60.87</v>
       </c>
     </row>
@@ -4039,34 +8831,34 @@
         <f t="shared" si="1"/>
         <v>0.69440000000000002</v>
       </c>
-      <c r="N8" s="23">
+      <c r="N8" s="18">
         <v>6</v>
       </c>
-      <c r="O8" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="P8" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q8" s="23">
+      <c r="O8" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="18">
         <v>70.83</v>
       </c>
-      <c r="R8" s="23">
+      <c r="R8" s="18">
         <v>70.83</v>
       </c>
-      <c r="S8" s="23">
+      <c r="S8" s="18">
         <v>70.83</v>
       </c>
-      <c r="T8" s="23">
+      <c r="T8" s="18">
         <v>70.83</v>
       </c>
-      <c r="U8" s="23">
+      <c r="U8" s="18">
         <v>70.83</v>
       </c>
-      <c r="V8" s="23">
+      <c r="V8" s="18">
         <v>70.37</v>
       </c>
-      <c r="W8" s="23">
+      <c r="W8" s="18">
         <v>70.83</v>
       </c>
     </row>
@@ -4100,34 +8892,34 @@
         <f t="shared" si="1"/>
         <v>0.85250000000000004</v>
       </c>
-      <c r="N9" s="23">
+      <c r="N9" s="18">
         <v>7</v>
       </c>
-      <c r="O9" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="P9" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q9" s="23">
+      <c r="O9" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="18">
         <v>69.44</v>
       </c>
-      <c r="R9" s="23">
+      <c r="R9" s="18">
         <v>69.44</v>
       </c>
-      <c r="S9" s="23">
+      <c r="S9" s="18">
         <v>68.290000000000006</v>
       </c>
-      <c r="T9" s="23">
+      <c r="T9" s="18">
         <v>69.44</v>
       </c>
-      <c r="U9" s="23">
+      <c r="U9" s="18">
         <v>69.44</v>
       </c>
-      <c r="V9" s="23">
+      <c r="V9" s="18">
         <v>68.290000000000006</v>
       </c>
-      <c r="W9" s="23">
+      <c r="W9" s="18">
         <v>69.44</v>
       </c>
     </row>
@@ -4161,34 +8953,34 @@
         <f t="shared" si="1"/>
         <v>0.58719999999999994</v>
       </c>
-      <c r="N10" s="23">
+      <c r="N10" s="18">
         <v>8</v>
       </c>
-      <c r="O10" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="P10" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q10" s="23">
+      <c r="O10" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="18">
         <v>85.25</v>
       </c>
-      <c r="R10" s="23">
+      <c r="R10" s="18">
         <v>85.25</v>
       </c>
-      <c r="S10" s="23">
+      <c r="S10" s="18">
         <v>85.25</v>
       </c>
-      <c r="T10" s="23">
+      <c r="T10" s="18">
         <v>85.25</v>
       </c>
-      <c r="U10" s="23">
+      <c r="U10" s="18">
         <v>85.25</v>
       </c>
-      <c r="V10" s="23">
+      <c r="V10" s="18">
         <v>85.25</v>
       </c>
-      <c r="W10" s="23">
+      <c r="W10" s="18">
         <v>85.25</v>
       </c>
     </row>
@@ -4222,35 +9014,35 @@
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
-      <c r="N11" s="23">
+      <c r="N11" s="18">
         <v>9</v>
       </c>
-      <c r="O11" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="P11" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q11" s="23">
+      <c r="O11" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P11" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11" s="18">
         <v>55.32</v>
       </c>
-      <c r="R11" s="23">
+      <c r="R11" s="18">
         <v>58.72</v>
       </c>
-      <c r="S11" s="23">
+      <c r="S11" s="18">
         <v>58.72</v>
       </c>
-      <c r="T11" s="23">
+      <c r="T11" s="18">
         <v>58.72</v>
       </c>
-      <c r="U11" s="23">
+      <c r="U11" s="18">
         <v>58.72</v>
       </c>
-      <c r="V11" s="23">
+      <c r="V11" s="18">
         <v>58.72</v>
       </c>
-      <c r="W11" s="23" t="s">
-        <v>98</v>
+      <c r="W11" s="18" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
@@ -4283,34 +9075,34 @@
         <f t="shared" si="1"/>
         <v>0.92</v>
       </c>
-      <c r="N12" s="23">
+      <c r="N12" s="18">
         <v>10</v>
       </c>
-      <c r="O12" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="P12" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q12" s="23">
+      <c r="O12" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q12" s="18">
         <v>75</v>
       </c>
-      <c r="R12" s="23">
+      <c r="R12" s="18">
         <v>75</v>
       </c>
-      <c r="S12" s="23">
+      <c r="S12" s="18">
         <v>75</v>
       </c>
-      <c r="T12" s="23">
+      <c r="T12" s="18">
         <v>75</v>
       </c>
-      <c r="U12" s="23">
+      <c r="U12" s="18">
         <v>75</v>
       </c>
-      <c r="V12" s="23">
+      <c r="V12" s="18">
         <v>75</v>
       </c>
-      <c r="W12" s="23">
+      <c r="W12" s="18">
         <v>75</v>
       </c>
     </row>
@@ -4344,34 +9136,34 @@
         <f t="shared" si="1"/>
         <v>0.72060000000000002</v>
       </c>
-      <c r="N13" s="23">
+      <c r="N13" s="18">
         <v>11</v>
       </c>
-      <c r="O13" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="P13" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q13" s="23">
+      <c r="O13" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="P13" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q13" s="18">
         <v>92</v>
       </c>
-      <c r="R13" s="23">
+      <c r="R13" s="18">
         <v>92</v>
       </c>
-      <c r="S13" s="23">
+      <c r="S13" s="18">
         <v>92</v>
       </c>
-      <c r="T13" s="23">
+      <c r="T13" s="18">
         <v>92</v>
       </c>
-      <c r="U13" s="23">
+      <c r="U13" s="18">
         <v>92</v>
       </c>
-      <c r="V13" s="23">
+      <c r="V13" s="18">
         <v>92</v>
       </c>
-      <c r="W13" s="23">
+      <c r="W13" s="18">
         <v>92</v>
       </c>
     </row>
@@ -4405,34 +9197,34 @@
         <f t="shared" si="1"/>
         <v>0.71829999999999994</v>
       </c>
-      <c r="N14" s="23">
+      <c r="N14" s="18">
         <v>12</v>
       </c>
-      <c r="O14" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="P14" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q14" s="23">
+      <c r="O14" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="P14" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q14" s="18">
         <v>72.06</v>
       </c>
-      <c r="R14" s="23">
+      <c r="R14" s="18">
         <v>72.06</v>
       </c>
-      <c r="S14" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="T14" s="23">
+      <c r="S14" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="18">
         <v>72.06</v>
       </c>
-      <c r="U14" s="23">
+      <c r="U14" s="18">
         <v>72.06</v>
       </c>
-      <c r="V14" s="23">
+      <c r="V14" s="18">
         <v>69.7</v>
       </c>
-      <c r="W14" s="23">
+      <c r="W14" s="18">
         <v>72.06</v>
       </c>
     </row>
@@ -4466,34 +9258,34 @@
         <f t="shared" si="1"/>
         <v>0.53259999999999996</v>
       </c>
-      <c r="N15" s="23">
+      <c r="N15" s="18">
         <v>13</v>
       </c>
-      <c r="O15" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="P15" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q15" s="23">
+      <c r="O15" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="P15" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q15" s="18">
         <v>71.83</v>
       </c>
-      <c r="R15" s="23">
+      <c r="R15" s="18">
         <v>71.83</v>
       </c>
-      <c r="S15" s="23">
+      <c r="S15" s="18">
         <v>71.83</v>
       </c>
-      <c r="T15" s="23">
+      <c r="T15" s="18">
         <v>71.83</v>
       </c>
-      <c r="U15" s="23">
+      <c r="U15" s="18">
         <v>71.83</v>
       </c>
-      <c r="V15" s="23">
+      <c r="V15" s="18">
         <v>71.83</v>
       </c>
-      <c r="W15" s="23">
+      <c r="W15" s="18">
         <v>71.83</v>
       </c>
     </row>
@@ -4527,34 +9319,34 @@
         <f t="shared" si="1"/>
         <v>0.68989999999999996</v>
       </c>
-      <c r="N16" s="23">
+      <c r="N16" s="18">
         <v>14</v>
       </c>
-      <c r="O16" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="P16" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q16" s="23">
+      <c r="O16" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="P16" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q16" s="18">
         <v>51.58</v>
       </c>
-      <c r="R16" s="23">
+      <c r="R16" s="18">
         <v>52.75</v>
       </c>
-      <c r="S16" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="T16" s="23">
+      <c r="S16" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="T16" s="18">
         <v>53.85</v>
       </c>
-      <c r="U16" s="23">
+      <c r="U16" s="18">
         <v>53.41</v>
       </c>
-      <c r="V16" s="23">
+      <c r="V16" s="18">
         <v>52.08</v>
       </c>
-      <c r="W16" s="23">
+      <c r="W16" s="18">
         <v>53.26</v>
       </c>
     </row>
@@ -4588,34 +9380,34 @@
         <f t="shared" si="1"/>
         <v>0.57530000000000003</v>
       </c>
-      <c r="N17" s="23">
+      <c r="N17" s="18">
         <v>15</v>
       </c>
-      <c r="O17" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="P17" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q17" s="23">
+      <c r="O17" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="P17" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q17" s="18">
         <v>55.48</v>
       </c>
-      <c r="R17" s="23">
+      <c r="R17" s="18">
         <v>57.53</v>
       </c>
-      <c r="S17" s="23">
+      <c r="S17" s="18">
         <v>56.38</v>
       </c>
-      <c r="T17" s="23">
+      <c r="T17" s="18">
         <v>57.53</v>
       </c>
-      <c r="U17" s="23">
+      <c r="U17" s="18">
         <v>57.53</v>
       </c>
-      <c r="V17" s="23">
+      <c r="V17" s="18">
         <v>57.23</v>
       </c>
-      <c r="W17" s="23">
+      <c r="W17" s="18">
         <v>57.53</v>
       </c>
     </row>
@@ -4649,34 +9441,34 @@
         <f t="shared" si="1"/>
         <v>0.57729999999999992</v>
       </c>
-      <c r="N18" s="23">
+      <c r="N18" s="18">
         <v>16</v>
       </c>
-      <c r="O18" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="P18" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q18" s="23">
+      <c r="O18" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="P18" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q18" s="18">
         <v>57.43</v>
       </c>
-      <c r="R18" s="23">
+      <c r="R18" s="18">
         <v>57.73</v>
       </c>
-      <c r="S18" s="23">
+      <c r="S18" s="18">
         <v>54.46</v>
       </c>
-      <c r="T18" s="23">
+      <c r="T18" s="18">
         <v>57.73</v>
       </c>
-      <c r="U18" s="23">
+      <c r="U18" s="18">
         <v>57.73</v>
       </c>
-      <c r="V18" s="23">
+      <c r="V18" s="18">
         <v>57.14</v>
       </c>
-      <c r="W18" s="23">
+      <c r="W18" s="18">
         <v>57.73</v>
       </c>
     </row>
@@ -4710,34 +9502,34 @@
         <f t="shared" si="1"/>
         <v>0.43450000000000005</v>
       </c>
-      <c r="N19" s="23">
+      <c r="N19" s="18">
         <v>17</v>
       </c>
-      <c r="O19" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="P19" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q19" s="23">
+      <c r="O19" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="P19" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q19" s="18">
         <v>40.74</v>
       </c>
-      <c r="R19" s="23">
+      <c r="R19" s="18">
         <v>43.18</v>
       </c>
-      <c r="S19" s="23">
+      <c r="S19" s="18">
         <v>43.26</v>
       </c>
-      <c r="T19" s="23">
+      <c r="T19" s="18">
         <v>43.26</v>
       </c>
-      <c r="U19" s="23">
+      <c r="U19" s="18">
         <v>43.45</v>
       </c>
-      <c r="V19" s="23">
+      <c r="V19" s="18">
         <v>43.06</v>
       </c>
-      <c r="W19" s="23">
+      <c r="W19" s="18">
         <v>43.45</v>
       </c>
     </row>
@@ -4771,34 +9563,34 @@
         <f t="shared" si="1"/>
         <v>0.5081</v>
       </c>
-      <c r="N20" s="23">
+      <c r="N20" s="18">
         <v>18</v>
       </c>
-      <c r="O20" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="P20" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q20" s="23">
+      <c r="O20" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="P20" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q20" s="18">
         <v>49.65</v>
       </c>
-      <c r="R20" s="23">
+      <c r="R20" s="18">
         <v>50.81</v>
       </c>
-      <c r="S20" s="23">
+      <c r="S20" s="18">
         <v>50.81</v>
       </c>
-      <c r="T20" s="23">
+      <c r="T20" s="18">
         <v>50.81</v>
       </c>
-      <c r="U20" s="23">
+      <c r="U20" s="18">
         <v>50.81</v>
       </c>
-      <c r="V20" s="23">
+      <c r="V20" s="18">
         <v>50.81</v>
       </c>
-      <c r="W20" s="23">
+      <c r="W20" s="18">
         <v>50.81</v>
       </c>
     </row>
@@ -4832,34 +9624,34 @@
         <f t="shared" si="1"/>
         <v>0.77910000000000001</v>
       </c>
-      <c r="N21" s="23">
+      <c r="N21" s="18">
         <v>19</v>
       </c>
-      <c r="O21" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="P21" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q21" s="23">
+      <c r="O21" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="P21" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q21" s="18">
         <v>77.02</v>
       </c>
-      <c r="R21" s="23">
+      <c r="R21" s="18">
         <v>77.91</v>
       </c>
-      <c r="S21" s="23">
+      <c r="S21" s="18">
         <v>78.400000000000006</v>
       </c>
-      <c r="T21" s="23">
+      <c r="T21" s="18">
         <v>77.91</v>
       </c>
-      <c r="U21" s="23">
+      <c r="U21" s="18">
         <v>77.91</v>
       </c>
-      <c r="V21" s="23">
+      <c r="V21" s="18">
         <v>76.02</v>
       </c>
-      <c r="W21" s="23">
+      <c r="W21" s="18">
         <v>77.91</v>
       </c>
     </row>
@@ -4868,10 +9660,10 @@
         <v>57.98</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="E22" s="5">
         <v>58.07</v>
@@ -4893,34 +9685,34 @@
         <f t="shared" si="1"/>
         <v>0.57979999999999998</v>
       </c>
-      <c r="N22" s="23">
+      <c r="N22" s="18">
         <v>20</v>
       </c>
-      <c r="O22" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="P22" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q22" s="23">
+      <c r="O22" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q22" s="18">
         <v>57.14</v>
       </c>
-      <c r="R22" s="23">
+      <c r="R22" s="18">
         <v>57.98</v>
       </c>
-      <c r="S22" s="23">
+      <c r="S22" s="18">
         <v>57.61</v>
       </c>
-      <c r="T22" s="23">
+      <c r="T22" s="18">
         <v>57.98</v>
       </c>
-      <c r="U22" s="23">
+      <c r="U22" s="18">
         <v>57.98</v>
       </c>
-      <c r="V22" s="23">
+      <c r="V22" s="18">
         <v>56.54</v>
       </c>
-      <c r="W22" s="23">
+      <c r="W22" s="18">
         <v>57.98</v>
       </c>
     </row>
@@ -4954,34 +9746,34 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N23" s="23">
+      <c r="N23" s="18">
         <v>21</v>
       </c>
-      <c r="O23" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="P23" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q23" s="23">
+      <c r="O23" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q23" s="18">
         <v>100</v>
       </c>
-      <c r="R23" s="23">
+      <c r="R23" s="18">
         <v>100</v>
       </c>
-      <c r="S23" s="23">
+      <c r="S23" s="18">
         <v>100</v>
       </c>
-      <c r="T23" s="23">
+      <c r="T23" s="18">
         <v>100</v>
       </c>
-      <c r="U23" s="23">
+      <c r="U23" s="18">
         <v>100</v>
       </c>
-      <c r="V23" s="23">
+      <c r="V23" s="18">
         <v>100</v>
       </c>
-      <c r="W23" s="23">
+      <c r="W23" s="18">
         <v>100</v>
       </c>
     </row>
@@ -5015,34 +9807,34 @@
         <f t="shared" si="1"/>
         <v>0.85109999999999997</v>
       </c>
-      <c r="N24" s="23">
+      <c r="N24" s="18">
         <v>22</v>
       </c>
-      <c r="O24" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="P24" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q24" s="23">
+      <c r="O24" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q24" s="18">
         <v>85.11</v>
       </c>
-      <c r="R24" s="23">
+      <c r="R24" s="18">
         <v>85.11</v>
       </c>
-      <c r="S24" s="23">
+      <c r="S24" s="18">
         <v>85.11</v>
       </c>
-      <c r="T24" s="23">
+      <c r="T24" s="18">
         <v>85.11</v>
       </c>
-      <c r="U24" s="23">
+      <c r="U24" s="18">
         <v>85.11</v>
       </c>
-      <c r="V24" s="23">
+      <c r="V24" s="18">
         <v>85.11</v>
       </c>
-      <c r="W24" s="23">
+      <c r="W24" s="18">
         <v>85.11</v>
       </c>
     </row>
@@ -5076,34 +9868,34 @@
         <f t="shared" si="1"/>
         <v>0.73510000000000009</v>
       </c>
-      <c r="N25" s="23">
+      <c r="N25" s="18">
         <v>23</v>
       </c>
-      <c r="O25" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="P25" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q25" s="23">
+      <c r="O25" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q25" s="18">
         <v>73.510000000000005</v>
       </c>
-      <c r="R25" s="23">
+      <c r="R25" s="18">
         <v>73.510000000000005</v>
       </c>
-      <c r="S25" s="23">
+      <c r="S25" s="18">
         <v>73.510000000000005</v>
       </c>
-      <c r="T25" s="23">
+      <c r="T25" s="18">
         <v>73.510000000000005</v>
       </c>
-      <c r="U25" s="23">
+      <c r="U25" s="18">
         <v>73.510000000000005</v>
       </c>
-      <c r="V25" s="23">
+      <c r="V25" s="18">
         <v>73.510000000000005</v>
       </c>
-      <c r="W25" s="23">
+      <c r="W25" s="18">
         <v>73.510000000000005</v>
       </c>
     </row>
@@ -5137,34 +9929,34 @@
         <f t="shared" si="1"/>
         <v>0.53290000000000004</v>
       </c>
-      <c r="N26" s="23">
+      <c r="N26" s="18">
         <v>24</v>
       </c>
-      <c r="O26" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="P26" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q26" s="23">
+      <c r="O26" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q26" s="18">
         <v>52.41</v>
       </c>
-      <c r="R26" s="23">
+      <c r="R26" s="18">
         <v>53.29</v>
       </c>
-      <c r="S26" s="23">
+      <c r="S26" s="18">
         <v>53.29</v>
       </c>
-      <c r="T26" s="23">
+      <c r="T26" s="18">
         <v>53.29</v>
       </c>
-      <c r="U26" s="23">
+      <c r="U26" s="18">
         <v>53.29</v>
       </c>
-      <c r="V26" s="23">
+      <c r="V26" s="18">
         <v>52.94</v>
       </c>
-      <c r="W26" s="23">
+      <c r="W26" s="18">
         <v>53.29</v>
       </c>
     </row>
@@ -5198,34 +9990,34 @@
         <f t="shared" si="1"/>
         <v>0.48950000000000005</v>
       </c>
-      <c r="N27" s="23">
+      <c r="N27" s="18">
         <v>25</v>
       </c>
-      <c r="O27" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="P27" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q27" s="23">
+      <c r="O27" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q27" s="18">
         <v>52.53</v>
       </c>
-      <c r="R27" s="23">
+      <c r="R27" s="18">
         <v>54.02</v>
       </c>
-      <c r="S27" s="23">
+      <c r="S27" s="18">
         <v>54.27</v>
       </c>
-      <c r="T27" s="23">
+      <c r="T27" s="18">
         <v>54.82</v>
       </c>
-      <c r="U27" s="23">
+      <c r="U27" s="18">
         <v>54.82</v>
       </c>
-      <c r="V27" s="23">
+      <c r="V27" s="18">
         <v>53.54</v>
       </c>
-      <c r="W27" s="23">
+      <c r="W27" s="18">
         <v>54.82</v>
       </c>
     </row>
@@ -5259,34 +10051,34 @@
         <f t="shared" si="1"/>
         <v>0.47259999999999996</v>
       </c>
-      <c r="N28" s="23">
+      <c r="N28" s="18">
         <v>26</v>
       </c>
-      <c r="O28" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="P28" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q28" s="23">
+      <c r="O28" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="P28" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q28" s="18">
         <v>57.95</v>
       </c>
-      <c r="R28" s="23">
+      <c r="R28" s="18">
         <v>59.77</v>
       </c>
-      <c r="S28" s="23">
+      <c r="S28" s="18">
         <v>60.12</v>
       </c>
-      <c r="T28" s="23">
+      <c r="T28" s="18">
         <v>58.89</v>
       </c>
-      <c r="U28" s="23">
+      <c r="U28" s="18">
         <v>59.77</v>
       </c>
-      <c r="V28" s="23">
+      <c r="V28" s="18">
         <v>59.77</v>
       </c>
-      <c r="W28" s="23">
+      <c r="W28" s="18">
         <v>60.12</v>
       </c>
     </row>
@@ -5320,34 +10112,34 @@
         <f t="shared" si="1"/>
         <v>0.54820000000000002</v>
       </c>
-      <c r="N29" s="23">
+      <c r="N29" s="18">
         <v>27</v>
       </c>
-      <c r="O29" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="P29" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q29" s="23">
+      <c r="O29" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="P29" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q29" s="18">
         <v>52.47</v>
       </c>
-      <c r="R29" s="23">
+      <c r="R29" s="18">
         <v>60.64</v>
       </c>
-      <c r="S29" s="23">
+      <c r="S29" s="18">
         <v>59.04</v>
       </c>
-      <c r="T29" s="23">
+      <c r="T29" s="18">
         <v>60.4</v>
       </c>
-      <c r="U29" s="23">
+      <c r="U29" s="18">
         <v>60.64</v>
       </c>
-      <c r="V29" s="23">
+      <c r="V29" s="18">
         <v>60.34</v>
       </c>
-      <c r="W29" s="23">
+      <c r="W29" s="18">
         <v>60.63</v>
       </c>
     </row>
@@ -5381,35 +10173,35 @@
         <f t="shared" si="1"/>
         <v>0.47229999999999994</v>
       </c>
-      <c r="N30" s="23">
+      <c r="N30" s="18">
         <v>28</v>
       </c>
-      <c r="O30" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="P30" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q30" s="23">
+      <c r="O30" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q30" s="18">
         <v>45.77</v>
       </c>
-      <c r="R30" s="23">
+      <c r="R30" s="18">
         <v>52.05</v>
       </c>
-      <c r="S30" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="T30" s="23">
+      <c r="S30" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="T30" s="18">
         <v>52.07</v>
       </c>
-      <c r="U30" s="23">
+      <c r="U30" s="18">
         <v>52.29</v>
       </c>
-      <c r="V30" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="W30" s="24" t="s">
-        <v>39</v>
+      <c r="V30" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="W30" s="19" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.25">
@@ -5442,35 +10234,35 @@
         <f t="shared" si="1"/>
         <v>0.6331</v>
       </c>
-      <c r="N31" s="23">
+      <c r="N31" s="18">
         <v>29</v>
       </c>
-      <c r="O31" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="P31" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q31" s="23">
+      <c r="O31" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q31" s="18">
         <v>61.16</v>
       </c>
-      <c r="R31" s="23">
+      <c r="R31" s="18">
         <v>62.99</v>
       </c>
-      <c r="S31" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="T31" s="23">
+      <c r="S31" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="T31" s="18">
         <v>63.04</v>
       </c>
-      <c r="U31" s="23">
+      <c r="U31" s="18">
         <v>63.04</v>
       </c>
-      <c r="V31" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="W31" s="24" t="s">
-        <v>39</v>
+      <c r="V31" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="W31" s="19" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.25">
@@ -5503,35 +10295,35 @@
         <f t="shared" si="1"/>
         <v>0.59770000000000001</v>
       </c>
-      <c r="N32" s="23">
+      <c r="N32" s="18">
         <v>30</v>
       </c>
-      <c r="O32" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="P32" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q32" s="23">
+      <c r="O32" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q32" s="18">
         <v>64.81</v>
       </c>
-      <c r="R32" s="23">
+      <c r="R32" s="18">
         <v>68.38</v>
       </c>
-      <c r="S32" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="T32" s="23">
+      <c r="S32" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="T32" s="18">
         <v>68.38</v>
       </c>
-      <c r="U32" s="23">
+      <c r="U32" s="18">
         <v>68.38</v>
       </c>
-      <c r="V32" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="W32" s="24" t="s">
-        <v>39</v>
+      <c r="V32" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="W32" s="19" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.25">
@@ -5564,35 +10356,35 @@
         <f t="shared" si="1"/>
         <v>0.50829999999999997</v>
       </c>
-      <c r="N33" s="23">
+      <c r="N33" s="18">
         <v>31</v>
       </c>
-      <c r="O33" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="P33" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q33" s="23">
+      <c r="O33" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q33" s="18">
         <v>48.18</v>
       </c>
-      <c r="R33" s="23">
+      <c r="R33" s="18">
         <v>49.65</v>
       </c>
-      <c r="S33" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="T33" s="23">
+      <c r="S33" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="T33" s="18">
         <v>50</v>
       </c>
-      <c r="U33" s="23">
+      <c r="U33" s="18">
         <v>50</v>
       </c>
-      <c r="V33" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="W33" s="24" t="s">
-        <v>39</v>
+      <c r="V33" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="W33" s="19" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.25">
@@ -5625,35 +10417,35 @@
         <f t="shared" si="1"/>
         <v>0.47139999999999999</v>
       </c>
-      <c r="N34" s="23">
+      <c r="N34" s="18">
         <v>32</v>
       </c>
-      <c r="O34" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="P34" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q34" s="23">
+      <c r="O34" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q34" s="18">
         <v>70.540000000000006</v>
       </c>
-      <c r="R34" s="23">
+      <c r="R34" s="18">
         <v>72.37</v>
       </c>
-      <c r="S34" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="T34" s="23">
+      <c r="S34" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="T34" s="18">
         <v>72.37</v>
       </c>
-      <c r="U34" s="23">
+      <c r="U34" s="18">
         <v>72.37</v>
       </c>
-      <c r="V34" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="W34" s="24" t="s">
-        <v>39</v>
+      <c r="V34" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="W34" s="19" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.25">
@@ -5686,35 +10478,35 @@
         <f t="shared" si="1"/>
         <v>0.60640000000000005</v>
       </c>
-      <c r="N35" s="23">
+      <c r="N35" s="18">
         <v>33</v>
       </c>
-      <c r="O35" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="P35" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q35" s="23">
+      <c r="O35" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q35" s="18">
         <v>77.31</v>
       </c>
-      <c r="R35" s="23">
+      <c r="R35" s="18">
         <v>77.31</v>
       </c>
-      <c r="S35" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="T35" s="23">
+      <c r="S35" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="T35" s="18">
         <v>77.31</v>
       </c>
-      <c r="U35" s="23">
+      <c r="U35" s="18">
         <v>77.31</v>
       </c>
-      <c r="V35" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="W35" s="24" t="s">
-        <v>39</v>
+      <c r="V35" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="W35" s="19" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.25">
@@ -5747,66 +10539,66 @@
         <f t="shared" si="1"/>
         <v>0.84030000000000005</v>
       </c>
-      <c r="N36" s="23">
+      <c r="N36" s="18">
         <v>34</v>
       </c>
-      <c r="O36" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="P36" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q36" s="23">
+      <c r="O36" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q36" s="18">
         <v>71.430000000000007</v>
       </c>
-      <c r="R36" s="23">
+      <c r="R36" s="18">
         <v>73.239999999999995</v>
       </c>
-      <c r="S36" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="T36" s="23">
+      <c r="S36" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="T36" s="18">
         <v>73.239999999999995</v>
       </c>
-      <c r="U36" s="23">
+      <c r="U36" s="18">
         <v>73.239999999999995</v>
       </c>
-      <c r="V36" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="W36" s="24" t="s">
-        <v>39</v>
+      <c r="V36" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="W36" s="19" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="N37" s="25">
+      <c r="N37" s="20">
         <v>35</v>
       </c>
-      <c r="O37" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="P37" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q37" s="25">
+      <c r="O37" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="P37" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q37" s="20">
         <v>61.39</v>
       </c>
-      <c r="R37" s="25">
+      <c r="R37" s="20">
         <v>63.31</v>
       </c>
-      <c r="S37" s="25">
+      <c r="S37" s="20">
         <v>59.52</v>
       </c>
-      <c r="T37" s="25">
+      <c r="T37" s="20">
         <v>62.59</v>
       </c>
-      <c r="U37" s="25">
+      <c r="U37" s="20">
         <v>63.31</v>
       </c>
-      <c r="V37" s="25">
+      <c r="V37" s="20">
         <v>61.58</v>
       </c>
-      <c r="W37" s="25">
+      <c r="W37" s="20">
         <v>63.12</v>
       </c>
     </row>

--- a/bibliografia/results/Comparativa Resultados.xlsx
+++ b/bibliografia/results/Comparativa Resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\José Enrique\Desktop\cell-formation\cell-formation\bibliografia\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED64418B-1450-474C-907F-28B8A4A5CE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F3138B-15E0-422C-9556-73B65087E903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="74">
   <si>
     <t>ZODIAC</t>
   </si>
@@ -250,12 +250,24 @@
   <si>
     <t>TOTAL</t>
   </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>Danilovic 2019**</t>
+  </si>
+  <si>
+    <t>Time/CPU</t>
+  </si>
+  <si>
+    <t>** Posibles soluciones con residual cells. Dataset Gonçalves (inconsistencias?)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,8 +324,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,8 +357,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -565,11 +589,195 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -609,9 +817,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -633,12 +838,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -664,9 +863,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -680,21 +876,109 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="274">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="240">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1402,336 +1686,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3594,25 +3548,28 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>DatasetA!$C$1:$G$1</c:f>
+              <c:f>(DatasetA!$C$1,DatasetA!$E$1,DatasetA!$G$1,DatasetA!$H$1,DatasetA!$I$1,DatasetA!$J$1)</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Ulutas 2019 
 (Avg)</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Danilovic 2019**</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Karoum 2018 
 (Avg)</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Noktehdan 2016
 (Avg)</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Elbenani 2012</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Ying 2011</c:v>
                 </c:pt>
               </c:strCache>
@@ -3620,24 +3577,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DatasetA-2'!$C$37:$G$37</c:f>
+              <c:f>'DatasetA-2'!$C$37:$H$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29</c:v>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4429,16 +4389,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4729,1898 +4689,2075 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S38"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" style="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
-    <col min="8" max="12" width="16.28515625" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="14" width="16.28515625" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="42"/>
+      <c r="E1" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="42"/>
+      <c r="G1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="H1" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="I1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="J1" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="11" t="s">
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="68" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="69"/>
+      <c r="Q2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="29">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12">
+      <c r="B3" s="60">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12">
         <v>0.82350000000000001</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D3" s="12"/>
+      <c r="E3" s="49">
         <v>0.82350000000000001</v>
       </c>
-      <c r="E2" s="21">
+      <c r="F3" s="46"/>
+      <c r="G3" s="20">
         <v>0.82350000000000001</v>
       </c>
-      <c r="F2" s="12">
+      <c r="H3" s="12">
         <v>0.82350000000000001</v>
       </c>
-      <c r="G2" s="12">
+      <c r="I3" s="12">
         <v>0.82350000000000001</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="14">
-        <f>MAX(C2:F2)</f>
+      <c r="J3" s="12">
         <v>0.82350000000000001</v>
       </c>
-      <c r="O2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="29">
-        <v>2</v>
-      </c>
-      <c r="C3" s="12">
-        <v>0.69569999999999999</v>
-      </c>
-      <c r="D3" s="12">
-        <v>0.69569999999999999</v>
-      </c>
-      <c r="E3" s="21">
-        <v>0.69569999999999999</v>
-      </c>
-      <c r="F3" s="12">
-        <v>0.69569999999999999</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0.69569999999999999</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
-      <c r="M3" s="14">
-        <f t="shared" ref="M3:M36" si="0">MAX(C3:F3)</f>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="70">
+        <f>MAX(CG33,H3,I3,J3)</f>
+        <v>0.82350000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="62">
+        <v>2</v>
+      </c>
+      <c r="C4" s="12">
         <v>0.69569999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="29">
-        <v>3</v>
-      </c>
-      <c r="C4" s="12">
-        <v>0.79590000000000005</v>
-      </c>
-      <c r="D4" s="12">
-        <v>0.79590000000000005</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="12">
-        <v>0.79590000000000005</v>
-      </c>
-      <c r="G4" s="12">
-        <v>0.79590000000000005</v>
-      </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="50">
+        <v>0.69569999999999999</v>
+      </c>
+      <c r="F4" s="47"/>
+      <c r="G4" s="20">
+        <v>0.69569999999999999</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0.69569999999999999</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0.69569999999999999</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0.69569999999999999</v>
+      </c>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
-      <c r="M4" s="14">
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="71">
+        <f t="shared" ref="O4:O37" si="0">MAX(CG34,H4,I4,J4)</f>
+        <v>0.69569999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="62">
+        <v>3</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0.79590000000000005</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="55">
+        <v>0.8085</v>
+      </c>
+      <c r="F5" s="47"/>
+      <c r="G5" s="20">
+        <v>0.79590000000000005</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.79590000000000005</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.79590000000000005</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="71">
         <f t="shared" si="0"/>
         <v>0.79590000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+    <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B6" s="62">
         <v>4</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C6" s="12">
         <v>0.76919999999999999</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D6" s="12"/>
+      <c r="E6" s="55">
+        <v>0.79170000000000007</v>
+      </c>
+      <c r="F6" s="47"/>
+      <c r="G6" s="20">
         <v>0.76919999999999999</v>
       </c>
-      <c r="E5" s="21">
+      <c r="H6" s="12">
         <v>0.76919999999999999</v>
       </c>
-      <c r="F5" s="12">
+      <c r="I6" s="12">
         <v>0.76919999999999999</v>
       </c>
-      <c r="G5" s="12">
+      <c r="J6" s="12">
         <v>0.76919999999999999</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="14">
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="71">
         <f t="shared" si="0"/>
         <v>0.76919999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+    <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B7" s="62">
         <v>5</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C7" s="12">
         <v>0.60870000000000002</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D7" s="12"/>
+      <c r="E7" s="50">
         <v>0.60870000000000002</v>
       </c>
-      <c r="E6" s="21">
+      <c r="F7" s="47"/>
+      <c r="G7" s="20">
         <v>0.60870000000000002</v>
       </c>
-      <c r="F6" s="12">
+      <c r="H7" s="12">
         <v>0.60870000000000002</v>
       </c>
-      <c r="G6" s="12">
+      <c r="I7" s="12">
         <v>0.60870000000000002</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="14">
+      <c r="J7" s="12">
+        <v>0.60870000000000002</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="71">
         <f t="shared" si="0"/>
         <v>0.60870000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+    <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B8" s="62">
         <v>6</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C8" s="12">
         <v>0.70830000000000004</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D8" s="12"/>
+      <c r="E8" s="50">
+        <v>0.70829999999999993</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" s="20">
         <v>0.70830000000000004</v>
       </c>
-      <c r="E7" s="21">
+      <c r="H8" s="12">
         <v>0.70830000000000004</v>
       </c>
-      <c r="F7" s="12">
+      <c r="I8" s="12">
         <v>0.70830000000000004</v>
       </c>
-      <c r="G7" s="12">
+      <c r="J8" s="12">
         <v>0.70830000000000004</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="14">
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="71">
         <f t="shared" si="0"/>
         <v>0.70830000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+    <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B9" s="62">
         <v>7</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C9" s="12">
         <v>0.69440000000000002</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D9" s="12"/>
+      <c r="E9" s="50">
         <v>0.69440000000000002</v>
       </c>
-      <c r="E8" s="21">
+      <c r="F9" s="47"/>
+      <c r="G9" s="20">
         <v>0.69440000000000002</v>
       </c>
-      <c r="F8" s="12">
+      <c r="H9" s="12">
         <v>0.69440000000000002</v>
       </c>
-      <c r="G8" s="12">
+      <c r="I9" s="12">
         <v>0.69440000000000002</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="14">
+      <c r="J9" s="12">
+        <v>0.69440000000000002</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="71">
         <f t="shared" si="0"/>
         <v>0.69440000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+    <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B10" s="62">
         <v>8</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C10" s="12">
         <v>0.85250000000000004</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D10" s="12"/>
+      <c r="E10" s="50">
         <v>0.85250000000000004</v>
       </c>
-      <c r="E9" s="21">
+      <c r="F10" s="47"/>
+      <c r="G10" s="20">
         <v>0.85250000000000004</v>
       </c>
-      <c r="F9" s="12">
+      <c r="H10" s="12">
         <v>0.85250000000000004</v>
       </c>
-      <c r="G9" s="12">
+      <c r="I10" s="12">
         <v>0.85250000000000004</v>
       </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="14">
+      <c r="J10" s="12">
+        <v>0.85250000000000004</v>
+      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="71">
         <f t="shared" si="0"/>
         <v>0.85250000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+    <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B11" s="62">
         <v>9</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C11" s="12">
         <v>0.58720000000000006</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D11" s="12"/>
+      <c r="E11" s="50">
+        <v>0.58719999999999994</v>
+      </c>
+      <c r="F11" s="47"/>
+      <c r="G11" s="20">
         <v>0.58720000000000006</v>
       </c>
-      <c r="E10" s="21">
+      <c r="H11" s="12">
         <v>0.58720000000000006</v>
       </c>
-      <c r="F10" s="12">
+      <c r="I11" s="12">
         <v>0.58720000000000006</v>
       </c>
-      <c r="G10" s="12">
+      <c r="J11" s="12">
         <v>0.58720000000000006</v>
       </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="14">
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="71">
         <f t="shared" si="0"/>
         <v>0.58720000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+    <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B12" s="62">
         <v>10</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C12" s="12">
         <v>0.75</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D12" s="12"/>
+      <c r="E12" s="50">
         <v>0.75</v>
       </c>
-      <c r="E11" s="21">
+      <c r="F12" s="47"/>
+      <c r="G12" s="20">
         <v>0.75</v>
       </c>
-      <c r="F11" s="12">
+      <c r="H12" s="12">
         <v>0.75</v>
       </c>
-      <c r="G11" s="12">
+      <c r="I12" s="12">
         <v>0.75</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="14">
+      <c r="J12" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="71">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+    <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B13" s="62">
         <v>11</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C13" s="12">
         <v>0.92</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D13" s="12"/>
+      <c r="E13" s="50">
         <v>0.92</v>
       </c>
-      <c r="E12" s="21">
+      <c r="F13" s="47"/>
+      <c r="G13" s="20">
         <v>0.92</v>
       </c>
-      <c r="F12" s="12">
+      <c r="H13" s="12">
         <v>0.92</v>
       </c>
-      <c r="G12" s="12">
+      <c r="I13" s="12">
         <v>0.92</v>
       </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="14">
+      <c r="J13" s="12">
+        <v>0.92</v>
+      </c>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="71">
         <f t="shared" si="0"/>
         <v>0.92</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+    <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B14" s="62">
         <v>12</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C14" s="12">
         <v>0.72060000000000002</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D14" s="12"/>
+      <c r="E14" s="55">
+        <v>0.74239999999999995</v>
+      </c>
+      <c r="F14" s="47"/>
+      <c r="G14" s="20">
         <v>0.72060000000000002</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="H14" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="12">
+      <c r="I14" s="12">
         <v>0.72060000000000002</v>
       </c>
-      <c r="G13" s="12">
+      <c r="J14" s="12">
         <v>0.72060000000000002</v>
       </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="14">
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="71">
         <f t="shared" si="0"/>
         <v>0.72060000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+    <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B15" s="62">
         <v>13</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C15" s="12">
         <v>0.71830000000000005</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D15" s="12"/>
+      <c r="E15" s="55">
+        <v>0.72860000000000003</v>
+      </c>
+      <c r="F15" s="47"/>
+      <c r="G15" s="20">
         <v>0.71830000000000005</v>
       </c>
-      <c r="E14" s="21">
+      <c r="H15" s="12">
         <v>0.71830000000000005</v>
       </c>
-      <c r="F14" s="12">
+      <c r="I15" s="12">
         <v>0.71830000000000005</v>
       </c>
-      <c r="G14" s="12">
+      <c r="J15" s="12">
         <v>0.71830000000000005</v>
       </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="14">
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="71">
         <f t="shared" si="0"/>
         <v>0.71830000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+    <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B16" s="62">
         <v>14</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C16" s="12">
         <v>0.53259999999999996</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D16" s="12"/>
+      <c r="E16" s="55">
+        <v>0.53849999999999998</v>
+      </c>
+      <c r="F16" s="47"/>
+      <c r="G16" s="20">
         <v>0.53259999999999996</v>
       </c>
-      <c r="E15" s="21">
+      <c r="H16" s="12">
         <v>0.53390000000000004</v>
       </c>
-      <c r="F15" s="12">
+      <c r="I16" s="12">
         <v>0.53259999999999996</v>
       </c>
-      <c r="G15" s="12">
+      <c r="J16" s="12">
         <v>0.53259999999999996</v>
       </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="14">
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="71">
         <f t="shared" si="0"/>
         <v>0.53390000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B17" s="62">
         <v>15</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C17" s="12">
         <v>0.68989999999999996</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D17" s="12"/>
+      <c r="E17" s="55">
+        <v>0.70760000000000001</v>
+      </c>
+      <c r="F17" s="47"/>
+      <c r="G17" s="21">
         <v>0.69530000000000003</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="H17" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="12">
+      <c r="I17" s="12">
         <v>0.69530000000000003</v>
       </c>
-      <c r="G16" s="12">
+      <c r="J17" s="12">
         <v>0.68989999999999996</v>
       </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="14">
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="71">
         <f t="shared" si="0"/>
         <v>0.69530000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B18" s="62">
         <v>16</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C18" s="12">
         <v>0.57450000000000001</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D18" s="12"/>
+      <c r="E18" s="55">
+        <v>0.58040000000000003</v>
+      </c>
+      <c r="F18" s="47"/>
+      <c r="G18" s="20">
         <v>0.57530000000000003</v>
       </c>
-      <c r="E17" s="21">
+      <c r="H18" s="12">
         <v>0.5746</v>
       </c>
-      <c r="F17" s="12">
+      <c r="I18" s="12">
         <v>0.57530000000000003</v>
       </c>
-      <c r="G17" s="12">
+      <c r="J18" s="12">
         <v>0.57530000000000003</v>
       </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="14">
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="71">
         <f t="shared" si="0"/>
         <v>0.57530000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B19" s="62">
         <v>17</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C19" s="12">
         <v>0.57609999999999995</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D19" s="12"/>
+      <c r="E19" s="50">
+        <v>0.57729999999999992</v>
+      </c>
+      <c r="F19" s="47"/>
+      <c r="G19" s="20">
         <v>0.57730000000000004</v>
       </c>
-      <c r="E18" s="21">
+      <c r="H19" s="12">
         <v>0.57730000000000004</v>
       </c>
-      <c r="F18" s="12">
+      <c r="I19" s="12">
         <v>0.57730000000000004</v>
       </c>
-      <c r="G18" s="12">
+      <c r="J19" s="12">
         <v>0.57730000000000004</v>
       </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="14">
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="71">
         <f t="shared" si="0"/>
         <v>0.57730000000000004</v>
       </c>
-      <c r="R18" s="21"/>
-    </row>
-    <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
+      <c r="T19" s="20"/>
+    </row>
+    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="29">
+      <c r="B20" s="62">
         <v>18</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C20" s="12">
         <v>0.43430000000000002</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D20" s="12"/>
+      <c r="E20" s="55">
+        <v>0.43969999999999998</v>
+      </c>
+      <c r="F20" s="47"/>
+      <c r="G20" s="20">
         <v>0.4345</v>
       </c>
-      <c r="E19" s="21">
+      <c r="H20" s="12">
         <v>0.42780000000000001</v>
       </c>
-      <c r="F19" s="12">
+      <c r="I20" s="12">
         <v>0.4345</v>
       </c>
-      <c r="G19" s="12">
+      <c r="J20" s="12">
         <v>0.4345</v>
       </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="14">
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="71">
         <f t="shared" si="0"/>
         <v>0.4345</v>
       </c>
-      <c r="R19" s="21"/>
-    </row>
-    <row r="20" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+      <c r="T20" s="20"/>
+    </row>
+    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="29">
+      <c r="B21" s="62">
         <v>19</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C21" s="12">
         <v>0.50209999999999999</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D21" s="12"/>
+      <c r="E21" s="50">
         <v>0.5081</v>
       </c>
-      <c r="E20" s="21">
+      <c r="F21" s="47"/>
+      <c r="G21" s="20">
         <v>0.5081</v>
       </c>
-      <c r="F20" s="12">
+      <c r="H21" s="12">
         <v>0.5081</v>
       </c>
-      <c r="G20" s="12">
+      <c r="I21" s="12">
         <v>0.5081</v>
       </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="14">
+      <c r="J21" s="12">
+        <v>0.5081</v>
+      </c>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="71">
         <f t="shared" si="0"/>
         <v>0.5081</v>
       </c>
-      <c r="R20" s="21"/>
-    </row>
-    <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
+      <c r="T21" s="20"/>
+    </row>
+    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="29">
+      <c r="B22" s="62">
         <v>20</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C22" s="12">
         <v>0.77910000000000001</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D22" s="12"/>
+      <c r="E22" s="55">
+        <v>0.79379999999999995</v>
+      </c>
+      <c r="F22" s="47"/>
+      <c r="G22" s="20">
         <v>0.77910000000000001</v>
       </c>
-      <c r="E21" s="21">
+      <c r="H22" s="12">
         <v>0.77910000000000001</v>
       </c>
-      <c r="F21" s="12">
+      <c r="I22" s="12">
         <v>0.77910000000000001</v>
       </c>
-      <c r="G21" s="12">
+      <c r="J22" s="12">
         <v>0.77910000000000001</v>
       </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="14">
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="71">
         <f t="shared" si="0"/>
         <v>0.77910000000000001</v>
       </c>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-    </row>
-    <row r="22" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+    </row>
+    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="29">
+      <c r="B23" s="62">
         <v>21</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C23" s="12">
         <v>0.57979999999999998</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D23" s="12"/>
+      <c r="E23" s="55">
+        <v>0.58789999999999998</v>
+      </c>
+      <c r="F23" s="47"/>
+      <c r="G23" s="20">
         <v>0.57979999999999998</v>
       </c>
-      <c r="E22" s="21">
+      <c r="H23" s="12">
         <v>0.57979999999999998</v>
       </c>
-      <c r="F22" s="12">
+      <c r="I23" s="12">
         <v>0.57979999999999998</v>
       </c>
-      <c r="G22" s="12">
+      <c r="J23" s="12">
         <v>0.57979999999999998</v>
       </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="14">
+      <c r="K23" s="35"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="71">
         <f t="shared" si="0"/>
         <v>0.57979999999999998</v>
       </c>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-    </row>
-    <row r="23" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+    </row>
+    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="29">
+      <c r="B24" s="62">
         <v>22</v>
       </c>
-      <c r="C23" s="12">
-        <v>1</v>
-      </c>
-      <c r="D23" s="12">
-        <v>1</v>
-      </c>
-      <c r="E23" s="21">
-        <v>1</v>
-      </c>
-      <c r="F23" s="12">
-        <v>1</v>
-      </c>
-      <c r="G23" s="12">
-        <v>1</v>
-      </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-    </row>
-    <row r="24" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="29">
-        <v>23</v>
-      </c>
       <c r="C24" s="12">
-        <v>0.85109999999999997</v>
-      </c>
-      <c r="D24" s="12">
-        <v>0.85109999999999997</v>
-      </c>
-      <c r="E24" s="21">
-        <v>0.85109999999999997</v>
-      </c>
-      <c r="F24" s="12">
-        <v>0.85109999999999997</v>
-      </c>
-      <c r="G24" s="12">
-        <v>0.85109999999999997</v>
-      </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="50">
+        <v>1</v>
+      </c>
+      <c r="F24" s="47"/>
+      <c r="G24" s="20">
+        <v>1</v>
+      </c>
+      <c r="H24" s="12">
+        <v>1</v>
+      </c>
+      <c r="I24" s="12">
+        <v>1</v>
+      </c>
+      <c r="J24" s="12">
+        <v>1</v>
+      </c>
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
-      <c r="M24" s="14">
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="71">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+    </row>
+    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="62">
+        <v>23</v>
+      </c>
+      <c r="C25" s="12">
+        <v>0.85109999999999997</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="50">
+        <v>0.85109999999999997</v>
+      </c>
+      <c r="F25" s="47"/>
+      <c r="G25" s="20">
+        <v>0.85109999999999997</v>
+      </c>
+      <c r="H25" s="12">
+        <v>0.85109999999999997</v>
+      </c>
+      <c r="I25" s="12">
+        <v>0.85109999999999997</v>
+      </c>
+      <c r="J25" s="12">
+        <v>0.85109999999999997</v>
+      </c>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="71">
         <f t="shared" si="0"/>
         <v>0.85109999999999997</v>
       </c>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-    </row>
-    <row r="25" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+    </row>
+    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="29">
+      <c r="B26" s="62">
         <v>24</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C26" s="12">
         <v>0.73509999999999998</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D26" s="12"/>
+      <c r="E26" s="50">
+        <v>0.73510000000000009</v>
+      </c>
+      <c r="F26" s="47"/>
+      <c r="G26" s="20">
         <v>0.73509999999999998</v>
       </c>
-      <c r="E25" s="21">
+      <c r="H26" s="12">
         <v>0.73509999999999998</v>
       </c>
-      <c r="F25" s="12">
+      <c r="I26" s="12">
         <v>0.73509999999999998</v>
       </c>
-      <c r="G25" s="12">
+      <c r="J26" s="12">
         <v>0.73509999999999998</v>
       </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="14">
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="71">
         <f t="shared" si="0"/>
         <v>0.73509999999999998</v>
       </c>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-    </row>
-    <row r="26" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+    </row>
+    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="29">
+      <c r="B27" s="62">
         <v>25</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C27" s="12">
         <v>0.5323</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D27" s="12"/>
+      <c r="E27" s="50">
         <v>0.53290000000000004</v>
       </c>
-      <c r="E26" s="21">
+      <c r="F27" s="47"/>
+      <c r="G27" s="20">
         <v>0.53290000000000004</v>
       </c>
-      <c r="F26" s="12">
+      <c r="H27" s="12">
         <v>0.53290000000000004</v>
       </c>
-      <c r="G26" s="12">
+      <c r="I27" s="12">
         <v>0.53290000000000004</v>
       </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="14">
+      <c r="J27" s="12">
+        <v>0.53290000000000004</v>
+      </c>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="71">
         <f t="shared" si="0"/>
         <v>0.53290000000000004</v>
       </c>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-    </row>
-    <row r="27" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+    </row>
+    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="29">
+      <c r="B28" s="62">
         <v>26</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C28" s="12">
         <v>0.48670000000000002</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D28" s="12"/>
+      <c r="E28" s="50">
+        <v>0.48950000000000005</v>
+      </c>
+      <c r="F28" s="47"/>
+      <c r="G28" s="21">
         <v>0.48609999999999998</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="H28" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F27" s="12">
+      <c r="I28" s="12">
         <v>0.48949999999999999</v>
       </c>
-      <c r="G27" s="12">
+      <c r="J28" s="12">
         <v>0.48949999999999999</v>
       </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="14">
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="71">
         <f t="shared" si="0"/>
         <v>0.48949999999999999</v>
       </c>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-    </row>
-    <row r="28" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+    </row>
+    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="29">
+      <c r="B29" s="62">
         <v>27</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C29" s="12">
         <v>0.46</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D29" s="12"/>
+      <c r="E29" s="50">
+        <v>0.47259999999999996</v>
+      </c>
+      <c r="F29" s="47"/>
+      <c r="G29" s="21">
         <v>0.46210000000000001</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="H29" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F28" s="12">
+      <c r="I29" s="12">
         <v>0.46579999999999999</v>
       </c>
-      <c r="G28" s="12">
+      <c r="J29" s="12">
         <v>0.47260000000000002</v>
       </c>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="14">
-        <f t="shared" si="0"/>
-        <v>0.46579999999999999</v>
-      </c>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
-    </row>
-    <row r="29" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="29">
-        <v>28</v>
-      </c>
-      <c r="C29" s="12">
-        <v>0.54820000000000002</v>
-      </c>
-      <c r="D29" s="12">
-        <v>0.54820000000000002</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="12">
-        <v>0.54820000000000002</v>
-      </c>
-      <c r="G29" s="12">
-        <v>0.54820000000000002</v>
-      </c>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
-      <c r="M29" s="14">
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="71">
+        <f t="shared" si="0"/>
+        <v>0.47260000000000002</v>
+      </c>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+    </row>
+    <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="62">
+        <v>28</v>
+      </c>
+      <c r="C30" s="12">
+        <v>0.54820000000000002</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="50">
+        <v>0.54820000000000002</v>
+      </c>
+      <c r="F30" s="47"/>
+      <c r="G30" s="21">
+        <v>0.54820000000000002</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I30" s="12">
+        <v>0.54820000000000002</v>
+      </c>
+      <c r="J30" s="12">
+        <v>0.54820000000000002</v>
+      </c>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="71">
         <f t="shared" si="0"/>
         <v>0.54820000000000002</v>
       </c>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-    </row>
-    <row r="30" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+    </row>
+    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="29">
+      <c r="B31" s="62">
         <v>29</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C31" s="12">
         <v>0.46550000000000002</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D31" s="12"/>
+      <c r="E31" s="55">
+        <v>0.47850000000000004</v>
+      </c>
+      <c r="F31" s="47"/>
+      <c r="G31" s="21">
         <v>0.47060000000000002</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="H31" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F30" s="12">
+      <c r="I31" s="12">
         <v>0.47060000000000002</v>
       </c>
-      <c r="G30" s="12">
+      <c r="J31" s="12">
         <v>0.4723</v>
       </c>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="14">
-        <f t="shared" si="0"/>
-        <v>0.47060000000000002</v>
-      </c>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
-    </row>
-    <row r="31" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="29">
-        <v>30</v>
-      </c>
-      <c r="C31" s="12">
-        <v>0.62639999999999996</v>
-      </c>
-      <c r="D31" s="12">
-        <v>0.6331</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" s="12">
-        <v>0.63119999999999998</v>
-      </c>
-      <c r="G31" s="12">
-        <v>0.6331</v>
-      </c>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
-      <c r="M31" s="14">
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="71">
+        <f t="shared" si="0"/>
+        <v>0.4723</v>
+      </c>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+    </row>
+    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="62">
+        <v>30</v>
+      </c>
+      <c r="C32" s="12">
+        <v>0.62639999999999996</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="50">
+        <v>0.6331</v>
+      </c>
+      <c r="F32" s="47"/>
+      <c r="G32" s="21">
+        <v>0.6331</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32" s="12">
+        <v>0.63119999999999998</v>
+      </c>
+      <c r="J32" s="12">
+        <v>0.6331</v>
+      </c>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="71">
         <f t="shared" si="0"/>
         <v>0.6331</v>
       </c>
-      <c r="R31" s="21"/>
-    </row>
-    <row r="32" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
+      <c r="T32" s="20"/>
+    </row>
+    <row r="33" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="29">
+      <c r="B33" s="62">
         <v>31</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C33" s="12">
         <v>0.59670000000000001</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D33" s="12"/>
+      <c r="E33" s="50">
+        <v>0.60119999999999996</v>
+      </c>
+      <c r="F33" s="47"/>
+      <c r="G33" s="22">
         <v>0.59770000000000001</v>
       </c>
-      <c r="E32" s="23">
+      <c r="H33" s="12">
         <v>0.59589999999999999</v>
       </c>
-      <c r="F32" s="12">
+      <c r="I33" s="12">
         <v>0.60119999999999996</v>
       </c>
-      <c r="G32" s="12">
+      <c r="J33" s="12">
         <v>0.59770000000000001</v>
       </c>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="14">
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="71">
         <f t="shared" si="0"/>
         <v>0.60119999999999996</v>
       </c>
-      <c r="R32" s="21"/>
-    </row>
-    <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
+      <c r="T33" s="20"/>
+    </row>
+    <row r="34" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="29">
+      <c r="B34" s="62">
         <v>32</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C34" s="12">
         <v>0.50619999999999998</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D34" s="12"/>
+      <c r="E34" s="55">
+        <v>0.50840000000000007</v>
+      </c>
+      <c r="F34" s="47"/>
+      <c r="G34" s="21">
         <v>0.50829999999999997</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="H34" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F33" s="12">
+      <c r="I34" s="12">
         <v>0.50829999999999997</v>
       </c>
-      <c r="G33" s="12">
+      <c r="J34" s="12">
         <v>0.50829999999999997</v>
       </c>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="14">
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="71">
         <f t="shared" si="0"/>
         <v>0.50829999999999997</v>
       </c>
-      <c r="R33" s="21"/>
-    </row>
-    <row r="34" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
+      <c r="T34" s="20"/>
+    </row>
+    <row r="35" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="29">
+      <c r="B35" s="62">
         <v>33</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C35" s="12">
         <v>0.47820000000000001</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D35" s="12"/>
+      <c r="E35" s="55">
+        <v>0.4829</v>
+      </c>
+      <c r="F35" s="47"/>
+      <c r="G35" s="21">
         <v>0.47749999999999998</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="H35" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F34" s="12">
+      <c r="I35" s="12">
         <v>0.47749999999999998</v>
       </c>
-      <c r="G34" s="12">
+      <c r="J35" s="12">
         <v>0.47139999999999999</v>
       </c>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="14">
-        <f t="shared" si="0"/>
-        <v>0.47820000000000001</v>
-      </c>
-      <c r="R34" s="21"/>
-    </row>
-    <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="29">
-        <v>34</v>
-      </c>
-      <c r="C35" s="12">
-        <v>0.60140000000000005</v>
-      </c>
-      <c r="D35" s="12">
-        <v>0.60640000000000005</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F35" s="12">
-        <v>0.60629999999999995</v>
-      </c>
-      <c r="G35" s="12">
-        <v>0.60640000000000005</v>
-      </c>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
-      <c r="M35" s="14">
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="71">
+        <f t="shared" si="0"/>
+        <v>0.47749999999999998</v>
+      </c>
+      <c r="T35" s="20"/>
+    </row>
+    <row r="36" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="62">
+        <v>34</v>
+      </c>
+      <c r="C36" s="12">
+        <v>0.60140000000000005</v>
+      </c>
+      <c r="D36" s="12"/>
+      <c r="E36" s="55">
+        <v>0.61360000000000003</v>
+      </c>
+      <c r="F36" s="47"/>
+      <c r="G36" s="21">
+        <v>0.60640000000000005</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I36" s="12">
+        <v>0.60629999999999995</v>
+      </c>
+      <c r="J36" s="12">
+        <v>0.60640000000000005</v>
+      </c>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="71">
         <f t="shared" si="0"/>
         <v>0.60640000000000005</v>
       </c>
-      <c r="R35" s="21"/>
-    </row>
-    <row r="36" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="31" t="s">
+      <c r="T36" s="20"/>
+    </row>
+    <row r="37" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="32">
+      <c r="B37" s="64">
         <v>35</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C37" s="13">
         <v>0.84030000000000005</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D37" s="13"/>
+      <c r="E37" s="51">
         <v>0.84030000000000005</v>
       </c>
-      <c r="E36" s="38" t="s">
+      <c r="F37" s="48"/>
+      <c r="G37" s="34">
+        <v>0.84030000000000005</v>
+      </c>
+      <c r="H37" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F36" s="13">
+      <c r="I37" s="13">
         <v>0.84030000000000005</v>
       </c>
-      <c r="G36" s="13">
+      <c r="J37" s="13">
         <v>0.84030000000000005</v>
       </c>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="15">
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="72">
         <f t="shared" si="0"/>
         <v>0.84030000000000005</v>
       </c>
-      <c r="R36" s="21"/>
-    </row>
-    <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="R37" s="21"/>
-    </row>
-    <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="R38" s="21"/>
+      <c r="T37" s="20"/>
+    </row>
+    <row r="38" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="65"/>
+      <c r="B38" s="66"/>
+      <c r="T38" s="20"/>
+    </row>
+    <row r="39" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="T39" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+  <mergeCells count="4">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="A1:B2"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="273" priority="148" operator="equal">
-      <formula>$M$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="272" priority="145" operator="equal">
-      <formula>$M$3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="271" priority="146" operator="equal">
-      <formula>$M$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="270" priority="143" operator="equal">
-      <formula>$M$3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="269" priority="142" operator="equal">
-      <formula>$M$16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="268" priority="141" operator="equal">
-      <formula>$M$16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="267" priority="140" operator="equal">
-      <formula>$M$17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="266" priority="138" operator="equal">
-      <formula>$M$18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="cellIs" dxfId="265" priority="137" operator="equal">
-      <formula>$M$18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="cellIs" dxfId="264" priority="136" operator="equal">
-      <formula>$M$17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="263" priority="135" operator="equal">
-      <formula>$M$19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="262" priority="134" operator="equal">
-      <formula>$M$19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="261" priority="133" operator="equal">
-      <formula>$M$20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="cellIs" dxfId="260" priority="132" operator="equal">
-      <formula>$M$20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
-    <cfRule type="cellIs" dxfId="259" priority="131" operator="equal">
-      <formula>$M$21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="cellIs" dxfId="258" priority="130" operator="equal">
-      <formula>$M$21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="257" priority="129" operator="equal">
-      <formula>$M$22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="cellIs" dxfId="256" priority="128" operator="equal">
-      <formula>$M$22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27:L27">
-    <cfRule type="cellIs" dxfId="255" priority="127" operator="equal">
-      <formula>$M$27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="254" priority="124" operator="equal">
-      <formula>$M$28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="cellIs" dxfId="253" priority="123" operator="equal">
-      <formula>$M$28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="252" priority="122" operator="equal">
-      <formula>$M$29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="cellIs" dxfId="251" priority="121" operator="equal">
-      <formula>$M$29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="250" priority="119" operator="equal">
-      <formula>$M$30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="249" priority="117" operator="equal">
-      <formula>$M$31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="248" priority="116" operator="equal">
-      <formula>$M$32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="247" priority="115" operator="equal">
-      <formula>$M$33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="246" priority="114" operator="equal">
-      <formula>$M$34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="cellIs" dxfId="245" priority="113" operator="equal">
-      <formula>$M$34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="cellIs" dxfId="244" priority="112" operator="equal">
-      <formula>$M$33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="cellIs" dxfId="243" priority="111" operator="equal">
-      <formula>$M$32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="cellIs" dxfId="242" priority="110" operator="equal">
-      <formula>$M$31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="cellIs" dxfId="241" priority="109" operator="equal">
-      <formula>$M$30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="240" priority="108" operator="equal">
-      <formula>$M$35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="239" priority="106" operator="equal">
-      <formula>$M$36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
-    <cfRule type="cellIs" dxfId="238" priority="105" operator="equal">
-      <formula>$M$36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="cellIs" dxfId="237" priority="104" operator="equal">
-      <formula>$M$35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="236" priority="103" operator="equal">
-      <formula>$M$26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="cellIs" dxfId="235" priority="102" operator="equal">
-      <formula>$M$26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="cellIs" dxfId="234" priority="101" operator="equal">
-      <formula>$M$25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="cellIs" dxfId="233" priority="100" operator="equal">
-      <formula>$M$25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="232" priority="99" operator="equal">
-      <formula>$M$24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="cellIs" dxfId="231" priority="98" operator="equal">
-      <formula>$M$24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="230" priority="97" operator="equal">
-      <formula>$M$23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="cellIs" dxfId="229" priority="96" operator="equal">
-      <formula>$M$23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="228" priority="95" operator="equal">
-      <formula>$M$15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="227" priority="94" operator="equal">
-      <formula>$M$15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="cellIs" dxfId="226" priority="93" operator="equal">
-      <formula>$M$14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="225" priority="92" operator="equal">
-      <formula>$M$14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="224" priority="91" operator="equal">
-      <formula>$M$13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="cellIs" dxfId="223" priority="90" operator="equal">
-      <formula>$M$13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="222" priority="89" operator="equal">
-      <formula>$M$12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="221" priority="88" operator="equal">
-      <formula>$M$12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="220" priority="87" operator="equal">
-      <formula>$M$11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="219" priority="86" operator="equal">
-      <formula>$M$11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="218" priority="85" operator="equal">
-      <formula>$M$10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="217" priority="84" operator="equal">
-      <formula>$M$10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="216" priority="83" operator="equal">
-      <formula>$M$9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="215" priority="82" operator="equal">
-      <formula>$M$9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="214" priority="81" operator="equal">
-      <formula>$M$8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="213" priority="80" operator="equal">
-      <formula>$M$8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="212" priority="79" operator="equal">
-      <formula>$M$7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="211" priority="78" operator="equal">
-      <formula>$M$7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="210" priority="76" operator="equal">
-      <formula>$M$6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="77" operator="equal">
-      <formula>$M$6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="208" priority="74" operator="equal">
-      <formula>$M$6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="75" operator="equal">
-      <formula>$M$6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="206" priority="73" operator="equal">
-      <formula>$M$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="205" priority="72" operator="equal">
-      <formula>$M$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="204" priority="71" operator="equal">
-      <formula>$M$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="203" priority="70" operator="equal">
-      <formula>$M$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:L2">
-    <cfRule type="cellIs" dxfId="202" priority="67" operator="equal">
-      <formula>$M$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:L3">
-    <cfRule type="cellIs" dxfId="201" priority="65" operator="equal">
-      <formula>$M$3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:L4">
-    <cfRule type="cellIs" dxfId="200" priority="64" operator="equal">
-      <formula>$M$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5:L5">
-    <cfRule type="cellIs" dxfId="199" priority="63" operator="equal">
-      <formula>$M$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:L6">
-    <cfRule type="cellIs" dxfId="198" priority="61" operator="equal">
-      <formula>$M$6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="62" operator="equal">
-      <formula>$M$6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7:L7">
-    <cfRule type="cellIs" dxfId="196" priority="60" operator="equal">
-      <formula>$M$7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8:L8">
-    <cfRule type="cellIs" dxfId="195" priority="59" operator="equal">
-      <formula>$M$8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9:L9">
-    <cfRule type="cellIs" dxfId="194" priority="58" operator="equal">
-      <formula>$M$9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:L10">
-    <cfRule type="cellIs" dxfId="193" priority="57" operator="equal">
-      <formula>$M$10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:L11">
-    <cfRule type="cellIs" dxfId="192" priority="56" operator="equal">
-      <formula>$M$11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12:L12">
-    <cfRule type="cellIs" dxfId="191" priority="55" operator="equal">
-      <formula>$M$12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:L13">
-    <cfRule type="cellIs" dxfId="190" priority="54" operator="equal">
-      <formula>$M$13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14:L14">
-    <cfRule type="cellIs" dxfId="189" priority="53" operator="equal">
-      <formula>$M$14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15:L15">
-    <cfRule type="cellIs" dxfId="188" priority="52" operator="equal">
-      <formula>$M$15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16:L16">
-    <cfRule type="cellIs" dxfId="187" priority="51" operator="equal">
-      <formula>$M$16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17:L17">
-    <cfRule type="cellIs" dxfId="186" priority="50" operator="equal">
-      <formula>$M$17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18:L18">
-    <cfRule type="cellIs" dxfId="185" priority="49" operator="equal">
-      <formula>$M$18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19:L19">
-    <cfRule type="cellIs" dxfId="184" priority="48" operator="equal">
-      <formula>$M$19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20:L20">
-    <cfRule type="cellIs" dxfId="183" priority="47" operator="equal">
-      <formula>$M$20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21:L21">
-    <cfRule type="cellIs" dxfId="182" priority="46" operator="equal">
-      <formula>$M$21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22:L22">
-    <cfRule type="cellIs" dxfId="181" priority="45" operator="equal">
-      <formula>$M$22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23:L23">
-    <cfRule type="cellIs" dxfId="180" priority="44" operator="equal">
-      <formula>$M$23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24:L24">
-    <cfRule type="cellIs" dxfId="179" priority="43" operator="equal">
-      <formula>$M$24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25:L25">
-    <cfRule type="cellIs" dxfId="178" priority="42" operator="equal">
-      <formula>$M$25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26:L26">
-    <cfRule type="cellIs" dxfId="177" priority="41" operator="equal">
-      <formula>$M$26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28:L28">
-    <cfRule type="cellIs" dxfId="176" priority="40" operator="equal">
-      <formula>$M$28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29:L29">
-    <cfRule type="cellIs" dxfId="175" priority="39" operator="equal">
-      <formula>$M$29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30:L30">
-    <cfRule type="cellIs" dxfId="174" priority="38" operator="equal">
-      <formula>$M$30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31:L31">
-    <cfRule type="cellIs" dxfId="173" priority="37" operator="equal">
-      <formula>$M$31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32:L32">
-    <cfRule type="cellIs" dxfId="172" priority="36" operator="equal">
-      <formula>$M$32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33:L33">
-    <cfRule type="cellIs" dxfId="171" priority="35" operator="equal">
-      <formula>$M$33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34:L34">
-    <cfRule type="cellIs" dxfId="170" priority="34" operator="equal">
-      <formula>$M$34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35:L35">
-    <cfRule type="cellIs" dxfId="169" priority="33" operator="equal">
-      <formula>$M$35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36:L36">
-    <cfRule type="cellIs" dxfId="168" priority="32" operator="equal">
-      <formula>$M$36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R29">
-    <cfRule type="cellIs" dxfId="167" priority="31" operator="equal">
-      <formula>$M$27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R18">
-    <cfRule type="cellIs" dxfId="166" priority="30" operator="equal">
-      <formula>$M$16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R19">
-    <cfRule type="cellIs" dxfId="165" priority="29" operator="equal">
-      <formula>$M$17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R20">
-    <cfRule type="cellIs" dxfId="164" priority="28" operator="equal">
-      <formula>$M$18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R21">
-    <cfRule type="cellIs" dxfId="163" priority="27" operator="equal">
-      <formula>$M$19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R22">
-    <cfRule type="cellIs" dxfId="162" priority="26" operator="equal">
-      <formula>$M$20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R23">
-    <cfRule type="cellIs" dxfId="161" priority="25" operator="equal">
-      <formula>$M$21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R24">
-    <cfRule type="cellIs" dxfId="160" priority="24" operator="equal">
-      <formula>$M$22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R25">
-    <cfRule type="cellIs" dxfId="159" priority="23" operator="equal">
-      <formula>$M$23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R26">
-    <cfRule type="cellIs" dxfId="158" priority="22" operator="equal">
-      <formula>$M$24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R27">
-    <cfRule type="cellIs" dxfId="157" priority="21" operator="equal">
-      <formula>$M$25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R28">
-    <cfRule type="cellIs" dxfId="156" priority="20" operator="equal">
-      <formula>$M$26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R30">
-    <cfRule type="cellIs" dxfId="155" priority="19" operator="equal">
-      <formula>$M$28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R31">
-    <cfRule type="cellIs" dxfId="154" priority="18" operator="equal">
-      <formula>$M$29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R32">
-    <cfRule type="cellIs" dxfId="153" priority="17" operator="equal">
-      <formula>$M$30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R33">
-    <cfRule type="cellIs" dxfId="152" priority="16" operator="equal">
-      <formula>$M$31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R34">
-    <cfRule type="cellIs" dxfId="151" priority="15" operator="equal">
-      <formula>$M$32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R35">
-    <cfRule type="cellIs" dxfId="150" priority="14" operator="equal">
-      <formula>$M$33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R36">
-    <cfRule type="cellIs" dxfId="149" priority="13" operator="equal">
-      <formula>$M$34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R37">
-    <cfRule type="cellIs" dxfId="148" priority="12" operator="equal">
-      <formula>$M$35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R38">
-    <cfRule type="cellIs" dxfId="147" priority="11" operator="equal">
-      <formula>$M$36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S21">
-    <cfRule type="cellIs" dxfId="146" priority="10" operator="equal">
-      <formula>$M$27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S22">
-    <cfRule type="cellIs" dxfId="145" priority="9" operator="equal">
-      <formula>$M$28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S23">
-    <cfRule type="cellIs" dxfId="144" priority="8" operator="equal">
-      <formula>$M$29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S24">
-    <cfRule type="cellIs" dxfId="143" priority="7" operator="equal">
-      <formula>$M$30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S25">
-    <cfRule type="cellIs" dxfId="142" priority="6" operator="equal">
-      <formula>$M$31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S26">
-    <cfRule type="cellIs" dxfId="141" priority="5" operator="equal">
-      <formula>$M$32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S27">
-    <cfRule type="cellIs" dxfId="140" priority="4" operator="equal">
-      <formula>$M$33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S28">
-    <cfRule type="cellIs" dxfId="139" priority="3" operator="equal">
-      <formula>$M$34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S29">
-    <cfRule type="cellIs" dxfId="138" priority="2" operator="equal">
-      <formula>$M$35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S30">
-    <cfRule type="cellIs" dxfId="137" priority="1" operator="equal">
-      <formula>$M$36</formula>
+  <conditionalFormatting sqref="C3:E3">
+    <cfRule type="cellIs" dxfId="239" priority="148" operator="equal">
+      <formula>$O$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:E4">
+    <cfRule type="cellIs" dxfId="238" priority="145" operator="equal">
+      <formula>$O$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="cellIs" dxfId="237" priority="146" operator="equal">
+      <formula>$O$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="cellIs" dxfId="236" priority="143" operator="equal">
+      <formula>$O$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:E17">
+    <cfRule type="cellIs" dxfId="235" priority="142" operator="equal">
+      <formula>$O$17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="cellIs" dxfId="234" priority="141" operator="equal">
+      <formula>$O$17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="cellIs" dxfId="233" priority="140" operator="equal">
+      <formula>$O$18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="cellIs" dxfId="232" priority="138" operator="equal">
+      <formula>$O$19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:E19">
+    <cfRule type="cellIs" dxfId="231" priority="137" operator="equal">
+      <formula>$O$19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:E18">
+    <cfRule type="cellIs" dxfId="230" priority="136" operator="equal">
+      <formula>$O$18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="cellIs" dxfId="229" priority="135" operator="equal">
+      <formula>$O$20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:E20">
+    <cfRule type="cellIs" dxfId="228" priority="134" operator="equal">
+      <formula>$O$20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="cellIs" dxfId="227" priority="133" operator="equal">
+      <formula>$O$21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:E21">
+    <cfRule type="cellIs" dxfId="226" priority="132" operator="equal">
+      <formula>$O$21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="cellIs" dxfId="225" priority="131" operator="equal">
+      <formula>$O$22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:E22">
+    <cfRule type="cellIs" dxfId="224" priority="130" operator="equal">
+      <formula>$O$22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="cellIs" dxfId="223" priority="129" operator="equal">
+      <formula>$O$23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:E23">
+    <cfRule type="cellIs" dxfId="222" priority="128" operator="equal">
+      <formula>$O$23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:N28">
+    <cfRule type="cellIs" dxfId="221" priority="127" operator="equal">
+      <formula>$O$28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="cellIs" dxfId="220" priority="124" operator="equal">
+      <formula>$O$29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29:E29">
+    <cfRule type="cellIs" dxfId="219" priority="123" operator="equal">
+      <formula>$O$29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="cellIs" dxfId="218" priority="122" operator="equal">
+      <formula>$O$30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30:E30">
+    <cfRule type="cellIs" dxfId="217" priority="121" operator="equal">
+      <formula>$O$30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="cellIs" dxfId="216" priority="119" operator="equal">
+      <formula>$O$31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="cellIs" dxfId="215" priority="117" operator="equal">
+      <formula>$O$32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="cellIs" dxfId="214" priority="116" operator="equal">
+      <formula>$O$33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="cellIs" dxfId="213" priority="115" operator="equal">
+      <formula>$O$34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35">
+    <cfRule type="cellIs" dxfId="212" priority="114" operator="equal">
+      <formula>$O$35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35:E35">
+    <cfRule type="cellIs" dxfId="211" priority="113" operator="equal">
+      <formula>$O$35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:E34">
+    <cfRule type="cellIs" dxfId="210" priority="112" operator="equal">
+      <formula>$O$34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33:E33">
+    <cfRule type="cellIs" dxfId="209" priority="111" operator="equal">
+      <formula>$O$33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:E32">
+    <cfRule type="cellIs" dxfId="208" priority="110" operator="equal">
+      <formula>$O$32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31:E31">
+    <cfRule type="cellIs" dxfId="207" priority="109" operator="equal">
+      <formula>$O$31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="cellIs" dxfId="206" priority="108" operator="equal">
+      <formula>$O$36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="cellIs" dxfId="205" priority="106" operator="equal">
+      <formula>$O$37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:E37">
+    <cfRule type="cellIs" dxfId="204" priority="105" operator="equal">
+      <formula>$O$37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36:E36">
+    <cfRule type="cellIs" dxfId="203" priority="104" operator="equal">
+      <formula>$O$36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="cellIs" dxfId="202" priority="103" operator="equal">
+      <formula>$O$27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:E27">
+    <cfRule type="cellIs" dxfId="201" priority="102" operator="equal">
+      <formula>$O$27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26">
+    <cfRule type="cellIs" dxfId="200" priority="101" operator="equal">
+      <formula>$O$26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:E26">
+    <cfRule type="cellIs" dxfId="199" priority="100" operator="equal">
+      <formula>$O$26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="cellIs" dxfId="198" priority="99" operator="equal">
+      <formula>$O$25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:E25">
+    <cfRule type="cellIs" dxfId="197" priority="98" operator="equal">
+      <formula>$O$25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="cellIs" dxfId="196" priority="97" operator="equal">
+      <formula>$O$24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:E24">
+    <cfRule type="cellIs" dxfId="195" priority="96" operator="equal">
+      <formula>$O$24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="cellIs" dxfId="194" priority="95" operator="equal">
+      <formula>$O$16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:E16">
+    <cfRule type="cellIs" dxfId="193" priority="94" operator="equal">
+      <formula>$O$16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="cellIs" dxfId="192" priority="93" operator="equal">
+      <formula>$O$15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:E15">
+    <cfRule type="cellIs" dxfId="191" priority="92" operator="equal">
+      <formula>$O$15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="cellIs" dxfId="190" priority="91" operator="equal">
+      <formula>$O$14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:E14">
+    <cfRule type="cellIs" dxfId="189" priority="90" operator="equal">
+      <formula>$O$14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="cellIs" dxfId="188" priority="89" operator="equal">
+      <formula>$O$13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:E13">
+    <cfRule type="cellIs" dxfId="187" priority="88" operator="equal">
+      <formula>$O$13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="cellIs" dxfId="186" priority="87" operator="equal">
+      <formula>$O$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:E12">
+    <cfRule type="cellIs" dxfId="185" priority="86" operator="equal">
+      <formula>$O$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="cellIs" dxfId="184" priority="85" operator="equal">
+      <formula>$O$11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:E11">
+    <cfRule type="cellIs" dxfId="183" priority="84" operator="equal">
+      <formula>$O$11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="cellIs" dxfId="182" priority="83" operator="equal">
+      <formula>$O$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:E10">
+    <cfRule type="cellIs" dxfId="181" priority="82" operator="equal">
+      <formula>$O$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="cellIs" dxfId="180" priority="81" operator="equal">
+      <formula>$O$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:E9">
+    <cfRule type="cellIs" dxfId="179" priority="80" operator="equal">
+      <formula>$O$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="cellIs" dxfId="178" priority="79" operator="equal">
+      <formula>$O$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:E8">
+    <cfRule type="cellIs" dxfId="177" priority="78" operator="equal">
+      <formula>$O$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="cellIs" dxfId="176" priority="76" operator="equal">
+      <formula>$O$7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="175" priority="77" operator="equal">
+      <formula>$O$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:E7">
+    <cfRule type="cellIs" dxfId="174" priority="74" operator="equal">
+      <formula>$O$7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="173" priority="75" operator="equal">
+      <formula>$O$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="cellIs" dxfId="172" priority="73" operator="equal">
+      <formula>$O$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:E6">
+    <cfRule type="cellIs" dxfId="171" priority="72" operator="equal">
+      <formula>$O$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="cellIs" dxfId="170" priority="71" operator="equal">
+      <formula>$O$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:E5">
+    <cfRule type="cellIs" dxfId="169" priority="70" operator="equal">
+      <formula>$O$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:N3">
+    <cfRule type="cellIs" dxfId="168" priority="67" operator="equal">
+      <formula>$O$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:N4">
+    <cfRule type="cellIs" dxfId="167" priority="65" operator="equal">
+      <formula>$O$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:N5">
+    <cfRule type="cellIs" dxfId="166" priority="64" operator="equal">
+      <formula>$O$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:N6">
+    <cfRule type="cellIs" dxfId="165" priority="63" operator="equal">
+      <formula>$O$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:N7">
+    <cfRule type="cellIs" dxfId="164" priority="61" operator="equal">
+      <formula>$O$7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="163" priority="62" operator="equal">
+      <formula>$O$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:N8">
+    <cfRule type="cellIs" dxfId="162" priority="60" operator="equal">
+      <formula>$O$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:N9">
+    <cfRule type="cellIs" dxfId="161" priority="59" operator="equal">
+      <formula>$O$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:N10">
+    <cfRule type="cellIs" dxfId="160" priority="58" operator="equal">
+      <formula>$O$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11:N11">
+    <cfRule type="cellIs" dxfId="159" priority="57" operator="equal">
+      <formula>$O$11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:N12">
+    <cfRule type="cellIs" dxfId="158" priority="56" operator="equal">
+      <formula>$O$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:N13">
+    <cfRule type="cellIs" dxfId="157" priority="55" operator="equal">
+      <formula>$O$13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:N14">
+    <cfRule type="cellIs" dxfId="156" priority="54" operator="equal">
+      <formula>$O$14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:N15">
+    <cfRule type="cellIs" dxfId="155" priority="53" operator="equal">
+      <formula>$O$15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:N16">
+    <cfRule type="cellIs" dxfId="154" priority="52" operator="equal">
+      <formula>$O$16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:N17">
+    <cfRule type="cellIs" dxfId="153" priority="51" operator="equal">
+      <formula>$O$17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:N18">
+    <cfRule type="cellIs" dxfId="152" priority="50" operator="equal">
+      <formula>$O$18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19:N19">
+    <cfRule type="cellIs" dxfId="151" priority="49" operator="equal">
+      <formula>$O$19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:N20">
+    <cfRule type="cellIs" dxfId="150" priority="48" operator="equal">
+      <formula>$O$20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21:N21">
+    <cfRule type="cellIs" dxfId="149" priority="47" operator="equal">
+      <formula>$O$21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22:N22">
+    <cfRule type="cellIs" dxfId="148" priority="46" operator="equal">
+      <formula>$O$22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:N23">
+    <cfRule type="cellIs" dxfId="147" priority="45" operator="equal">
+      <formula>$O$23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24:N24">
+    <cfRule type="cellIs" dxfId="146" priority="44" operator="equal">
+      <formula>$O$24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25:N25">
+    <cfRule type="cellIs" dxfId="145" priority="43" operator="equal">
+      <formula>$O$25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26:N26">
+    <cfRule type="cellIs" dxfId="144" priority="42" operator="equal">
+      <formula>$O$26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27:N27">
+    <cfRule type="cellIs" dxfId="143" priority="41" operator="equal">
+      <formula>$O$27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29:N29">
+    <cfRule type="cellIs" dxfId="142" priority="40" operator="equal">
+      <formula>$O$29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30:N30">
+    <cfRule type="cellIs" dxfId="141" priority="39" operator="equal">
+      <formula>$O$30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31:N31">
+    <cfRule type="cellIs" dxfId="140" priority="38" operator="equal">
+      <formula>$O$31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:N32">
+    <cfRule type="cellIs" dxfId="139" priority="37" operator="equal">
+      <formula>$O$32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33:N33">
+    <cfRule type="cellIs" dxfId="138" priority="36" operator="equal">
+      <formula>$O$33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34:N34">
+    <cfRule type="cellIs" dxfId="137" priority="35" operator="equal">
+      <formula>$O$34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35:N35">
+    <cfRule type="cellIs" dxfId="136" priority="34" operator="equal">
+      <formula>$O$35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36:N36">
+    <cfRule type="cellIs" dxfId="135" priority="33" operator="equal">
+      <formula>$O$36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G37:N37">
+    <cfRule type="cellIs" dxfId="134" priority="32" operator="equal">
+      <formula>$O$37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T30">
+    <cfRule type="cellIs" dxfId="133" priority="31" operator="equal">
+      <formula>$O$28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T19">
+    <cfRule type="cellIs" dxfId="132" priority="30" operator="equal">
+      <formula>$O$17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T20">
+    <cfRule type="cellIs" dxfId="131" priority="29" operator="equal">
+      <formula>$O$18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T21">
+    <cfRule type="cellIs" dxfId="130" priority="28" operator="equal">
+      <formula>$O$19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T22">
+    <cfRule type="cellIs" dxfId="129" priority="27" operator="equal">
+      <formula>$O$20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T23">
+    <cfRule type="cellIs" dxfId="128" priority="26" operator="equal">
+      <formula>$O$21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T24">
+    <cfRule type="cellIs" dxfId="127" priority="25" operator="equal">
+      <formula>$O$22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T25">
+    <cfRule type="cellIs" dxfId="126" priority="24" operator="equal">
+      <formula>$O$23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T26">
+    <cfRule type="cellIs" dxfId="125" priority="23" operator="equal">
+      <formula>$O$24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T27">
+    <cfRule type="cellIs" dxfId="124" priority="22" operator="equal">
+      <formula>$O$25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T28">
+    <cfRule type="cellIs" dxfId="123" priority="21" operator="equal">
+      <formula>$O$26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T29">
+    <cfRule type="cellIs" dxfId="122" priority="20" operator="equal">
+      <formula>$O$27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T31">
+    <cfRule type="cellIs" dxfId="121" priority="19" operator="equal">
+      <formula>$O$29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T32">
+    <cfRule type="cellIs" dxfId="120" priority="18" operator="equal">
+      <formula>$O$30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T33">
+    <cfRule type="cellIs" dxfId="119" priority="17" operator="equal">
+      <formula>$O$31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T34">
+    <cfRule type="cellIs" dxfId="118" priority="16" operator="equal">
+      <formula>$O$32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T35">
+    <cfRule type="cellIs" dxfId="117" priority="15" operator="equal">
+      <formula>$O$33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T36">
+    <cfRule type="cellIs" dxfId="116" priority="14" operator="equal">
+      <formula>$O$34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T37">
+    <cfRule type="cellIs" dxfId="115" priority="13" operator="equal">
+      <formula>$O$35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T38">
+    <cfRule type="cellIs" dxfId="114" priority="12" operator="equal">
+      <formula>$O$36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T39">
+    <cfRule type="cellIs" dxfId="113" priority="11" operator="equal">
+      <formula>$O$37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U22">
+    <cfRule type="cellIs" dxfId="112" priority="10" operator="equal">
+      <formula>$O$28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U23">
+    <cfRule type="cellIs" dxfId="111" priority="9" operator="equal">
+      <formula>$O$29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U24">
+    <cfRule type="cellIs" dxfId="110" priority="8" operator="equal">
+      <formula>$O$30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U25">
+    <cfRule type="cellIs" dxfId="109" priority="7" operator="equal">
+      <formula>$O$31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U26">
+    <cfRule type="cellIs" dxfId="108" priority="6" operator="equal">
+      <formula>$O$32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U27">
+    <cfRule type="cellIs" dxfId="107" priority="5" operator="equal">
+      <formula>$O$33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U28">
+    <cfRule type="cellIs" dxfId="106" priority="4" operator="equal">
+      <formula>$O$34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U29">
+    <cfRule type="cellIs" dxfId="105" priority="3" operator="equal">
+      <formula>$O$35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U30">
+    <cfRule type="cellIs" dxfId="104" priority="2" operator="equal">
+      <formula>$O$36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U31">
+    <cfRule type="cellIs" dxfId="103" priority="1" operator="equal">
+      <formula>$O$37</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6630,1778 +6767,1926 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD723B9-01A1-48E4-8446-9816D42E97F1}">
-  <dimension ref="A1:S38"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="30" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="27" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
-    <col min="8" max="12" width="16.28515625" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="13" width="16.28515625" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="37"/>
       <c r="C1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10"/>
+      <c r="N1" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="26">
         <v>1</v>
       </c>
       <c r="C2" s="12">
-        <f>IF(DatasetA!C2=DatasetA!$M2,1,0)</f>
+        <f>IF(DatasetA!C3=DatasetA!$O3,1,0)</f>
         <v>1</v>
       </c>
       <c r="D2" s="12">
-        <f>IF(DatasetA!D2=DatasetA!$M2,1,0)</f>
+        <f>IF(DatasetA!E3=DatasetA!$O3,1,0)</f>
         <v>1</v>
       </c>
       <c r="E2" s="12">
-        <f>IF(DatasetA!E2=DatasetA!$M2,1,0)</f>
+        <f>IF(DatasetA!G3=DatasetA!$O3,1,0)</f>
         <v>1</v>
       </c>
       <c r="F2" s="12">
-        <f>IF(DatasetA!F2=DatasetA!$M2,1,0)</f>
+        <f>IF(DatasetA!G3=DatasetA!$O3,1,0)</f>
         <v>1</v>
       </c>
       <c r="G2" s="12">
-        <f>IF(DatasetA!G2=DatasetA!$M2,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H2" s="12"/>
+        <f>IF(DatasetA!H3=DatasetA!$O3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="12">
+        <f>IF(DatasetA!I3=DatasetA!$O3,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
-      <c r="M2" s="14">
-        <f>MAX(C2:F2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="M2" s="12"/>
+      <c r="N2" s="14">
+        <f>MAX(C2:H2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="26">
         <v>2</v>
       </c>
       <c r="C3" s="12">
-        <f>IF(DatasetA!C3=DatasetA!$M3,1,0)</f>
+        <f>IF(DatasetA!C4=DatasetA!$O4,1,0)</f>
         <v>1</v>
       </c>
       <c r="D3" s="12">
-        <f>IF(DatasetA!D3=DatasetA!$M3,1,0)</f>
+        <f>IF(DatasetA!E4=DatasetA!$O4,1,0)</f>
         <v>1</v>
       </c>
       <c r="E3" s="12">
-        <f>IF(DatasetA!E3=DatasetA!$M3,1,0)</f>
+        <f>IF(DatasetA!G4=DatasetA!$O4,1,0)</f>
         <v>1</v>
       </c>
       <c r="F3" s="12">
-        <f>IF(DatasetA!F3=DatasetA!$M3,1,0)</f>
+        <f>IF(DatasetA!G4=DatasetA!$O4,1,0)</f>
         <v>1</v>
       </c>
       <c r="G3" s="12">
-        <f>IF(DatasetA!G3=DatasetA!$M3,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H3" s="12"/>
+        <f>IF(DatasetA!H4=DatasetA!$O4,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="12">
+        <f>IF(DatasetA!I4=DatasetA!$O4,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
-      <c r="M3" s="14">
-        <f t="shared" ref="M3:M36" si="0">MAX(C3:F3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="M3" s="12"/>
+      <c r="N3" s="14">
+        <f t="shared" ref="N3:N36" si="0">MAX(C3:H3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="26">
         <v>3</v>
       </c>
       <c r="C4" s="12">
-        <f>IF(DatasetA!C4=DatasetA!$M4,1,0)</f>
+        <f>IF(DatasetA!C5=DatasetA!$O5,1,0)</f>
         <v>1</v>
       </c>
       <c r="D4" s="12">
-        <f>IF(DatasetA!D4=DatasetA!$M4,1,0)</f>
-        <v>1</v>
+        <f>IF(DatasetA!E5=DatasetA!$O5,1,0)</f>
+        <v>0</v>
       </c>
       <c r="E4" s="12">
-        <f>IF(DatasetA!E4=DatasetA!$M4,1,0)</f>
+        <f>IF(DatasetA!G5=DatasetA!$O5,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="12">
+        <f>IF(DatasetA!G5=DatasetA!$O5,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="12">
+        <f>IF(DatasetA!H5=DatasetA!$O5,1,0)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="12">
-        <f>IF(DatasetA!F4=DatasetA!$M4,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G4" s="12">
-        <f>IF(DatasetA!G4=DatasetA!$M4,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H4" s="12"/>
+      <c r="H4" s="12">
+        <f>IF(DatasetA!I5=DatasetA!$O5,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
-      <c r="M4" s="14">
+      <c r="M4" s="12"/>
+      <c r="N4" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="26">
         <v>4</v>
       </c>
       <c r="C5" s="12">
-        <f>IF(DatasetA!C5=DatasetA!$M5,1,0)</f>
+        <f>IF(DatasetA!C6=DatasetA!$O6,1,0)</f>
         <v>1</v>
       </c>
       <c r="D5" s="12">
-        <f>IF(DatasetA!D5=DatasetA!$M5,1,0)</f>
-        <v>1</v>
+        <f>IF(DatasetA!E6=DatasetA!$O6,1,0)</f>
+        <v>0</v>
       </c>
       <c r="E5" s="12">
-        <f>IF(DatasetA!E5=DatasetA!$M5,1,0)</f>
+        <f>IF(DatasetA!G6=DatasetA!$O6,1,0)</f>
         <v>1</v>
       </c>
       <c r="F5" s="12">
-        <f>IF(DatasetA!F5=DatasetA!$M5,1,0)</f>
+        <f>IF(DatasetA!G6=DatasetA!$O6,1,0)</f>
         <v>1</v>
       </c>
       <c r="G5" s="12">
-        <f>IF(DatasetA!G5=DatasetA!$M5,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H5" s="12"/>
+        <f>IF(DatasetA!H6=DatasetA!$O6,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="12">
+        <f>IF(DatasetA!I6=DatasetA!$O6,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
-      <c r="M5" s="14">
+      <c r="M5" s="12"/>
+      <c r="N5" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="26">
         <v>5</v>
       </c>
       <c r="C6" s="12">
-        <f>IF(DatasetA!C6=DatasetA!$M6,1,0)</f>
+        <f>IF(DatasetA!C7=DatasetA!$O7,1,0)</f>
         <v>1</v>
       </c>
       <c r="D6" s="12">
-        <f>IF(DatasetA!D6=DatasetA!$M6,1,0)</f>
+        <f>IF(DatasetA!E7=DatasetA!$O7,1,0)</f>
         <v>1</v>
       </c>
       <c r="E6" s="12">
-        <f>IF(DatasetA!E6=DatasetA!$M6,1,0)</f>
+        <f>IF(DatasetA!G7=DatasetA!$O7,1,0)</f>
         <v>1</v>
       </c>
       <c r="F6" s="12">
-        <f>IF(DatasetA!F6=DatasetA!$M6,1,0)</f>
+        <f>IF(DatasetA!G7=DatasetA!$O7,1,0)</f>
         <v>1</v>
       </c>
       <c r="G6" s="12">
-        <f>IF(DatasetA!G6=DatasetA!$M6,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H6" s="12"/>
+        <f>IF(DatasetA!H7=DatasetA!$O7,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H6" s="12">
+        <f>IF(DatasetA!I7=DatasetA!$O7,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
-      <c r="M6" s="14">
+      <c r="M6" s="12"/>
+      <c r="N6" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="26">
         <v>6</v>
       </c>
       <c r="C7" s="12">
-        <f>IF(DatasetA!C7=DatasetA!$M7,1,0)</f>
+        <f>IF(DatasetA!C8=DatasetA!$O8,1,0)</f>
         <v>1</v>
       </c>
       <c r="D7" s="12">
-        <f>IF(DatasetA!D7=DatasetA!$M7,1,0)</f>
+        <f>IF(DatasetA!E8=DatasetA!$O8,1,0)</f>
         <v>1</v>
       </c>
       <c r="E7" s="12">
-        <f>IF(DatasetA!E7=DatasetA!$M7,1,0)</f>
+        <f>IF(DatasetA!G8=DatasetA!$O8,1,0)</f>
         <v>1</v>
       </c>
       <c r="F7" s="12">
-        <f>IF(DatasetA!F7=DatasetA!$M7,1,0)</f>
+        <f>IF(DatasetA!G8=DatasetA!$O8,1,0)</f>
         <v>1</v>
       </c>
       <c r="G7" s="12">
-        <f>IF(DatasetA!G7=DatasetA!$M7,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H7" s="12"/>
+        <f>IF(DatasetA!H8=DatasetA!$O8,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="12">
+        <f>IF(DatasetA!I8=DatasetA!$O8,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
-      <c r="M7" s="14">
+      <c r="M7" s="12"/>
+      <c r="N7" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="26">
         <v>7</v>
       </c>
       <c r="C8" s="12">
-        <f>IF(DatasetA!C8=DatasetA!$M8,1,0)</f>
+        <f>IF(DatasetA!C9=DatasetA!$O9,1,0)</f>
         <v>1</v>
       </c>
       <c r="D8" s="12">
-        <f>IF(DatasetA!D8=DatasetA!$M8,1,0)</f>
+        <f>IF(DatasetA!E9=DatasetA!$O9,1,0)</f>
         <v>1</v>
       </c>
       <c r="E8" s="12">
-        <f>IF(DatasetA!E8=DatasetA!$M8,1,0)</f>
+        <f>IF(DatasetA!G9=DatasetA!$O9,1,0)</f>
         <v>1</v>
       </c>
       <c r="F8" s="12">
-        <f>IF(DatasetA!F8=DatasetA!$M8,1,0)</f>
+        <f>IF(DatasetA!G9=DatasetA!$O9,1,0)</f>
         <v>1</v>
       </c>
       <c r="G8" s="12">
-        <f>IF(DatasetA!G8=DatasetA!$M8,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H8" s="12"/>
+        <f>IF(DatasetA!H9=DatasetA!$O9,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H8" s="12">
+        <f>IF(DatasetA!I9=DatasetA!$O9,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
-      <c r="M8" s="14">
+      <c r="M8" s="12"/>
+      <c r="N8" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="26">
         <v>8</v>
       </c>
       <c r="C9" s="12">
-        <f>IF(DatasetA!C9=DatasetA!$M9,1,0)</f>
+        <f>IF(DatasetA!C10=DatasetA!$O10,1,0)</f>
         <v>1</v>
       </c>
       <c r="D9" s="12">
-        <f>IF(DatasetA!D9=DatasetA!$M9,1,0)</f>
+        <f>IF(DatasetA!E10=DatasetA!$O10,1,0)</f>
         <v>1</v>
       </c>
       <c r="E9" s="12">
-        <f>IF(DatasetA!E9=DatasetA!$M9,1,0)</f>
+        <f>IF(DatasetA!G10=DatasetA!$O10,1,0)</f>
         <v>1</v>
       </c>
       <c r="F9" s="12">
-        <f>IF(DatasetA!F9=DatasetA!$M9,1,0)</f>
+        <f>IF(DatasetA!G10=DatasetA!$O10,1,0)</f>
         <v>1</v>
       </c>
       <c r="G9" s="12">
-        <f>IF(DatasetA!G9=DatasetA!$M9,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H9" s="12"/>
+        <f>IF(DatasetA!H10=DatasetA!$O10,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H9" s="12">
+        <f>IF(DatasetA!I10=DatasetA!$O10,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
-      <c r="M9" s="14">
+      <c r="M9" s="12"/>
+      <c r="N9" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="26">
         <v>9</v>
       </c>
       <c r="C10" s="12">
-        <f>IF(DatasetA!C10=DatasetA!$M10,1,0)</f>
+        <f>IF(DatasetA!C11=DatasetA!$O11,1,0)</f>
         <v>1</v>
       </c>
       <c r="D10" s="12">
-        <f>IF(DatasetA!D10=DatasetA!$M10,1,0)</f>
+        <f>IF(DatasetA!E11=DatasetA!$O11,1,0)</f>
         <v>1</v>
       </c>
       <c r="E10" s="12">
-        <f>IF(DatasetA!E10=DatasetA!$M10,1,0)</f>
+        <f>IF(DatasetA!G11=DatasetA!$O11,1,0)</f>
         <v>1</v>
       </c>
       <c r="F10" s="12">
-        <f>IF(DatasetA!F10=DatasetA!$M10,1,0)</f>
+        <f>IF(DatasetA!G11=DatasetA!$O11,1,0)</f>
         <v>1</v>
       </c>
       <c r="G10" s="12">
-        <f>IF(DatasetA!G10=DatasetA!$M10,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H10" s="12"/>
+        <f>IF(DatasetA!H11=DatasetA!$O11,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H10" s="12">
+        <f>IF(DatasetA!I11=DatasetA!$O11,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
-      <c r="M10" s="14">
+      <c r="M10" s="12"/>
+      <c r="N10" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="26">
         <v>10</v>
       </c>
       <c r="C11" s="12">
-        <f>IF(DatasetA!C11=DatasetA!$M11,1,0)</f>
+        <f>IF(DatasetA!C12=DatasetA!$O12,1,0)</f>
         <v>1</v>
       </c>
       <c r="D11" s="12">
-        <f>IF(DatasetA!D11=DatasetA!$M11,1,0)</f>
+        <f>IF(DatasetA!E12=DatasetA!$O12,1,0)</f>
         <v>1</v>
       </c>
       <c r="E11" s="12">
-        <f>IF(DatasetA!E11=DatasetA!$M11,1,0)</f>
+        <f>IF(DatasetA!G12=DatasetA!$O12,1,0)</f>
         <v>1</v>
       </c>
       <c r="F11" s="12">
-        <f>IF(DatasetA!F11=DatasetA!$M11,1,0)</f>
+        <f>IF(DatasetA!G12=DatasetA!$O12,1,0)</f>
         <v>1</v>
       </c>
       <c r="G11" s="12">
-        <f>IF(DatasetA!G11=DatasetA!$M11,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H11" s="12"/>
+        <f>IF(DatasetA!H12=DatasetA!$O12,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H11" s="12">
+        <f>IF(DatasetA!I12=DatasetA!$O12,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
-      <c r="M11" s="14">
+      <c r="M11" s="12"/>
+      <c r="N11" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="26">
         <v>11</v>
       </c>
       <c r="C12" s="12">
-        <f>IF(DatasetA!C12=DatasetA!$M12,1,0)</f>
+        <f>IF(DatasetA!C13=DatasetA!$O13,1,0)</f>
         <v>1</v>
       </c>
       <c r="D12" s="12">
-        <f>IF(DatasetA!D12=DatasetA!$M12,1,0)</f>
+        <f>IF(DatasetA!E13=DatasetA!$O13,1,0)</f>
         <v>1</v>
       </c>
       <c r="E12" s="12">
-        <f>IF(DatasetA!E12=DatasetA!$M12,1,0)</f>
+        <f>IF(DatasetA!G13=DatasetA!$O13,1,0)</f>
         <v>1</v>
       </c>
       <c r="F12" s="12">
-        <f>IF(DatasetA!F12=DatasetA!$M12,1,0)</f>
+        <f>IF(DatasetA!G13=DatasetA!$O13,1,0)</f>
         <v>1</v>
       </c>
       <c r="G12" s="12">
-        <f>IF(DatasetA!G12=DatasetA!$M12,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H12" s="12"/>
+        <f>IF(DatasetA!H13=DatasetA!$O13,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H12" s="12">
+        <f>IF(DatasetA!I13=DatasetA!$O13,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
-      <c r="M12" s="14">
+      <c r="M12" s="12"/>
+      <c r="N12" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="26">
         <v>12</v>
       </c>
       <c r="C13" s="12">
-        <f>IF(DatasetA!C13=DatasetA!$M13,1,0)</f>
+        <f>IF(DatasetA!C14=DatasetA!$O14,1,0)</f>
         <v>1</v>
       </c>
       <c r="D13" s="12">
-        <f>IF(DatasetA!D13=DatasetA!$M13,1,0)</f>
-        <v>1</v>
+        <f>IF(DatasetA!E14=DatasetA!$O14,1,0)</f>
+        <v>0</v>
       </c>
       <c r="E13" s="12">
-        <f>IF(DatasetA!E13=DatasetA!$M13,1,0)</f>
+        <f>IF(DatasetA!G14=DatasetA!$O14,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="12">
+        <f>IF(DatasetA!G14=DatasetA!$O14,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="12">
+        <f>IF(DatasetA!H14=DatasetA!$O14,1,0)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="12">
-        <f>IF(DatasetA!F13=DatasetA!$M13,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G13" s="12">
-        <f>IF(DatasetA!G13=DatasetA!$M13,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H13" s="12"/>
+      <c r="H13" s="12">
+        <f>IF(DatasetA!I14=DatasetA!$O14,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
-      <c r="M13" s="14">
+      <c r="M13" s="12"/>
+      <c r="N13" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="26">
         <v>13</v>
       </c>
       <c r="C14" s="12">
-        <f>IF(DatasetA!C14=DatasetA!$M14,1,0)</f>
+        <f>IF(DatasetA!C15=DatasetA!$O15,1,0)</f>
         <v>1</v>
       </c>
       <c r="D14" s="12">
-        <f>IF(DatasetA!D14=DatasetA!$M14,1,0)</f>
-        <v>1</v>
+        <f>IF(DatasetA!E15=DatasetA!$O15,1,0)</f>
+        <v>0</v>
       </c>
       <c r="E14" s="12">
-        <f>IF(DatasetA!E14=DatasetA!$M14,1,0)</f>
+        <f>IF(DatasetA!G15=DatasetA!$O15,1,0)</f>
         <v>1</v>
       </c>
       <c r="F14" s="12">
-        <f>IF(DatasetA!F14=DatasetA!$M14,1,0)</f>
+        <f>IF(DatasetA!G15=DatasetA!$O15,1,0)</f>
         <v>1</v>
       </c>
       <c r="G14" s="12">
-        <f>IF(DatasetA!G14=DatasetA!$M14,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H14" s="12"/>
+        <f>IF(DatasetA!H15=DatasetA!$O15,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H14" s="12">
+        <f>IF(DatasetA!I15=DatasetA!$O15,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
-      <c r="M14" s="14">
+      <c r="M14" s="12"/>
+      <c r="N14" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="26">
         <v>14</v>
       </c>
       <c r="C15" s="12">
-        <f>IF(DatasetA!C15=DatasetA!$M15,1,0)</f>
+        <f>IF(DatasetA!C16=DatasetA!$O16,1,0)</f>
         <v>0</v>
       </c>
       <c r="D15" s="12">
-        <f>IF(DatasetA!D15=DatasetA!$M15,1,0)</f>
+        <f>IF(DatasetA!E16=DatasetA!$O16,1,0)</f>
         <v>0</v>
       </c>
       <c r="E15" s="12">
-        <f>IF(DatasetA!E15=DatasetA!$M15,1,0)</f>
-        <v>1</v>
+        <f>IF(DatasetA!G16=DatasetA!$O16,1,0)</f>
+        <v>0</v>
       </c>
       <c r="F15" s="12">
-        <f>IF(DatasetA!F15=DatasetA!$M15,1,0)</f>
+        <f>IF(DatasetA!G16=DatasetA!$O16,1,0)</f>
         <v>0</v>
       </c>
       <c r="G15" s="12">
-        <f>IF(DatasetA!G15=DatasetA!$M15,1,0)</f>
+        <f>IF(DatasetA!H16=DatasetA!$O16,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H15" s="12">
+        <f>IF(DatasetA!I16=DatasetA!$O16,1,0)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
-      <c r="M15" s="14">
+      <c r="M15" s="12"/>
+      <c r="N15" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="26">
         <v>15</v>
       </c>
       <c r="C16" s="12">
-        <f>IF(DatasetA!C16=DatasetA!$M16,1,0)</f>
+        <f>IF(DatasetA!C17=DatasetA!$O17,1,0)</f>
         <v>0</v>
       </c>
       <c r="D16" s="12">
-        <f>IF(DatasetA!D16=DatasetA!$M16,1,0)</f>
-        <v>1</v>
+        <f>IF(DatasetA!E17=DatasetA!$O17,1,0)</f>
+        <v>0</v>
       </c>
       <c r="E16" s="12">
-        <f>IF(DatasetA!E16=DatasetA!$M16,1,0)</f>
+        <f>IF(DatasetA!G17=DatasetA!$O17,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F16" s="12">
+        <f>IF(DatasetA!G17=DatasetA!$O17,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="12">
+        <f>IF(DatasetA!H17=DatasetA!$O17,1,0)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="12">
-        <f>IF(DatasetA!F16=DatasetA!$M16,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G16" s="12">
-        <f>IF(DatasetA!G16=DatasetA!$M16,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="12"/>
+      <c r="H16" s="12">
+        <f>IF(DatasetA!I17=DatasetA!$O17,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
-      <c r="M16" s="14">
+      <c r="M16" s="12"/>
+      <c r="N16" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B17" s="26">
         <v>16</v>
       </c>
       <c r="C17" s="12">
-        <f>IF(DatasetA!C17=DatasetA!$M17,1,0)</f>
+        <f>IF(DatasetA!C18=DatasetA!$O18,1,0)</f>
         <v>0</v>
       </c>
       <c r="D17" s="12">
-        <f>IF(DatasetA!D17=DatasetA!$M17,1,0)</f>
-        <v>1</v>
+        <f>IF(DatasetA!E18=DatasetA!$O18,1,0)</f>
+        <v>0</v>
       </c>
       <c r="E17" s="12">
-        <f>IF(DatasetA!E17=DatasetA!$M17,1,0)</f>
+        <f>IF(DatasetA!G18=DatasetA!$O18,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="12">
+        <f>IF(DatasetA!G18=DatasetA!$O18,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G17" s="12">
+        <f>IF(DatasetA!H18=DatasetA!$O18,1,0)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="12">
-        <f>IF(DatasetA!F17=DatasetA!$M17,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G17" s="12">
-        <f>IF(DatasetA!G17=DatasetA!$M17,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H17" s="12"/>
+      <c r="H17" s="12">
+        <f>IF(DatasetA!I18=DatasetA!$O18,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
-      <c r="M17" s="14">
+      <c r="M17" s="12"/>
+      <c r="N17" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="26">
         <v>17</v>
       </c>
       <c r="C18" s="12">
-        <f>IF(DatasetA!C18=DatasetA!$M18,1,0)</f>
+        <f>IF(DatasetA!C19=DatasetA!$O19,1,0)</f>
         <v>0</v>
       </c>
       <c r="D18" s="12">
-        <f>IF(DatasetA!D18=DatasetA!$M18,1,0)</f>
+        <f>IF(DatasetA!E19=DatasetA!$O19,1,0)</f>
         <v>1</v>
       </c>
       <c r="E18" s="12">
-        <f>IF(DatasetA!E18=DatasetA!$M18,1,0)</f>
+        <f>IF(DatasetA!G19=DatasetA!$O19,1,0)</f>
         <v>1</v>
       </c>
       <c r="F18" s="12">
-        <f>IF(DatasetA!F18=DatasetA!$M18,1,0)</f>
+        <f>IF(DatasetA!G19=DatasetA!$O19,1,0)</f>
         <v>1</v>
       </c>
       <c r="G18" s="12">
-        <f>IF(DatasetA!G18=DatasetA!$M18,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H18" s="12"/>
+        <f>IF(DatasetA!H19=DatasetA!$O19,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H18" s="12">
+        <f>IF(DatasetA!I19=DatasetA!$O19,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
-      <c r="M18" s="14">
+      <c r="M18" s="12"/>
+      <c r="N18" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R18" s="21"/>
-    </row>
-    <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
+      <c r="S18" s="20"/>
+    </row>
+    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="29">
+      <c r="B19" s="26">
         <v>18</v>
       </c>
       <c r="C19" s="12">
-        <f>IF(DatasetA!C19=DatasetA!$M19,1,0)</f>
+        <f>IF(DatasetA!C20=DatasetA!$O20,1,0)</f>
         <v>0</v>
       </c>
       <c r="D19" s="12">
-        <f>IF(DatasetA!D19=DatasetA!$M19,1,0)</f>
-        <v>1</v>
+        <f>IF(DatasetA!E20=DatasetA!$O20,1,0)</f>
+        <v>0</v>
       </c>
       <c r="E19" s="12">
-        <f>IF(DatasetA!E19=DatasetA!$M19,1,0)</f>
+        <f>IF(DatasetA!G20=DatasetA!$O20,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F19" s="12">
+        <f>IF(DatasetA!G20=DatasetA!$O20,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G19" s="12">
+        <f>IF(DatasetA!H20=DatasetA!$O20,1,0)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="12">
-        <f>IF(DatasetA!F19=DatasetA!$M19,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G19" s="12">
-        <f>IF(DatasetA!G19=DatasetA!$M19,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H19" s="12"/>
+      <c r="H19" s="12">
+        <f>IF(DatasetA!I20=DatasetA!$O20,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
-      <c r="M19" s="14">
+      <c r="M19" s="12"/>
+      <c r="N19" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R19" s="21"/>
-    </row>
-    <row r="20" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+      <c r="S19" s="20"/>
+    </row>
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="29">
+      <c r="B20" s="26">
         <v>19</v>
       </c>
       <c r="C20" s="12">
-        <f>IF(DatasetA!C20=DatasetA!$M20,1,0)</f>
+        <f>IF(DatasetA!C21=DatasetA!$O21,1,0)</f>
         <v>0</v>
       </c>
       <c r="D20" s="12">
-        <f>IF(DatasetA!D20=DatasetA!$M20,1,0)</f>
+        <f>IF(DatasetA!E21=DatasetA!$O21,1,0)</f>
         <v>1</v>
       </c>
       <c r="E20" s="12">
-        <f>IF(DatasetA!E20=DatasetA!$M20,1,0)</f>
+        <f>IF(DatasetA!G21=DatasetA!$O21,1,0)</f>
         <v>1</v>
       </c>
       <c r="F20" s="12">
-        <f>IF(DatasetA!F20=DatasetA!$M20,1,0)</f>
+        <f>IF(DatasetA!G21=DatasetA!$O21,1,0)</f>
         <v>1</v>
       </c>
       <c r="G20" s="12">
-        <f>IF(DatasetA!G20=DatasetA!$M20,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H20" s="12"/>
+        <f>IF(DatasetA!H21=DatasetA!$O21,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H20" s="12">
+        <f>IF(DatasetA!I21=DatasetA!$O21,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
-      <c r="M20" s="14">
+      <c r="M20" s="12"/>
+      <c r="N20" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R20" s="21"/>
-    </row>
-    <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
+      <c r="S20" s="20"/>
+    </row>
+    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="29">
+      <c r="B21" s="26">
         <v>20</v>
       </c>
       <c r="C21" s="12">
-        <f>IF(DatasetA!C21=DatasetA!$M21,1,0)</f>
+        <f>IF(DatasetA!C22=DatasetA!$O22,1,0)</f>
         <v>1</v>
       </c>
       <c r="D21" s="12">
-        <f>IF(DatasetA!D21=DatasetA!$M21,1,0)</f>
-        <v>1</v>
+        <f>IF(DatasetA!E22=DatasetA!$O22,1,0)</f>
+        <v>0</v>
       </c>
       <c r="E21" s="12">
-        <f>IF(DatasetA!E21=DatasetA!$M21,1,0)</f>
+        <f>IF(DatasetA!G22=DatasetA!$O22,1,0)</f>
         <v>1</v>
       </c>
       <c r="F21" s="12">
-        <f>IF(DatasetA!F21=DatasetA!$M21,1,0)</f>
+        <f>IF(DatasetA!G22=DatasetA!$O22,1,0)</f>
         <v>1</v>
       </c>
       <c r="G21" s="12">
-        <f>IF(DatasetA!G21=DatasetA!$M21,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H21" s="12"/>
+        <f>IF(DatasetA!H22=DatasetA!$O22,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H21" s="12">
+        <f>IF(DatasetA!I22=DatasetA!$O22,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
-      <c r="M21" s="14">
+      <c r="M21" s="12"/>
+      <c r="N21" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-    </row>
-    <row r="22" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+    </row>
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="29">
+      <c r="B22" s="26">
         <v>21</v>
       </c>
       <c r="C22" s="12">
-        <f>IF(DatasetA!C22=DatasetA!$M22,1,0)</f>
+        <f>IF(DatasetA!C23=DatasetA!$O23,1,0)</f>
         <v>1</v>
       </c>
       <c r="D22" s="12">
-        <f>IF(DatasetA!D22=DatasetA!$M22,1,0)</f>
-        <v>1</v>
+        <f>IF(DatasetA!E23=DatasetA!$O23,1,0)</f>
+        <v>0</v>
       </c>
       <c r="E22" s="12">
-        <f>IF(DatasetA!E22=DatasetA!$M22,1,0)</f>
+        <f>IF(DatasetA!G23=DatasetA!$O23,1,0)</f>
         <v>1</v>
       </c>
       <c r="F22" s="12">
-        <f>IF(DatasetA!F22=DatasetA!$M22,1,0)</f>
+        <f>IF(DatasetA!G23=DatasetA!$O23,1,0)</f>
         <v>1</v>
       </c>
       <c r="G22" s="12">
-        <f>IF(DatasetA!G22=DatasetA!$M22,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H22" s="12"/>
+        <f>IF(DatasetA!H23=DatasetA!$O23,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H22" s="12">
+        <f>IF(DatasetA!I23=DatasetA!$O23,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
-      <c r="M22" s="14">
+      <c r="M22" s="12"/>
+      <c r="N22" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-    </row>
-    <row r="23" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+    </row>
+    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="29">
+      <c r="B23" s="26">
         <v>22</v>
       </c>
       <c r="C23" s="12">
-        <f>IF(DatasetA!C23=DatasetA!$M23,1,0)</f>
+        <f>IF(DatasetA!C24=DatasetA!$O24,1,0)</f>
         <v>1</v>
       </c>
       <c r="D23" s="12">
-        <f>IF(DatasetA!D23=DatasetA!$M23,1,0)</f>
+        <f>IF(DatasetA!E24=DatasetA!$O24,1,0)</f>
         <v>1</v>
       </c>
       <c r="E23" s="12">
-        <f>IF(DatasetA!E23=DatasetA!$M23,1,0)</f>
+        <f>IF(DatasetA!G24=DatasetA!$O24,1,0)</f>
         <v>1</v>
       </c>
       <c r="F23" s="12">
-        <f>IF(DatasetA!F23=DatasetA!$M23,1,0)</f>
+        <f>IF(DatasetA!G24=DatasetA!$O24,1,0)</f>
         <v>1</v>
       </c>
       <c r="G23" s="12">
-        <f>IF(DatasetA!G23=DatasetA!$M23,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H23" s="12"/>
+        <f>IF(DatasetA!H24=DatasetA!$O24,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H23" s="12">
+        <f>IF(DatasetA!I24=DatasetA!$O24,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
-      <c r="M23" s="14">
+      <c r="M23" s="12"/>
+      <c r="N23" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-    </row>
-    <row r="24" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+    </row>
+    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="29">
+      <c r="B24" s="26">
         <v>23</v>
       </c>
       <c r="C24" s="12">
-        <f>IF(DatasetA!C24=DatasetA!$M24,1,0)</f>
+        <f>IF(DatasetA!C25=DatasetA!$O25,1,0)</f>
         <v>1</v>
       </c>
       <c r="D24" s="12">
-        <f>IF(DatasetA!D24=DatasetA!$M24,1,0)</f>
+        <f>IF(DatasetA!E25=DatasetA!$O25,1,0)</f>
         <v>1</v>
       </c>
       <c r="E24" s="12">
-        <f>IF(DatasetA!E24=DatasetA!$M24,1,0)</f>
+        <f>IF(DatasetA!G25=DatasetA!$O25,1,0)</f>
         <v>1</v>
       </c>
       <c r="F24" s="12">
-        <f>IF(DatasetA!F24=DatasetA!$M24,1,0)</f>
+        <f>IF(DatasetA!G25=DatasetA!$O25,1,0)</f>
         <v>1</v>
       </c>
       <c r="G24" s="12">
-        <f>IF(DatasetA!G24=DatasetA!$M24,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H24" s="12"/>
+        <f>IF(DatasetA!H25=DatasetA!$O25,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H24" s="12">
+        <f>IF(DatasetA!I25=DatasetA!$O25,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
-      <c r="M24" s="14">
+      <c r="M24" s="12"/>
+      <c r="N24" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-    </row>
-    <row r="25" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+    </row>
+    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="29">
+      <c r="B25" s="26">
         <v>24</v>
       </c>
       <c r="C25" s="12">
-        <f>IF(DatasetA!C25=DatasetA!$M25,1,0)</f>
+        <f>IF(DatasetA!C26=DatasetA!$O26,1,0)</f>
         <v>1</v>
       </c>
       <c r="D25" s="12">
-        <f>IF(DatasetA!D25=DatasetA!$M25,1,0)</f>
+        <f>IF(DatasetA!E26=DatasetA!$O26,1,0)</f>
         <v>1</v>
       </c>
       <c r="E25" s="12">
-        <f>IF(DatasetA!E25=DatasetA!$M25,1,0)</f>
+        <f>IF(DatasetA!G26=DatasetA!$O26,1,0)</f>
         <v>1</v>
       </c>
       <c r="F25" s="12">
-        <f>IF(DatasetA!F25=DatasetA!$M25,1,0)</f>
+        <f>IF(DatasetA!G26=DatasetA!$O26,1,0)</f>
         <v>1</v>
       </c>
       <c r="G25" s="12">
-        <f>IF(DatasetA!G25=DatasetA!$M25,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H25" s="12"/>
+        <f>IF(DatasetA!H26=DatasetA!$O26,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H25" s="12">
+        <f>IF(DatasetA!I26=DatasetA!$O26,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
-      <c r="M25" s="14">
+      <c r="M25" s="12"/>
+      <c r="N25" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-    </row>
-    <row r="26" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+    </row>
+    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="29">
+      <c r="B26" s="26">
         <v>25</v>
       </c>
       <c r="C26" s="12">
-        <f>IF(DatasetA!C26=DatasetA!$M26,1,0)</f>
+        <f>IF(DatasetA!C27=DatasetA!$O27,1,0)</f>
         <v>0</v>
       </c>
       <c r="D26" s="12">
-        <f>IF(DatasetA!D26=DatasetA!$M26,1,0)</f>
+        <f>IF(DatasetA!E27=DatasetA!$O27,1,0)</f>
         <v>1</v>
       </c>
       <c r="E26" s="12">
-        <f>IF(DatasetA!E26=DatasetA!$M26,1,0)</f>
+        <f>IF(DatasetA!G27=DatasetA!$O27,1,0)</f>
         <v>1</v>
       </c>
       <c r="F26" s="12">
-        <f>IF(DatasetA!F26=DatasetA!$M26,1,0)</f>
+        <f>IF(DatasetA!G27=DatasetA!$O27,1,0)</f>
         <v>1</v>
       </c>
       <c r="G26" s="12">
-        <f>IF(DatasetA!G26=DatasetA!$M26,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H26" s="12"/>
+        <f>IF(DatasetA!H27=DatasetA!$O27,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H26" s="12">
+        <f>IF(DatasetA!I27=DatasetA!$O27,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
-      <c r="M26" s="14">
+      <c r="M26" s="12"/>
+      <c r="N26" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-    </row>
-    <row r="27" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+    </row>
+    <row r="27" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="29">
+      <c r="B27" s="26">
         <v>26</v>
       </c>
       <c r="C27" s="12">
-        <f>IF(DatasetA!C27=DatasetA!$M27,1,0)</f>
+        <f>IF(DatasetA!C28=DatasetA!$O28,1,0)</f>
         <v>0</v>
       </c>
       <c r="D27" s="12">
-        <f>IF(DatasetA!D27=DatasetA!$M27,1,0)</f>
+        <f>IF(DatasetA!E28=DatasetA!$O28,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E27" s="12">
+        <f>IF(DatasetA!G28=DatasetA!$O28,1,0)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="12">
-        <f>IF(DatasetA!E27=DatasetA!$M27,1,0)</f>
+      <c r="F27" s="12">
+        <f>IF(DatasetA!G28=DatasetA!$O28,1,0)</f>
         <v>0</v>
       </c>
-      <c r="F27" s="12">
-        <f>IF(DatasetA!F27=DatasetA!$M27,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="G27" s="12">
-        <f>IF(DatasetA!G27=DatasetA!$M27,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H27" s="12"/>
+        <f>IF(DatasetA!H28=DatasetA!$O28,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="12">
+        <f>IF(DatasetA!I28=DatasetA!$O28,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
-      <c r="M27" s="14">
+      <c r="M27" s="12"/>
+      <c r="N27" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-    </row>
-    <row r="28" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+    </row>
+    <row r="28" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="29">
+      <c r="B28" s="26">
         <v>27</v>
       </c>
       <c r="C28" s="12">
-        <f>IF(DatasetA!C28=DatasetA!$M28,1,0)</f>
+        <f>IF(DatasetA!C29=DatasetA!$O29,1,0)</f>
         <v>0</v>
       </c>
       <c r="D28" s="12">
-        <f>IF(DatasetA!D28=DatasetA!$M28,1,0)</f>
+        <f>IF(DatasetA!E29=DatasetA!$O29,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E28" s="12">
+        <f>IF(DatasetA!G29=DatasetA!$O29,1,0)</f>
         <v>0</v>
       </c>
-      <c r="E28" s="12">
-        <f>IF(DatasetA!E28=DatasetA!$M28,1,0)</f>
+      <c r="F28" s="12">
+        <f>IF(DatasetA!G29=DatasetA!$O29,1,0)</f>
         <v>0</v>
       </c>
-      <c r="F28" s="12">
-        <f>IF(DatasetA!F28=DatasetA!$M28,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="G28" s="12">
-        <f>IF(DatasetA!G28=DatasetA!$M28,1,0)</f>
+        <f>IF(DatasetA!H29=DatasetA!$O29,1,0)</f>
         <v>0</v>
       </c>
-      <c r="H28" s="12"/>
+      <c r="H28" s="12">
+        <f>IF(DatasetA!I29=DatasetA!$O29,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
-      <c r="M28" s="14">
+      <c r="M28" s="12"/>
+      <c r="N28" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
-    </row>
-    <row r="29" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+    </row>
+    <row r="29" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="29">
+      <c r="B29" s="26">
         <v>28</v>
       </c>
       <c r="C29" s="12">
-        <f>IF(DatasetA!C29=DatasetA!$M29,1,0)</f>
+        <f>IF(DatasetA!C30=DatasetA!$O30,1,0)</f>
         <v>1</v>
       </c>
       <c r="D29" s="12">
-        <f>IF(DatasetA!D29=DatasetA!$M29,1,0)</f>
+        <f>IF(DatasetA!E30=DatasetA!$O30,1,0)</f>
         <v>1</v>
       </c>
       <c r="E29" s="12">
-        <f>IF(DatasetA!E29=DatasetA!$M29,1,0)</f>
+        <f>IF(DatasetA!G30=DatasetA!$O30,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F29" s="12">
+        <f>IF(DatasetA!G30=DatasetA!$O30,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G29" s="12">
+        <f>IF(DatasetA!H30=DatasetA!$O30,1,0)</f>
         <v>0</v>
       </c>
-      <c r="F29" s="12">
-        <f>IF(DatasetA!F29=DatasetA!$M29,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G29" s="12">
-        <f>IF(DatasetA!G29=DatasetA!$M29,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H29" s="12"/>
+      <c r="H29" s="12">
+        <f>IF(DatasetA!I30=DatasetA!$O30,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
-      <c r="M29" s="14">
+      <c r="M29" s="12"/>
+      <c r="N29" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-    </row>
-    <row r="30" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+    </row>
+    <row r="30" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="29">
+      <c r="B30" s="26">
         <v>29</v>
       </c>
       <c r="C30" s="12">
-        <f>IF(DatasetA!C30=DatasetA!$M30,1,0)</f>
+        <f>IF(DatasetA!C31=DatasetA!$O31,1,0)</f>
         <v>0</v>
       </c>
       <c r="D30" s="12">
-        <f>IF(DatasetA!D30=DatasetA!$M30,1,0)</f>
-        <v>1</v>
+        <f>IF(DatasetA!E31=DatasetA!$O31,1,0)</f>
+        <v>0</v>
       </c>
       <c r="E30" s="12">
-        <f>IF(DatasetA!E30=DatasetA!$M30,1,0)</f>
+        <f>IF(DatasetA!G31=DatasetA!$O31,1,0)</f>
         <v>0</v>
       </c>
       <c r="F30" s="12">
-        <f>IF(DatasetA!F30=DatasetA!$M30,1,0)</f>
-        <v>1</v>
+        <f>IF(DatasetA!G31=DatasetA!$O31,1,0)</f>
+        <v>0</v>
       </c>
       <c r="G30" s="12">
-        <f>IF(DatasetA!G30=DatasetA!$M30,1,0)</f>
+        <f>IF(DatasetA!H31=DatasetA!$O31,1,0)</f>
         <v>0</v>
       </c>
-      <c r="H30" s="12"/>
+      <c r="H30" s="12">
+        <f>IF(DatasetA!I31=DatasetA!$O31,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
-      <c r="M30" s="14">
+      <c r="M30" s="12"/>
+      <c r="N30" s="14">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
-    </row>
-    <row r="31" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+    </row>
+    <row r="31" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="29">
+      <c r="B31" s="26">
         <v>30</v>
       </c>
       <c r="C31" s="12">
-        <f>IF(DatasetA!C31=DatasetA!$M31,1,0)</f>
+        <f>IF(DatasetA!C32=DatasetA!$O32,1,0)</f>
         <v>0</v>
       </c>
       <c r="D31" s="12">
-        <f>IF(DatasetA!D31=DatasetA!$M31,1,0)</f>
+        <f>IF(DatasetA!E32=DatasetA!$O32,1,0)</f>
         <v>1</v>
       </c>
       <c r="E31" s="12">
-        <f>IF(DatasetA!E31=DatasetA!$M31,1,0)</f>
+        <f>IF(DatasetA!G32=DatasetA!$O32,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F31" s="12">
+        <f>IF(DatasetA!G32=DatasetA!$O32,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G31" s="12">
+        <f>IF(DatasetA!H32=DatasetA!$O32,1,0)</f>
         <v>0</v>
       </c>
-      <c r="F31" s="12">
-        <f>IF(DatasetA!F31=DatasetA!$M31,1,0)</f>
+      <c r="H31" s="12">
+        <f>IF(DatasetA!I32=DatasetA!$O32,1,0)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="12">
-        <f>IF(DatasetA!G31=DatasetA!$M31,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H31" s="12"/>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
-      <c r="M31" s="14">
+      <c r="M31" s="12"/>
+      <c r="N31" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R31" s="21"/>
-    </row>
-    <row r="32" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
+      <c r="S31" s="20"/>
+    </row>
+    <row r="32" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="29">
+      <c r="B32" s="26">
         <v>31</v>
       </c>
       <c r="C32" s="12">
-        <f>IF(DatasetA!C32=DatasetA!$M32,1,0)</f>
+        <f>IF(DatasetA!C33=DatasetA!$O33,1,0)</f>
         <v>0</v>
       </c>
       <c r="D32" s="12">
-        <f>IF(DatasetA!D32=DatasetA!$M32,1,0)</f>
+        <f>IF(DatasetA!E33=DatasetA!$O33,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E32" s="12">
+        <f>IF(DatasetA!G33=DatasetA!$O33,1,0)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="12">
-        <f>IF(DatasetA!E32=DatasetA!$M32,1,0)</f>
+      <c r="F32" s="12">
+        <f>IF(DatasetA!G33=DatasetA!$O33,1,0)</f>
         <v>0</v>
       </c>
-      <c r="F32" s="12">
-        <f>IF(DatasetA!F32=DatasetA!$M32,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="G32" s="12">
-        <f>IF(DatasetA!G32=DatasetA!$M32,1,0)</f>
+        <f>IF(DatasetA!H33=DatasetA!$O33,1,0)</f>
         <v>0</v>
       </c>
-      <c r="H32" s="12"/>
+      <c r="H32" s="12">
+        <f>IF(DatasetA!I33=DatasetA!$O33,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
-      <c r="M32" s="14">
+      <c r="M32" s="12"/>
+      <c r="N32" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R32" s="21"/>
-    </row>
-    <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
+      <c r="S32" s="20"/>
+    </row>
+    <row r="33" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="29">
+      <c r="B33" s="26">
         <v>32</v>
       </c>
       <c r="C33" s="12">
-        <f>IF(DatasetA!C33=DatasetA!$M33,1,0)</f>
+        <f>IF(DatasetA!C34=DatasetA!$O34,1,0)</f>
         <v>0</v>
       </c>
       <c r="D33" s="12">
-        <f>IF(DatasetA!D33=DatasetA!$M33,1,0)</f>
-        <v>1</v>
+        <f>IF(DatasetA!E34=DatasetA!$O34,1,0)</f>
+        <v>0</v>
       </c>
       <c r="E33" s="12">
-        <f>IF(DatasetA!E33=DatasetA!$M33,1,0)</f>
+        <f>IF(DatasetA!G34=DatasetA!$O34,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F33" s="12">
+        <f>IF(DatasetA!G34=DatasetA!$O34,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G33" s="12">
+        <f>IF(DatasetA!H34=DatasetA!$O34,1,0)</f>
         <v>0</v>
       </c>
-      <c r="F33" s="12">
-        <f>IF(DatasetA!F33=DatasetA!$M33,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G33" s="12">
-        <f>IF(DatasetA!G33=DatasetA!$M33,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H33" s="12"/>
+      <c r="H33" s="12">
+        <f>IF(DatasetA!I34=DatasetA!$O34,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
-      <c r="M33" s="14">
+      <c r="M33" s="12"/>
+      <c r="N33" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R33" s="21"/>
-    </row>
-    <row r="34" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
+      <c r="S33" s="20"/>
+    </row>
+    <row r="34" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="29">
+      <c r="B34" s="26">
         <v>33</v>
       </c>
       <c r="C34" s="12">
-        <f>IF(DatasetA!C34=DatasetA!$M34,1,0)</f>
-        <v>1</v>
+        <f>IF(DatasetA!C35=DatasetA!$O35,1,0)</f>
+        <v>0</v>
       </c>
       <c r="D34" s="12">
-        <f>IF(DatasetA!D34=DatasetA!$M34,1,0)</f>
+        <f>IF(DatasetA!E35=DatasetA!$O35,1,0)</f>
         <v>0</v>
       </c>
       <c r="E34" s="12">
-        <f>IF(DatasetA!E34=DatasetA!$M34,1,0)</f>
+        <f>IF(DatasetA!G35=DatasetA!$O35,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F34" s="12">
+        <f>IF(DatasetA!G35=DatasetA!$O35,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G34" s="12">
+        <f>IF(DatasetA!H35=DatasetA!$O35,1,0)</f>
         <v>0</v>
       </c>
-      <c r="F34" s="12">
-        <f>IF(DatasetA!F34=DatasetA!$M34,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="12">
-        <f>IF(DatasetA!G34=DatasetA!$M34,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="12"/>
+      <c r="H34" s="12">
+        <f>IF(DatasetA!I35=DatasetA!$O35,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
       <c r="L34" s="12"/>
-      <c r="M34" s="14">
+      <c r="M34" s="12"/>
+      <c r="N34" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R34" s="21"/>
-    </row>
-    <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="27" t="s">
+      <c r="S34" s="20"/>
+    </row>
+    <row r="35" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="29">
+      <c r="B35" s="26">
         <v>34</v>
       </c>
       <c r="C35" s="12">
-        <f>IF(DatasetA!C35=DatasetA!$M35,1,0)</f>
+        <f>IF(DatasetA!C36=DatasetA!$O36,1,0)</f>
         <v>0</v>
       </c>
       <c r="D35" s="12">
-        <f>IF(DatasetA!D35=DatasetA!$M35,1,0)</f>
-        <v>1</v>
+        <f>IF(DatasetA!E36=DatasetA!$O36,1,0)</f>
+        <v>0</v>
       </c>
       <c r="E35" s="12">
-        <f>IF(DatasetA!E35=DatasetA!$M35,1,0)</f>
+        <f>IF(DatasetA!G36=DatasetA!$O36,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F35" s="12">
+        <f>IF(DatasetA!G36=DatasetA!$O36,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G35" s="12">
+        <f>IF(DatasetA!H36=DatasetA!$O36,1,0)</f>
         <v>0</v>
       </c>
-      <c r="F35" s="12">
-        <f>IF(DatasetA!F35=DatasetA!$M35,1,0)</f>
+      <c r="H35" s="12">
+        <f>IF(DatasetA!I36=DatasetA!$O36,1,0)</f>
         <v>0</v>
       </c>
-      <c r="G35" s="12">
-        <f>IF(DatasetA!G35=DatasetA!$M35,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H35" s="12"/>
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
-      <c r="M35" s="14">
+      <c r="M35" s="12"/>
+      <c r="N35" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R35" s="21"/>
-    </row>
-    <row r="36" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="31" t="s">
+      <c r="S35" s="20"/>
+    </row>
+    <row r="36" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="32">
+      <c r="B36" s="29">
         <v>35</v>
       </c>
       <c r="C36" s="13">
-        <f>IF(DatasetA!C36=DatasetA!$M36,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D36" s="13">
-        <f>IF(DatasetA!D36=DatasetA!$M36,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E36" s="13">
-        <f>IF(DatasetA!E36=DatasetA!$M36,1,0)</f>
+        <f>IF(DatasetA!C37=DatasetA!$O37,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D36" s="12">
+        <f>IF(DatasetA!E37=DatasetA!$O37,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E36" s="12">
+        <f>IF(DatasetA!G37=DatasetA!$O37,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F36" s="13">
+        <f>IF(DatasetA!G37=DatasetA!$O37,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G36" s="13">
+        <f>IF(DatasetA!H37=DatasetA!$O37,1,0)</f>
         <v>0</v>
       </c>
-      <c r="F36" s="13">
-        <f>IF(DatasetA!F36=DatasetA!$M36,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G36" s="13">
-        <f>IF(DatasetA!G36=DatasetA!$M36,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H36" s="13"/>
+      <c r="H36" s="13">
+        <f>IF(DatasetA!I37=DatasetA!$O37,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="I36" s="13"/>
       <c r="J36" s="13"/>
       <c r="K36" s="13"/>
       <c r="L36" s="13"/>
-      <c r="M36" s="15">
+      <c r="M36" s="13"/>
+      <c r="N36" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R36" s="21"/>
-    </row>
-    <row r="37" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="34" t="s">
+      <c r="S36" s="20"/>
+    </row>
+    <row r="37" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="35">
+      <c r="B37" s="38"/>
+      <c r="C37" s="31">
         <f>SUM(C2:C36)</f>
+        <v>20</v>
+      </c>
+      <c r="D37" s="31">
+        <f>SUM(D2:D36)</f>
         <v>21</v>
       </c>
-      <c r="D37" s="36">
-        <f t="shared" ref="D37:L37" si="1">SUM(D2:D36)</f>
+      <c r="E37" s="32">
+        <f t="shared" ref="E37:M37" si="1">SUM(E2:E36)</f>
         <v>30</v>
       </c>
-      <c r="E37" s="36">
+      <c r="F37" s="32">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="G37" s="32">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="F37" s="36">
+      <c r="H37" s="32">
         <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="G37" s="36">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="H37" s="36">
+        <v>30</v>
+      </c>
+      <c r="I37" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I37" s="36">
+      <c r="J37" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J37" s="36">
+      <c r="K37" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K37" s="36">
+      <c r="L37" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L37" s="37">
+      <c r="M37" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M37" s="33">
-        <f>SUM(M2:M36)</f>
-        <v>35</v>
-      </c>
-      <c r="R37" s="21"/>
-    </row>
-    <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="R38" s="21"/>
+      <c r="N37" s="30">
+        <f>SUM(N2:N36)</f>
+        <v>34</v>
+      </c>
+      <c r="S37" s="20"/>
+    </row>
+    <row r="38" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S38" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A37:B37"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:G36">
-    <cfRule type="cellIs" dxfId="0" priority="137" operator="equal">
-      <formula>$M$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27:L27">
-    <cfRule type="cellIs" dxfId="119" priority="119" operator="equal">
-      <formula>$M$27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:L2">
-    <cfRule type="cellIs" dxfId="66" priority="66" operator="equal">
-      <formula>$M$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:L3">
-    <cfRule type="cellIs" dxfId="65" priority="65" operator="equal">
-      <formula>$M$3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:L4">
-    <cfRule type="cellIs" dxfId="64" priority="64" operator="equal">
-      <formula>$M$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5:L5">
-    <cfRule type="cellIs" dxfId="63" priority="63" operator="equal">
-      <formula>$M$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6:L6">
-    <cfRule type="cellIs" dxfId="62" priority="61" operator="equal">
-      <formula>$M$6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="62" operator="equal">
-      <formula>$M$6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7:L7">
-    <cfRule type="cellIs" dxfId="60" priority="60" operator="equal">
-      <formula>$M$7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8:L8">
-    <cfRule type="cellIs" dxfId="59" priority="59" operator="equal">
-      <formula>$M$8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9:L9">
-    <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
-      <formula>$M$9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10:L10">
-    <cfRule type="cellIs" dxfId="57" priority="57" operator="equal">
-      <formula>$M$10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11:L11">
-    <cfRule type="cellIs" dxfId="56" priority="56" operator="equal">
-      <formula>$M$11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12:L12">
-    <cfRule type="cellIs" dxfId="55" priority="55" operator="equal">
-      <formula>$M$12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13:L13">
-    <cfRule type="cellIs" dxfId="54" priority="54" operator="equal">
-      <formula>$M$13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14:L14">
-    <cfRule type="cellIs" dxfId="53" priority="53" operator="equal">
-      <formula>$M$14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15:L15">
-    <cfRule type="cellIs" dxfId="52" priority="52" operator="equal">
-      <formula>$M$15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16:L16">
-    <cfRule type="cellIs" dxfId="51" priority="51" operator="equal">
-      <formula>$M$16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17:L17">
-    <cfRule type="cellIs" dxfId="50" priority="50" operator="equal">
-      <formula>$M$17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18:L18">
-    <cfRule type="cellIs" dxfId="49" priority="49" operator="equal">
-      <formula>$M$18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19:L19">
-    <cfRule type="cellIs" dxfId="48" priority="48" operator="equal">
-      <formula>$M$19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20:L20">
-    <cfRule type="cellIs" dxfId="47" priority="47" operator="equal">
-      <formula>$M$20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21:L21">
-    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
-      <formula>$M$21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22:L22">
-    <cfRule type="cellIs" dxfId="45" priority="45" operator="equal">
-      <formula>$M$22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23:L23">
-    <cfRule type="cellIs" dxfId="44" priority="44" operator="equal">
-      <formula>$M$23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24:L24">
-    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
-      <formula>$M$24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25:L25">
-    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
-      <formula>$M$25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26:L26">
-    <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
-      <formula>$M$26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28:L28">
-    <cfRule type="cellIs" dxfId="40" priority="40" operator="equal">
-      <formula>$M$28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29:L29">
-    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
-      <formula>$M$29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30:L30">
-    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
-      <formula>$M$30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31:L31">
-    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
-      <formula>$M$31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32:L32">
-    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
-      <formula>$M$32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33:L33">
-    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
-      <formula>$M$33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34:L34">
-    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
-      <formula>$M$34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35:L35">
-    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
-      <formula>$M$35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36:L36">
-    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
-      <formula>$M$36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R29">
-    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
-      <formula>$M$27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R18">
-    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
-      <formula>$M$16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R19">
-    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
-      <formula>$M$17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R20">
-    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
-      <formula>$M$18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R21">
-    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
-      <formula>$M$19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R22">
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
-      <formula>$M$20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R23">
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
-      <formula>$M$21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R24">
-    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
-      <formula>$M$22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R25">
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
-      <formula>$M$23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R26">
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
-      <formula>$M$24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R27">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
-      <formula>$M$25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R28">
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
-      <formula>$M$26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R30">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
-      <formula>$M$28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R31">
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
-      <formula>$M$29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R32">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
-      <formula>$M$30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R33">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
-      <formula>$M$31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R34">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
-      <formula>$M$32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R35">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
-      <formula>$M$33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R36">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
-      <formula>$M$34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R37">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
-      <formula>$M$35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R38">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
-      <formula>$M$36</formula>
+  <conditionalFormatting sqref="C2:H36">
+    <cfRule type="cellIs" dxfId="67" priority="137" operator="equal">
+      <formula>$N$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27:M27">
+    <cfRule type="cellIs" dxfId="66" priority="119" operator="equal">
+      <formula>$N$27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:M2">
+    <cfRule type="cellIs" dxfId="65" priority="66" operator="equal">
+      <formula>$N$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:M3">
+    <cfRule type="cellIs" dxfId="64" priority="65" operator="equal">
+      <formula>$N$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:M4">
+    <cfRule type="cellIs" dxfId="63" priority="64" operator="equal">
+      <formula>$N$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:M5">
+    <cfRule type="cellIs" dxfId="62" priority="63" operator="equal">
+      <formula>$N$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6:M6">
+    <cfRule type="cellIs" dxfId="61" priority="61" operator="equal">
+      <formula>$N$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="62" operator="equal">
+      <formula>$N$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7:M7">
+    <cfRule type="cellIs" dxfId="59" priority="60" operator="equal">
+      <formula>$N$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8:M8">
+    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
+      <formula>$N$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9:M9">
+    <cfRule type="cellIs" dxfId="57" priority="58" operator="equal">
+      <formula>$N$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10:M10">
+    <cfRule type="cellIs" dxfId="56" priority="57" operator="equal">
+      <formula>$N$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11:M11">
+    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
+      <formula>$N$11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12:M12">
+    <cfRule type="cellIs" dxfId="54" priority="55" operator="equal">
+      <formula>$N$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:M13">
+    <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
+      <formula>$N$13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:M14">
+    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
+      <formula>$N$14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15:M15">
+    <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
+      <formula>$N$15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16:M16">
+    <cfRule type="cellIs" dxfId="50" priority="51" operator="equal">
+      <formula>$N$16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17:M17">
+    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
+      <formula>$N$17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18:M18">
+    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
+      <formula>$N$18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19:M19">
+    <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
+      <formula>$N$19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20:M20">
+    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
+      <formula>$N$20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21:M21">
+    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
+      <formula>$N$21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:M22">
+    <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
+      <formula>$N$22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23:M23">
+    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
+      <formula>$N$23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24:M24">
+    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
+      <formula>$N$24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25:M25">
+    <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
+      <formula>$N$25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26:M26">
+    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
+      <formula>$N$26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28:M28">
+    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
+      <formula>$N$28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29:M29">
+    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
+      <formula>$N$29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30:M30">
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
+      <formula>$N$30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31:M31">
+    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
+      <formula>$N$31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32:M32">
+    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
+      <formula>$N$32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33:M33">
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
+      <formula>$N$33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34:M34">
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
+      <formula>$N$34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:M35">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
+      <formula>$N$35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:M36">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
+      <formula>$N$36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S29">
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
+      <formula>$N$27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S18">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+      <formula>$N$16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S19">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+      <formula>$N$17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S20">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+      <formula>$N$18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S21">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
-      <formula>$M$27</formula>
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+      <formula>$N$19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S22">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
-      <formula>$M$28</formula>
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+      <formula>$N$20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S23">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
-      <formula>$M$29</formula>
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+      <formula>$N$21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S24">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
-      <formula>$M$30</formula>
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+      <formula>$N$22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S25">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
-      <formula>$M$31</formula>
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+      <formula>$N$23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S26">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>$M$32</formula>
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+      <formula>$N$24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S27">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
-      <formula>$M$33</formula>
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+      <formula>$N$25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S28">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>$M$34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S29">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>$M$35</formula>
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+      <formula>$N$26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S30">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>$M$36</formula>
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+      <formula>$N$28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S31">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+      <formula>$N$29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S32">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>$N$30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S33">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+      <formula>$N$31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S34">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+      <formula>$N$32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S35">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>$N$33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S36">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>$N$34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S37">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>$N$35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S38">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>$N$36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T21">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>$N$27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T22">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>$N$28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T23">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>$N$29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T24">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>$N$30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T25">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>$N$31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T26">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>$N$32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T27">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>$N$33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T28">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>$N$34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T29">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>$N$35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T30">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>$N$36</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8526,34 +8811,34 @@
         <f t="shared" ref="K3:K36" si="1">F3/100</f>
         <v>0.69569999999999999</v>
       </c>
-      <c r="N3" s="16">
-        <v>1</v>
-      </c>
-      <c r="O3" s="16" t="s">
+      <c r="N3" s="15">
+        <v>1</v>
+      </c>
+      <c r="O3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="16">
+      <c r="Q3" s="15">
         <v>82.35</v>
       </c>
-      <c r="R3" s="16">
+      <c r="R3" s="15">
         <v>82.35</v>
       </c>
-      <c r="S3" s="17" t="s">
+      <c r="S3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="16">
+      <c r="T3" s="15">
         <v>82.35</v>
       </c>
-      <c r="U3" s="16">
+      <c r="U3" s="15">
         <v>82.35</v>
       </c>
-      <c r="V3" s="16">
+      <c r="V3" s="15">
         <v>82.35</v>
       </c>
-      <c r="W3" s="16">
+      <c r="W3" s="15">
         <v>82.35</v>
       </c>
     </row>
@@ -8587,34 +8872,34 @@
         <f t="shared" si="1"/>
         <v>0.79590000000000005</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="17">
         <v>2</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="O4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="P4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="Q4" s="17">
         <v>69.569999999999993</v>
       </c>
-      <c r="R4" s="18">
+      <c r="R4" s="17">
         <v>69.569999999999993</v>
       </c>
-      <c r="S4" s="18">
+      <c r="S4" s="17">
         <v>69.569999999999993</v>
       </c>
-      <c r="T4" s="18">
+      <c r="T4" s="17">
         <v>69.569999999999993</v>
       </c>
-      <c r="U4" s="18">
+      <c r="U4" s="17">
         <v>69.569999999999993</v>
       </c>
-      <c r="V4" s="18">
+      <c r="V4" s="17">
         <v>68</v>
       </c>
-      <c r="W4" s="18">
+      <c r="W4" s="17">
         <v>69.569999999999993</v>
       </c>
     </row>
@@ -8648,34 +8933,34 @@
         <f t="shared" si="1"/>
         <v>0.76919999999999999</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N5" s="17">
         <v>3</v>
       </c>
-      <c r="O5" s="18" t="s">
+      <c r="O5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="P5" s="18" t="s">
+      <c r="P5" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="Q5" s="18">
+      <c r="Q5" s="17">
         <v>79.59</v>
       </c>
-      <c r="R5" s="18">
+      <c r="R5" s="17">
         <v>79.59</v>
       </c>
-      <c r="S5" s="18">
+      <c r="S5" s="17">
         <v>79.59</v>
       </c>
-      <c r="T5" s="18">
+      <c r="T5" s="17">
         <v>79.59</v>
       </c>
-      <c r="U5" s="18">
+      <c r="U5" s="17">
         <v>79.59</v>
       </c>
-      <c r="V5" s="18">
+      <c r="V5" s="17">
         <v>79.59</v>
       </c>
-      <c r="W5" s="18">
+      <c r="W5" s="17">
         <v>79.59</v>
       </c>
     </row>
@@ -8709,34 +8994,34 @@
         <f t="shared" si="1"/>
         <v>0.60870000000000002</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N6" s="17">
         <v>4</v>
       </c>
-      <c r="O6" s="18" t="s">
+      <c r="O6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="P6" s="18" t="s">
+      <c r="P6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" s="18">
+      <c r="Q6" s="17">
         <v>76.92</v>
       </c>
-      <c r="R6" s="18">
+      <c r="R6" s="17">
         <v>76.92</v>
       </c>
-      <c r="S6" s="18">
+      <c r="S6" s="17">
         <v>76.92</v>
       </c>
-      <c r="T6" s="18">
+      <c r="T6" s="17">
         <v>76.92</v>
       </c>
-      <c r="U6" s="18">
+      <c r="U6" s="17">
         <v>76.92</v>
       </c>
-      <c r="V6" s="18">
+      <c r="V6" s="17">
         <v>76.92</v>
       </c>
-      <c r="W6" s="18">
+      <c r="W6" s="17">
         <v>76.92</v>
       </c>
     </row>
@@ -8770,34 +9055,34 @@
         <f t="shared" si="1"/>
         <v>0.70829999999999993</v>
       </c>
-      <c r="N7" s="18">
+      <c r="N7" s="17">
         <v>5</v>
       </c>
-      <c r="O7" s="18" t="s">
+      <c r="O7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="P7" s="18" t="s">
+      <c r="P7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="18">
+      <c r="Q7" s="17">
         <v>60.87</v>
       </c>
-      <c r="R7" s="18">
+      <c r="R7" s="17">
         <v>60.87</v>
       </c>
-      <c r="S7" s="18">
+      <c r="S7" s="17">
         <v>60.87</v>
       </c>
-      <c r="T7" s="18">
+      <c r="T7" s="17">
         <v>60.87</v>
       </c>
-      <c r="U7" s="18">
+      <c r="U7" s="17">
         <v>60.87</v>
       </c>
-      <c r="V7" s="18">
+      <c r="V7" s="17">
         <v>60.87</v>
       </c>
-      <c r="W7" s="18">
+      <c r="W7" s="17">
         <v>60.87</v>
       </c>
     </row>
@@ -8831,34 +9116,34 @@
         <f t="shared" si="1"/>
         <v>0.69440000000000002</v>
       </c>
-      <c r="N8" s="18">
+      <c r="N8" s="17">
         <v>6</v>
       </c>
-      <c r="O8" s="18" t="s">
+      <c r="O8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="18" t="s">
+      <c r="P8" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Q8" s="18">
+      <c r="Q8" s="17">
         <v>70.83</v>
       </c>
-      <c r="R8" s="18">
+      <c r="R8" s="17">
         <v>70.83</v>
       </c>
-      <c r="S8" s="18">
+      <c r="S8" s="17">
         <v>70.83</v>
       </c>
-      <c r="T8" s="18">
+      <c r="T8" s="17">
         <v>70.83</v>
       </c>
-      <c r="U8" s="18">
+      <c r="U8" s="17">
         <v>70.83</v>
       </c>
-      <c r="V8" s="18">
+      <c r="V8" s="17">
         <v>70.37</v>
       </c>
-      <c r="W8" s="18">
+      <c r="W8" s="17">
         <v>70.83</v>
       </c>
     </row>
@@ -8892,34 +9177,34 @@
         <f t="shared" si="1"/>
         <v>0.85250000000000004</v>
       </c>
-      <c r="N9" s="18">
+      <c r="N9" s="17">
         <v>7</v>
       </c>
-      <c r="O9" s="18" t="s">
+      <c r="O9" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="P9" s="18" t="s">
+      <c r="P9" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="Q9" s="18">
+      <c r="Q9" s="17">
         <v>69.44</v>
       </c>
-      <c r="R9" s="18">
+      <c r="R9" s="17">
         <v>69.44</v>
       </c>
-      <c r="S9" s="18">
+      <c r="S9" s="17">
         <v>68.290000000000006</v>
       </c>
-      <c r="T9" s="18">
+      <c r="T9" s="17">
         <v>69.44</v>
       </c>
-      <c r="U9" s="18">
+      <c r="U9" s="17">
         <v>69.44</v>
       </c>
-      <c r="V9" s="18">
+      <c r="V9" s="17">
         <v>68.290000000000006</v>
       </c>
-      <c r="W9" s="18">
+      <c r="W9" s="17">
         <v>69.44</v>
       </c>
     </row>
@@ -8953,34 +9238,34 @@
         <f t="shared" si="1"/>
         <v>0.58719999999999994</v>
       </c>
-      <c r="N10" s="18">
+      <c r="N10" s="17">
         <v>8</v>
       </c>
-      <c r="O10" s="18" t="s">
+      <c r="O10" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="P10" s="18" t="s">
+      <c r="P10" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="Q10" s="18">
+      <c r="Q10" s="17">
         <v>85.25</v>
       </c>
-      <c r="R10" s="18">
+      <c r="R10" s="17">
         <v>85.25</v>
       </c>
-      <c r="S10" s="18">
+      <c r="S10" s="17">
         <v>85.25</v>
       </c>
-      <c r="T10" s="18">
+      <c r="T10" s="17">
         <v>85.25</v>
       </c>
-      <c r="U10" s="18">
+      <c r="U10" s="17">
         <v>85.25</v>
       </c>
-      <c r="V10" s="18">
+      <c r="V10" s="17">
         <v>85.25</v>
       </c>
-      <c r="W10" s="18">
+      <c r="W10" s="17">
         <v>85.25</v>
       </c>
     </row>
@@ -9014,34 +9299,34 @@
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
-      <c r="N11" s="18">
+      <c r="N11" s="17">
         <v>9</v>
       </c>
-      <c r="O11" s="18" t="s">
+      <c r="O11" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="P11" s="18" t="s">
+      <c r="P11" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="Q11" s="18">
+      <c r="Q11" s="17">
         <v>55.32</v>
       </c>
-      <c r="R11" s="18">
+      <c r="R11" s="17">
         <v>58.72</v>
       </c>
-      <c r="S11" s="18">
+      <c r="S11" s="17">
         <v>58.72</v>
       </c>
-      <c r="T11" s="18">
+      <c r="T11" s="17">
         <v>58.72</v>
       </c>
-      <c r="U11" s="18">
+      <c r="U11" s="17">
         <v>58.72</v>
       </c>
-      <c r="V11" s="18">
+      <c r="V11" s="17">
         <v>58.72</v>
       </c>
-      <c r="W11" s="18" t="s">
+      <c r="W11" s="17" t="s">
         <v>62</v>
       </c>
     </row>
@@ -9075,34 +9360,34 @@
         <f t="shared" si="1"/>
         <v>0.92</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N12" s="17">
         <v>10</v>
       </c>
-      <c r="O12" s="18" t="s">
+      <c r="O12" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="P12" s="18" t="s">
+      <c r="P12" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="Q12" s="17">
         <v>75</v>
       </c>
-      <c r="R12" s="18">
+      <c r="R12" s="17">
         <v>75</v>
       </c>
-      <c r="S12" s="18">
+      <c r="S12" s="17">
         <v>75</v>
       </c>
-      <c r="T12" s="18">
+      <c r="T12" s="17">
         <v>75</v>
       </c>
-      <c r="U12" s="18">
+      <c r="U12" s="17">
         <v>75</v>
       </c>
-      <c r="V12" s="18">
+      <c r="V12" s="17">
         <v>75</v>
       </c>
-      <c r="W12" s="18">
+      <c r="W12" s="17">
         <v>75</v>
       </c>
     </row>
@@ -9136,34 +9421,34 @@
         <f t="shared" si="1"/>
         <v>0.72060000000000002</v>
       </c>
-      <c r="N13" s="18">
+      <c r="N13" s="17">
         <v>11</v>
       </c>
-      <c r="O13" s="18" t="s">
+      <c r="O13" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="P13" s="18" t="s">
+      <c r="P13" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="Q13" s="18">
+      <c r="Q13" s="17">
         <v>92</v>
       </c>
-      <c r="R13" s="18">
+      <c r="R13" s="17">
         <v>92</v>
       </c>
-      <c r="S13" s="18">
+      <c r="S13" s="17">
         <v>92</v>
       </c>
-      <c r="T13" s="18">
+      <c r="T13" s="17">
         <v>92</v>
       </c>
-      <c r="U13" s="18">
+      <c r="U13" s="17">
         <v>92</v>
       </c>
-      <c r="V13" s="18">
+      <c r="V13" s="17">
         <v>92</v>
       </c>
-      <c r="W13" s="18">
+      <c r="W13" s="17">
         <v>92</v>
       </c>
     </row>
@@ -9197,34 +9482,34 @@
         <f t="shared" si="1"/>
         <v>0.71829999999999994</v>
       </c>
-      <c r="N14" s="18">
+      <c r="N14" s="17">
         <v>12</v>
       </c>
-      <c r="O14" s="18" t="s">
+      <c r="O14" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="P14" s="18" t="s">
+      <c r="P14" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="Q14" s="18">
+      <c r="Q14" s="17">
         <v>72.06</v>
       </c>
-      <c r="R14" s="18">
+      <c r="R14" s="17">
         <v>72.06</v>
       </c>
-      <c r="S14" s="19" t="s">
+      <c r="S14" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="18">
+      <c r="T14" s="17">
         <v>72.06</v>
       </c>
-      <c r="U14" s="18">
+      <c r="U14" s="17">
         <v>72.06</v>
       </c>
-      <c r="V14" s="18">
+      <c r="V14" s="17">
         <v>69.7</v>
       </c>
-      <c r="W14" s="18">
+      <c r="W14" s="17">
         <v>72.06</v>
       </c>
     </row>
@@ -9258,34 +9543,34 @@
         <f t="shared" si="1"/>
         <v>0.53259999999999996</v>
       </c>
-      <c r="N15" s="18">
+      <c r="N15" s="17">
         <v>13</v>
       </c>
-      <c r="O15" s="18" t="s">
+      <c r="O15" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="P15" s="18" t="s">
+      <c r="P15" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" s="18">
+      <c r="Q15" s="17">
         <v>71.83</v>
       </c>
-      <c r="R15" s="18">
+      <c r="R15" s="17">
         <v>71.83</v>
       </c>
-      <c r="S15" s="18">
+      <c r="S15" s="17">
         <v>71.83</v>
       </c>
-      <c r="T15" s="18">
+      <c r="T15" s="17">
         <v>71.83</v>
       </c>
-      <c r="U15" s="18">
+      <c r="U15" s="17">
         <v>71.83</v>
       </c>
-      <c r="V15" s="18">
+      <c r="V15" s="17">
         <v>71.83</v>
       </c>
-      <c r="W15" s="18">
+      <c r="W15" s="17">
         <v>71.83</v>
       </c>
     </row>
@@ -9319,34 +9604,34 @@
         <f t="shared" si="1"/>
         <v>0.68989999999999996</v>
       </c>
-      <c r="N16" s="18">
+      <c r="N16" s="17">
         <v>14</v>
       </c>
-      <c r="O16" s="18" t="s">
+      <c r="O16" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="P16" s="18" t="s">
+      <c r="P16" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="Q16" s="18">
+      <c r="Q16" s="17">
         <v>51.58</v>
       </c>
-      <c r="R16" s="18">
+      <c r="R16" s="17">
         <v>52.75</v>
       </c>
-      <c r="S16" s="19" t="s">
+      <c r="S16" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="T16" s="18">
+      <c r="T16" s="17">
         <v>53.85</v>
       </c>
-      <c r="U16" s="18">
+      <c r="U16" s="17">
         <v>53.41</v>
       </c>
-      <c r="V16" s="18">
+      <c r="V16" s="17">
         <v>52.08</v>
       </c>
-      <c r="W16" s="18">
+      <c r="W16" s="17">
         <v>53.26</v>
       </c>
     </row>
@@ -9380,34 +9665,34 @@
         <f t="shared" si="1"/>
         <v>0.57530000000000003</v>
       </c>
-      <c r="N17" s="18">
+      <c r="N17" s="17">
         <v>15</v>
       </c>
-      <c r="O17" s="18" t="s">
+      <c r="O17" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="P17" s="18" t="s">
+      <c r="P17" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="Q17" s="18">
+      <c r="Q17" s="17">
         <v>55.48</v>
       </c>
-      <c r="R17" s="18">
+      <c r="R17" s="17">
         <v>57.53</v>
       </c>
-      <c r="S17" s="18">
+      <c r="S17" s="17">
         <v>56.38</v>
       </c>
-      <c r="T17" s="18">
+      <c r="T17" s="17">
         <v>57.53</v>
       </c>
-      <c r="U17" s="18">
+      <c r="U17" s="17">
         <v>57.53</v>
       </c>
-      <c r="V17" s="18">
+      <c r="V17" s="17">
         <v>57.23</v>
       </c>
-      <c r="W17" s="18">
+      <c r="W17" s="17">
         <v>57.53</v>
       </c>
     </row>
@@ -9441,34 +9726,34 @@
         <f t="shared" si="1"/>
         <v>0.57729999999999992</v>
       </c>
-      <c r="N18" s="18">
+      <c r="N18" s="17">
         <v>16</v>
       </c>
-      <c r="O18" s="18" t="s">
+      <c r="O18" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="P18" s="18" t="s">
+      <c r="P18" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="Q18" s="18">
+      <c r="Q18" s="17">
         <v>57.43</v>
       </c>
-      <c r="R18" s="18">
+      <c r="R18" s="17">
         <v>57.73</v>
       </c>
-      <c r="S18" s="18">
+      <c r="S18" s="17">
         <v>54.46</v>
       </c>
-      <c r="T18" s="18">
+      <c r="T18" s="17">
         <v>57.73</v>
       </c>
-      <c r="U18" s="18">
+      <c r="U18" s="17">
         <v>57.73</v>
       </c>
-      <c r="V18" s="18">
+      <c r="V18" s="17">
         <v>57.14</v>
       </c>
-      <c r="W18" s="18">
+      <c r="W18" s="17">
         <v>57.73</v>
       </c>
     </row>
@@ -9502,34 +9787,34 @@
         <f t="shared" si="1"/>
         <v>0.43450000000000005</v>
       </c>
-      <c r="N19" s="18">
+      <c r="N19" s="17">
         <v>17</v>
       </c>
-      <c r="O19" s="18" t="s">
+      <c r="O19" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="P19" s="18" t="s">
+      <c r="P19" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="Q19" s="18">
+      <c r="Q19" s="17">
         <v>40.74</v>
       </c>
-      <c r="R19" s="18">
+      <c r="R19" s="17">
         <v>43.18</v>
       </c>
-      <c r="S19" s="18">
+      <c r="S19" s="17">
         <v>43.26</v>
       </c>
-      <c r="T19" s="18">
+      <c r="T19" s="17">
         <v>43.26</v>
       </c>
-      <c r="U19" s="18">
+      <c r="U19" s="17">
         <v>43.45</v>
       </c>
-      <c r="V19" s="18">
+      <c r="V19" s="17">
         <v>43.06</v>
       </c>
-      <c r="W19" s="18">
+      <c r="W19" s="17">
         <v>43.45</v>
       </c>
     </row>
@@ -9563,34 +9848,34 @@
         <f t="shared" si="1"/>
         <v>0.5081</v>
       </c>
-      <c r="N20" s="18">
+      <c r="N20" s="17">
         <v>18</v>
       </c>
-      <c r="O20" s="18" t="s">
+      <c r="O20" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="P20" s="18" t="s">
+      <c r="P20" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="Q20" s="18">
+      <c r="Q20" s="17">
         <v>49.65</v>
       </c>
-      <c r="R20" s="18">
+      <c r="R20" s="17">
         <v>50.81</v>
       </c>
-      <c r="S20" s="18">
+      <c r="S20" s="17">
         <v>50.81</v>
       </c>
-      <c r="T20" s="18">
+      <c r="T20" s="17">
         <v>50.81</v>
       </c>
-      <c r="U20" s="18">
+      <c r="U20" s="17">
         <v>50.81</v>
       </c>
-      <c r="V20" s="18">
+      <c r="V20" s="17">
         <v>50.81</v>
       </c>
-      <c r="W20" s="18">
+      <c r="W20" s="17">
         <v>50.81</v>
       </c>
     </row>
@@ -9624,34 +9909,34 @@
         <f t="shared" si="1"/>
         <v>0.77910000000000001</v>
       </c>
-      <c r="N21" s="18">
+      <c r="N21" s="17">
         <v>19</v>
       </c>
-      <c r="O21" s="18" t="s">
+      <c r="O21" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="P21" s="18" t="s">
+      <c r="P21" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="Q21" s="18">
+      <c r="Q21" s="17">
         <v>77.02</v>
       </c>
-      <c r="R21" s="18">
+      <c r="R21" s="17">
         <v>77.91</v>
       </c>
-      <c r="S21" s="18">
+      <c r="S21" s="17">
         <v>78.400000000000006</v>
       </c>
-      <c r="T21" s="18">
+      <c r="T21" s="17">
         <v>77.91</v>
       </c>
-      <c r="U21" s="18">
+      <c r="U21" s="17">
         <v>77.91</v>
       </c>
-      <c r="V21" s="18">
+      <c r="V21" s="17">
         <v>76.02</v>
       </c>
-      <c r="W21" s="18">
+      <c r="W21" s="17">
         <v>77.91</v>
       </c>
     </row>
@@ -9685,34 +9970,34 @@
         <f t="shared" si="1"/>
         <v>0.57979999999999998</v>
       </c>
-      <c r="N22" s="18">
+      <c r="N22" s="17">
         <v>20</v>
       </c>
-      <c r="O22" s="18" t="s">
+      <c r="O22" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="P22" s="18" t="s">
+      <c r="P22" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="Q22" s="18">
+      <c r="Q22" s="17">
         <v>57.14</v>
       </c>
-      <c r="R22" s="18">
+      <c r="R22" s="17">
         <v>57.98</v>
       </c>
-      <c r="S22" s="18">
+      <c r="S22" s="17">
         <v>57.61</v>
       </c>
-      <c r="T22" s="18">
+      <c r="T22" s="17">
         <v>57.98</v>
       </c>
-      <c r="U22" s="18">
+      <c r="U22" s="17">
         <v>57.98</v>
       </c>
-      <c r="V22" s="18">
+      <c r="V22" s="17">
         <v>56.54</v>
       </c>
-      <c r="W22" s="18">
+      <c r="W22" s="17">
         <v>57.98</v>
       </c>
     </row>
@@ -9746,34 +10031,34 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N23" s="18">
+      <c r="N23" s="17">
         <v>21</v>
       </c>
-      <c r="O23" s="18" t="s">
+      <c r="O23" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="P23" s="18" t="s">
+      <c r="P23" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="Q23" s="18">
+      <c r="Q23" s="17">
         <v>100</v>
       </c>
-      <c r="R23" s="18">
+      <c r="R23" s="17">
         <v>100</v>
       </c>
-      <c r="S23" s="18">
+      <c r="S23" s="17">
         <v>100</v>
       </c>
-      <c r="T23" s="18">
+      <c r="T23" s="17">
         <v>100</v>
       </c>
-      <c r="U23" s="18">
+      <c r="U23" s="17">
         <v>100</v>
       </c>
-      <c r="V23" s="18">
+      <c r="V23" s="17">
         <v>100</v>
       </c>
-      <c r="W23" s="18">
+      <c r="W23" s="17">
         <v>100</v>
       </c>
     </row>
@@ -9807,34 +10092,34 @@
         <f t="shared" si="1"/>
         <v>0.85109999999999997</v>
       </c>
-      <c r="N24" s="18">
+      <c r="N24" s="17">
         <v>22</v>
       </c>
-      <c r="O24" s="18" t="s">
+      <c r="O24" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="P24" s="18" t="s">
+      <c r="P24" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="Q24" s="18">
+      <c r="Q24" s="17">
         <v>85.11</v>
       </c>
-      <c r="R24" s="18">
+      <c r="R24" s="17">
         <v>85.11</v>
       </c>
-      <c r="S24" s="18">
+      <c r="S24" s="17">
         <v>85.11</v>
       </c>
-      <c r="T24" s="18">
+      <c r="T24" s="17">
         <v>85.11</v>
       </c>
-      <c r="U24" s="18">
+      <c r="U24" s="17">
         <v>85.11</v>
       </c>
-      <c r="V24" s="18">
+      <c r="V24" s="17">
         <v>85.11</v>
       </c>
-      <c r="W24" s="18">
+      <c r="W24" s="17">
         <v>85.11</v>
       </c>
     </row>
@@ -9868,34 +10153,34 @@
         <f t="shared" si="1"/>
         <v>0.73510000000000009</v>
       </c>
-      <c r="N25" s="18">
+      <c r="N25" s="17">
         <v>23</v>
       </c>
-      <c r="O25" s="18" t="s">
+      <c r="O25" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="P25" s="18" t="s">
+      <c r="P25" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="Q25" s="18">
+      <c r="Q25" s="17">
         <v>73.510000000000005</v>
       </c>
-      <c r="R25" s="18">
+      <c r="R25" s="17">
         <v>73.510000000000005</v>
       </c>
-      <c r="S25" s="18">
+      <c r="S25" s="17">
         <v>73.510000000000005</v>
       </c>
-      <c r="T25" s="18">
+      <c r="T25" s="17">
         <v>73.510000000000005</v>
       </c>
-      <c r="U25" s="18">
+      <c r="U25" s="17">
         <v>73.510000000000005</v>
       </c>
-      <c r="V25" s="18">
+      <c r="V25" s="17">
         <v>73.510000000000005</v>
       </c>
-      <c r="W25" s="18">
+      <c r="W25" s="17">
         <v>73.510000000000005</v>
       </c>
     </row>
@@ -9929,34 +10214,34 @@
         <f t="shared" si="1"/>
         <v>0.53290000000000004</v>
       </c>
-      <c r="N26" s="18">
+      <c r="N26" s="17">
         <v>24</v>
       </c>
-      <c r="O26" s="18" t="s">
+      <c r="O26" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="P26" s="18" t="s">
+      <c r="P26" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="Q26" s="18">
+      <c r="Q26" s="17">
         <v>52.41</v>
       </c>
-      <c r="R26" s="18">
+      <c r="R26" s="17">
         <v>53.29</v>
       </c>
-      <c r="S26" s="18">
+      <c r="S26" s="17">
         <v>53.29</v>
       </c>
-      <c r="T26" s="18">
+      <c r="T26" s="17">
         <v>53.29</v>
       </c>
-      <c r="U26" s="18">
+      <c r="U26" s="17">
         <v>53.29</v>
       </c>
-      <c r="V26" s="18">
+      <c r="V26" s="17">
         <v>52.94</v>
       </c>
-      <c r="W26" s="18">
+      <c r="W26" s="17">
         <v>53.29</v>
       </c>
     </row>
@@ -9990,34 +10275,34 @@
         <f t="shared" si="1"/>
         <v>0.48950000000000005</v>
       </c>
-      <c r="N27" s="18">
+      <c r="N27" s="17">
         <v>25</v>
       </c>
-      <c r="O27" s="18" t="s">
+      <c r="O27" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="P27" s="18" t="s">
+      <c r="P27" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="Q27" s="18">
+      <c r="Q27" s="17">
         <v>52.53</v>
       </c>
-      <c r="R27" s="18">
+      <c r="R27" s="17">
         <v>54.02</v>
       </c>
-      <c r="S27" s="18">
+      <c r="S27" s="17">
         <v>54.27</v>
       </c>
-      <c r="T27" s="18">
+      <c r="T27" s="17">
         <v>54.82</v>
       </c>
-      <c r="U27" s="18">
+      <c r="U27" s="17">
         <v>54.82</v>
       </c>
-      <c r="V27" s="18">
+      <c r="V27" s="17">
         <v>53.54</v>
       </c>
-      <c r="W27" s="18">
+      <c r="W27" s="17">
         <v>54.82</v>
       </c>
     </row>
@@ -10051,34 +10336,34 @@
         <f t="shared" si="1"/>
         <v>0.47259999999999996</v>
       </c>
-      <c r="N28" s="18">
+      <c r="N28" s="17">
         <v>26</v>
       </c>
-      <c r="O28" s="18" t="s">
+      <c r="O28" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="P28" s="18" t="s">
+      <c r="P28" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="Q28" s="18">
+      <c r="Q28" s="17">
         <v>57.95</v>
       </c>
-      <c r="R28" s="18">
+      <c r="R28" s="17">
         <v>59.77</v>
       </c>
-      <c r="S28" s="18">
+      <c r="S28" s="17">
         <v>60.12</v>
       </c>
-      <c r="T28" s="18">
+      <c r="T28" s="17">
         <v>58.89</v>
       </c>
-      <c r="U28" s="18">
+      <c r="U28" s="17">
         <v>59.77</v>
       </c>
-      <c r="V28" s="18">
+      <c r="V28" s="17">
         <v>59.77</v>
       </c>
-      <c r="W28" s="18">
+      <c r="W28" s="17">
         <v>60.12</v>
       </c>
     </row>
@@ -10112,34 +10397,34 @@
         <f t="shared" si="1"/>
         <v>0.54820000000000002</v>
       </c>
-      <c r="N29" s="18">
+      <c r="N29" s="17">
         <v>27</v>
       </c>
-      <c r="O29" s="18" t="s">
+      <c r="O29" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="P29" s="18" t="s">
+      <c r="P29" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Q29" s="18">
+      <c r="Q29" s="17">
         <v>52.47</v>
       </c>
-      <c r="R29" s="18">
+      <c r="R29" s="17">
         <v>60.64</v>
       </c>
-      <c r="S29" s="18">
+      <c r="S29" s="17">
         <v>59.04</v>
       </c>
-      <c r="T29" s="18">
+      <c r="T29" s="17">
         <v>60.4</v>
       </c>
-      <c r="U29" s="18">
+      <c r="U29" s="17">
         <v>60.64</v>
       </c>
-      <c r="V29" s="18">
+      <c r="V29" s="17">
         <v>60.34</v>
       </c>
-      <c r="W29" s="18">
+      <c r="W29" s="17">
         <v>60.63</v>
       </c>
     </row>
@@ -10173,34 +10458,34 @@
         <f t="shared" si="1"/>
         <v>0.47229999999999994</v>
       </c>
-      <c r="N30" s="18">
+      <c r="N30" s="17">
         <v>28</v>
       </c>
-      <c r="O30" s="18" t="s">
+      <c r="O30" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="P30" s="18" t="s">
+      <c r="P30" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Q30" s="18">
+      <c r="Q30" s="17">
         <v>45.77</v>
       </c>
-      <c r="R30" s="18">
+      <c r="R30" s="17">
         <v>52.05</v>
       </c>
-      <c r="S30" s="19" t="s">
+      <c r="S30" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="T30" s="18">
+      <c r="T30" s="17">
         <v>52.07</v>
       </c>
-      <c r="U30" s="18">
+      <c r="U30" s="17">
         <v>52.29</v>
       </c>
-      <c r="V30" s="19" t="s">
+      <c r="V30" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="W30" s="19" t="s">
+      <c r="W30" s="18" t="s">
         <v>4</v>
       </c>
     </row>
@@ -10234,34 +10519,34 @@
         <f t="shared" si="1"/>
         <v>0.6331</v>
       </c>
-      <c r="N31" s="18">
+      <c r="N31" s="17">
         <v>29</v>
       </c>
-      <c r="O31" s="18" t="s">
+      <c r="O31" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="P31" s="18" t="s">
+      <c r="P31" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Q31" s="18">
+      <c r="Q31" s="17">
         <v>61.16</v>
       </c>
-      <c r="R31" s="18">
+      <c r="R31" s="17">
         <v>62.99</v>
       </c>
-      <c r="S31" s="19" t="s">
+      <c r="S31" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="T31" s="18">
+      <c r="T31" s="17">
         <v>63.04</v>
       </c>
-      <c r="U31" s="18">
+      <c r="U31" s="17">
         <v>63.04</v>
       </c>
-      <c r="V31" s="19" t="s">
+      <c r="V31" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="W31" s="19" t="s">
+      <c r="W31" s="18" t="s">
         <v>4</v>
       </c>
     </row>
@@ -10295,34 +10580,34 @@
         <f t="shared" si="1"/>
         <v>0.59770000000000001</v>
       </c>
-      <c r="N32" s="18">
+      <c r="N32" s="17">
         <v>30</v>
       </c>
-      <c r="O32" s="18" t="s">
+      <c r="O32" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="P32" s="18" t="s">
+      <c r="P32" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Q32" s="18">
+      <c r="Q32" s="17">
         <v>64.81</v>
       </c>
-      <c r="R32" s="18">
+      <c r="R32" s="17">
         <v>68.38</v>
       </c>
-      <c r="S32" s="19" t="s">
+      <c r="S32" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="T32" s="18">
+      <c r="T32" s="17">
         <v>68.38</v>
       </c>
-      <c r="U32" s="18">
+      <c r="U32" s="17">
         <v>68.38</v>
       </c>
-      <c r="V32" s="19" t="s">
+      <c r="V32" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="W32" s="19" t="s">
+      <c r="W32" s="18" t="s">
         <v>4</v>
       </c>
     </row>
@@ -10356,34 +10641,34 @@
         <f t="shared" si="1"/>
         <v>0.50829999999999997</v>
       </c>
-      <c r="N33" s="18">
+      <c r="N33" s="17">
         <v>31</v>
       </c>
-      <c r="O33" s="18" t="s">
+      <c r="O33" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="P33" s="18" t="s">
+      <c r="P33" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Q33" s="18">
+      <c r="Q33" s="17">
         <v>48.18</v>
       </c>
-      <c r="R33" s="18">
+      <c r="R33" s="17">
         <v>49.65</v>
       </c>
-      <c r="S33" s="19" t="s">
+      <c r="S33" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="T33" s="18">
+      <c r="T33" s="17">
         <v>50</v>
       </c>
-      <c r="U33" s="18">
+      <c r="U33" s="17">
         <v>50</v>
       </c>
-      <c r="V33" s="19" t="s">
+      <c r="V33" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="W33" s="19" t="s">
+      <c r="W33" s="18" t="s">
         <v>4</v>
       </c>
     </row>
@@ -10417,34 +10702,34 @@
         <f t="shared" si="1"/>
         <v>0.47139999999999999</v>
       </c>
-      <c r="N34" s="18">
+      <c r="N34" s="17">
         <v>32</v>
       </c>
-      <c r="O34" s="18" t="s">
+      <c r="O34" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="P34" s="18" t="s">
+      <c r="P34" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Q34" s="18">
+      <c r="Q34" s="17">
         <v>70.540000000000006</v>
       </c>
-      <c r="R34" s="18">
+      <c r="R34" s="17">
         <v>72.37</v>
       </c>
-      <c r="S34" s="19" t="s">
+      <c r="S34" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="T34" s="18">
+      <c r="T34" s="17">
         <v>72.37</v>
       </c>
-      <c r="U34" s="18">
+      <c r="U34" s="17">
         <v>72.37</v>
       </c>
-      <c r="V34" s="19" t="s">
+      <c r="V34" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="W34" s="19" t="s">
+      <c r="W34" s="18" t="s">
         <v>4</v>
       </c>
     </row>
@@ -10478,34 +10763,34 @@
         <f t="shared" si="1"/>
         <v>0.60640000000000005</v>
       </c>
-      <c r="N35" s="18">
+      <c r="N35" s="17">
         <v>33</v>
       </c>
-      <c r="O35" s="18" t="s">
+      <c r="O35" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="P35" s="18" t="s">
+      <c r="P35" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Q35" s="18">
+      <c r="Q35" s="17">
         <v>77.31</v>
       </c>
-      <c r="R35" s="18">
+      <c r="R35" s="17">
         <v>77.31</v>
       </c>
-      <c r="S35" s="19" t="s">
+      <c r="S35" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="T35" s="18">
+      <c r="T35" s="17">
         <v>77.31</v>
       </c>
-      <c r="U35" s="18">
+      <c r="U35" s="17">
         <v>77.31</v>
       </c>
-      <c r="V35" s="19" t="s">
+      <c r="V35" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="W35" s="19" t="s">
+      <c r="W35" s="18" t="s">
         <v>4</v>
       </c>
     </row>
@@ -10539,66 +10824,66 @@
         <f t="shared" si="1"/>
         <v>0.84030000000000005</v>
       </c>
-      <c r="N36" s="18">
+      <c r="N36" s="17">
         <v>34</v>
       </c>
-      <c r="O36" s="18" t="s">
+      <c r="O36" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="P36" s="18" t="s">
+      <c r="P36" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Q36" s="18">
+      <c r="Q36" s="17">
         <v>71.430000000000007</v>
       </c>
-      <c r="R36" s="18">
+      <c r="R36" s="17">
         <v>73.239999999999995</v>
       </c>
-      <c r="S36" s="19" t="s">
+      <c r="S36" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="T36" s="18">
+      <c r="T36" s="17">
         <v>73.239999999999995</v>
       </c>
-      <c r="U36" s="18">
+      <c r="U36" s="17">
         <v>73.239999999999995</v>
       </c>
-      <c r="V36" s="19" t="s">
+      <c r="V36" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="W36" s="19" t="s">
+      <c r="W36" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="N37" s="20">
+      <c r="N37" s="19">
         <v>35</v>
       </c>
-      <c r="O37" s="20" t="s">
+      <c r="O37" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="P37" s="20" t="s">
+      <c r="P37" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="Q37" s="20">
+      <c r="Q37" s="19">
         <v>61.39</v>
       </c>
-      <c r="R37" s="20">
+      <c r="R37" s="19">
         <v>63.31</v>
       </c>
-      <c r="S37" s="20">
+      <c r="S37" s="19">
         <v>59.52</v>
       </c>
-      <c r="T37" s="20">
+      <c r="T37" s="19">
         <v>62.59</v>
       </c>
-      <c r="U37" s="20">
+      <c r="U37" s="19">
         <v>63.31</v>
       </c>
-      <c r="V37" s="20">
+      <c r="V37" s="19">
         <v>61.58</v>
       </c>
-      <c r="W37" s="20">
+      <c r="W37" s="19">
         <v>63.12</v>
       </c>
     </row>

--- a/bibliografia/results/Comparativa Resultados.xlsx
+++ b/bibliografia/results/Comparativa Resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\José Enrique\Desktop\cell-formation\cell-formation\bibliografia\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F3138B-15E0-422C-9556-73B65087E903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D874B5AD-9C8C-4493-BF17-5EB2BC893B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -876,26 +876,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -915,22 +900,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -958,12 +931,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -973,12 +940,45 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="240">
+  <dxfs count="205">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1586,356 +1586,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4714,35 +4364,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="41" t="s">
+      <c r="D1" s="63"/>
+      <c r="E1" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="44" t="s">
+      <c r="F1" s="63"/>
+      <c r="G1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="68" t="s">
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="64" t="s">
         <v>9</v>
       </c>
       <c r="Q1" s="2" t="s">
@@ -4750,48 +4400,48 @@
       </c>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="43" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="69"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="65"/>
       <c r="Q2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="60">
+      <c r="B3" s="51">
         <v>1</v>
       </c>
       <c r="C3" s="12">
         <v>0.82350000000000001</v>
       </c>
       <c r="D3" s="12"/>
-      <c r="E3" s="49">
+      <c r="E3" s="44">
         <v>0.82350000000000001</v>
       </c>
-      <c r="F3" s="46"/>
+      <c r="F3" s="41"/>
       <c r="G3" s="20">
         <v>0.82350000000000001</v>
       </c>
@@ -4808,26 +4458,26 @@
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
-      <c r="O3" s="70">
+      <c r="O3" s="59">
         <f>MAX(CG33,H3,I3,J3)</f>
         <v>0.82350000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="62">
+      <c r="B4" s="53">
         <v>2</v>
       </c>
       <c r="C4" s="12">
         <v>0.69569999999999999</v>
       </c>
       <c r="D4" s="12"/>
-      <c r="E4" s="50">
+      <c r="E4" s="45">
         <v>0.69569999999999999</v>
       </c>
-      <c r="F4" s="47"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="20">
         <v>0.69569999999999999</v>
       </c>
@@ -4844,26 +4494,26 @@
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
-      <c r="O4" s="71">
+      <c r="O4" s="60">
         <f t="shared" ref="O4:O37" si="0">MAX(CG34,H4,I4,J4)</f>
         <v>0.69569999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="62">
+      <c r="B5" s="53">
         <v>3</v>
       </c>
       <c r="C5" s="12">
         <v>0.79590000000000005</v>
       </c>
       <c r="D5" s="12"/>
-      <c r="E5" s="55">
+      <c r="E5" s="49">
         <v>0.8085</v>
       </c>
-      <c r="F5" s="47"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="20">
         <v>0.79590000000000005</v>
       </c>
@@ -4880,26 +4530,26 @@
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
-      <c r="O5" s="71">
+      <c r="O5" s="60">
         <f t="shared" si="0"/>
         <v>0.79590000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="62">
+      <c r="B6" s="53">
         <v>4</v>
       </c>
       <c r="C6" s="12">
         <v>0.76919999999999999</v>
       </c>
       <c r="D6" s="12"/>
-      <c r="E6" s="55">
+      <c r="E6" s="49">
         <v>0.79170000000000007</v>
       </c>
-      <c r="F6" s="47"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="20">
         <v>0.76919999999999999</v>
       </c>
@@ -4916,26 +4566,26 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
-      <c r="O6" s="71">
+      <c r="O6" s="60">
         <f t="shared" si="0"/>
         <v>0.76919999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="62">
+      <c r="B7" s="53">
         <v>5</v>
       </c>
       <c r="C7" s="12">
         <v>0.60870000000000002</v>
       </c>
       <c r="D7" s="12"/>
-      <c r="E7" s="50">
+      <c r="E7" s="45">
         <v>0.60870000000000002</v>
       </c>
-      <c r="F7" s="47"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="20">
         <v>0.60870000000000002</v>
       </c>
@@ -4952,26 +4602,26 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
-      <c r="O7" s="71">
+      <c r="O7" s="60">
         <f t="shared" si="0"/>
         <v>0.60870000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="62">
+      <c r="B8" s="53">
         <v>6</v>
       </c>
       <c r="C8" s="12">
         <v>0.70830000000000004</v>
       </c>
       <c r="D8" s="12"/>
-      <c r="E8" s="50">
+      <c r="E8" s="45">
         <v>0.70829999999999993</v>
       </c>
-      <c r="F8" s="47"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="20">
         <v>0.70830000000000004</v>
       </c>
@@ -4988,26 +4638,26 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
-      <c r="O8" s="71">
+      <c r="O8" s="60">
         <f t="shared" si="0"/>
         <v>0.70830000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="62">
+      <c r="B9" s="53">
         <v>7</v>
       </c>
       <c r="C9" s="12">
         <v>0.69440000000000002</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="50">
+      <c r="E9" s="45">
         <v>0.69440000000000002</v>
       </c>
-      <c r="F9" s="47"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="20">
         <v>0.69440000000000002</v>
       </c>
@@ -5024,26 +4674,26 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
-      <c r="O9" s="71">
+      <c r="O9" s="60">
         <f t="shared" si="0"/>
         <v>0.69440000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="62">
+      <c r="B10" s="53">
         <v>8</v>
       </c>
       <c r="C10" s="12">
         <v>0.85250000000000004</v>
       </c>
       <c r="D10" s="12"/>
-      <c r="E10" s="50">
+      <c r="E10" s="45">
         <v>0.85250000000000004</v>
       </c>
-      <c r="F10" s="47"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="20">
         <v>0.85250000000000004</v>
       </c>
@@ -5060,26 +4710,26 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
-      <c r="O10" s="71">
+      <c r="O10" s="60">
         <f t="shared" si="0"/>
         <v>0.85250000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="62">
+      <c r="B11" s="53">
         <v>9</v>
       </c>
       <c r="C11" s="12">
         <v>0.58720000000000006</v>
       </c>
       <c r="D11" s="12"/>
-      <c r="E11" s="50">
+      <c r="E11" s="45">
         <v>0.58719999999999994</v>
       </c>
-      <c r="F11" s="47"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="20">
         <v>0.58720000000000006</v>
       </c>
@@ -5096,26 +4746,26 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
-      <c r="O11" s="71">
+      <c r="O11" s="60">
         <f t="shared" si="0"/>
         <v>0.58720000000000006</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="62">
+      <c r="B12" s="53">
         <v>10</v>
       </c>
       <c r="C12" s="12">
         <v>0.75</v>
       </c>
       <c r="D12" s="12"/>
-      <c r="E12" s="50">
+      <c r="E12" s="45">
         <v>0.75</v>
       </c>
-      <c r="F12" s="47"/>
+      <c r="F12" s="42"/>
       <c r="G12" s="20">
         <v>0.75</v>
       </c>
@@ -5132,26 +4782,26 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
-      <c r="O12" s="71">
+      <c r="O12" s="60">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="62">
+      <c r="B13" s="53">
         <v>11</v>
       </c>
       <c r="C13" s="12">
         <v>0.92</v>
       </c>
       <c r="D13" s="12"/>
-      <c r="E13" s="50">
+      <c r="E13" s="45">
         <v>0.92</v>
       </c>
-      <c r="F13" s="47"/>
+      <c r="F13" s="42"/>
       <c r="G13" s="20">
         <v>0.92</v>
       </c>
@@ -5168,26 +4818,26 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
-      <c r="O13" s="71">
+      <c r="O13" s="60">
         <f t="shared" si="0"/>
         <v>0.92</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="62">
+      <c r="B14" s="53">
         <v>12</v>
       </c>
       <c r="C14" s="12">
         <v>0.72060000000000002</v>
       </c>
       <c r="D14" s="12"/>
-      <c r="E14" s="55">
+      <c r="E14" s="49">
         <v>0.74239999999999995</v>
       </c>
-      <c r="F14" s="47"/>
+      <c r="F14" s="42"/>
       <c r="G14" s="20">
         <v>0.72060000000000002</v>
       </c>
@@ -5204,26 +4854,26 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
-      <c r="O14" s="71">
+      <c r="O14" s="60">
         <f t="shared" si="0"/>
         <v>0.72060000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="62">
+      <c r="B15" s="53">
         <v>13</v>
       </c>
       <c r="C15" s="12">
         <v>0.71830000000000005</v>
       </c>
       <c r="D15" s="12"/>
-      <c r="E15" s="55">
+      <c r="E15" s="49">
         <v>0.72860000000000003</v>
       </c>
-      <c r="F15" s="47"/>
+      <c r="F15" s="42"/>
       <c r="G15" s="20">
         <v>0.71830000000000005</v>
       </c>
@@ -5240,26 +4890,26 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
-      <c r="O15" s="71">
+      <c r="O15" s="60">
         <f t="shared" si="0"/>
         <v>0.71830000000000005</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="62">
+      <c r="B16" s="53">
         <v>14</v>
       </c>
       <c r="C16" s="12">
         <v>0.53259999999999996</v>
       </c>
       <c r="D16" s="12"/>
-      <c r="E16" s="55">
+      <c r="E16" s="49">
         <v>0.53849999999999998</v>
       </c>
-      <c r="F16" s="47"/>
+      <c r="F16" s="42"/>
       <c r="G16" s="20">
         <v>0.53259999999999996</v>
       </c>
@@ -5276,26 +4926,26 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
-      <c r="O16" s="71">
+      <c r="O16" s="60">
         <f t="shared" si="0"/>
         <v>0.53390000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="62">
+      <c r="B17" s="53">
         <v>15</v>
       </c>
       <c r="C17" s="12">
         <v>0.68989999999999996</v>
       </c>
       <c r="D17" s="12"/>
-      <c r="E17" s="55">
+      <c r="E17" s="49">
         <v>0.70760000000000001</v>
       </c>
-      <c r="F17" s="47"/>
+      <c r="F17" s="42"/>
       <c r="G17" s="21">
         <v>0.69530000000000003</v>
       </c>
@@ -5312,26 +4962,26 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
-      <c r="O17" s="71">
+      <c r="O17" s="60">
         <f t="shared" si="0"/>
         <v>0.69530000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="62">
+      <c r="B18" s="53">
         <v>16</v>
       </c>
       <c r="C18" s="12">
         <v>0.57450000000000001</v>
       </c>
       <c r="D18" s="12"/>
-      <c r="E18" s="55">
+      <c r="E18" s="49">
         <v>0.58040000000000003</v>
       </c>
-      <c r="F18" s="47"/>
+      <c r="F18" s="42"/>
       <c r="G18" s="20">
         <v>0.57530000000000003</v>
       </c>
@@ -5348,26 +4998,26 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
-      <c r="O18" s="71">
+      <c r="O18" s="60">
         <f t="shared" si="0"/>
         <v>0.57530000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="61" t="s">
+      <c r="A19" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="62">
+      <c r="B19" s="53">
         <v>17</v>
       </c>
       <c r="C19" s="12">
         <v>0.57609999999999995</v>
       </c>
       <c r="D19" s="12"/>
-      <c r="E19" s="50">
+      <c r="E19" s="45">
         <v>0.57729999999999992</v>
       </c>
-      <c r="F19" s="47"/>
+      <c r="F19" s="42"/>
       <c r="G19" s="20">
         <v>0.57730000000000004</v>
       </c>
@@ -5384,27 +5034,27 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
-      <c r="O19" s="71">
+      <c r="O19" s="60">
         <f t="shared" si="0"/>
         <v>0.57730000000000004</v>
       </c>
       <c r="T19" s="20"/>
     </row>
     <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="62">
+      <c r="B20" s="53">
         <v>18</v>
       </c>
       <c r="C20" s="12">
         <v>0.43430000000000002</v>
       </c>
       <c r="D20" s="12"/>
-      <c r="E20" s="55">
+      <c r="E20" s="49">
         <v>0.43969999999999998</v>
       </c>
-      <c r="F20" s="47"/>
+      <c r="F20" s="42"/>
       <c r="G20" s="20">
         <v>0.4345</v>
       </c>
@@ -5421,27 +5071,27 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
-      <c r="O20" s="71">
+      <c r="O20" s="60">
         <f t="shared" si="0"/>
         <v>0.4345</v>
       </c>
       <c r="T20" s="20"/>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="62">
+      <c r="B21" s="53">
         <v>19</v>
       </c>
       <c r="C21" s="12">
         <v>0.50209999999999999</v>
       </c>
       <c r="D21" s="12"/>
-      <c r="E21" s="50">
+      <c r="E21" s="45">
         <v>0.5081</v>
       </c>
-      <c r="F21" s="47"/>
+      <c r="F21" s="42"/>
       <c r="G21" s="20">
         <v>0.5081</v>
       </c>
@@ -5458,27 +5108,27 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
-      <c r="O21" s="71">
+      <c r="O21" s="60">
         <f t="shared" si="0"/>
         <v>0.5081</v>
       </c>
       <c r="T21" s="20"/>
     </row>
     <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="62">
+      <c r="B22" s="53">
         <v>20</v>
       </c>
       <c r="C22" s="12">
         <v>0.77910000000000001</v>
       </c>
       <c r="D22" s="12"/>
-      <c r="E22" s="55">
+      <c r="E22" s="49">
         <v>0.79379999999999995</v>
       </c>
-      <c r="F22" s="47"/>
+      <c r="F22" s="42"/>
       <c r="G22" s="20">
         <v>0.77910000000000001</v>
       </c>
@@ -5495,7 +5145,7 @@
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
-      <c r="O22" s="71">
+      <c r="O22" s="60">
         <f t="shared" si="0"/>
         <v>0.77910000000000001</v>
       </c>
@@ -5503,20 +5153,20 @@
       <c r="U22" s="20"/>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="61" t="s">
+      <c r="A23" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="62">
+      <c r="B23" s="53">
         <v>21</v>
       </c>
       <c r="C23" s="12">
         <v>0.57979999999999998</v>
       </c>
       <c r="D23" s="12"/>
-      <c r="E23" s="55">
+      <c r="E23" s="49">
         <v>0.58789999999999998</v>
       </c>
-      <c r="F23" s="47"/>
+      <c r="F23" s="42"/>
       <c r="G23" s="20">
         <v>0.57979999999999998</v>
       </c>
@@ -5533,7 +5183,7 @@
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
-      <c r="O23" s="71">
+      <c r="O23" s="60">
         <f t="shared" si="0"/>
         <v>0.57979999999999998</v>
       </c>
@@ -5541,20 +5191,20 @@
       <c r="U23" s="20"/>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="62">
+      <c r="B24" s="53">
         <v>22</v>
       </c>
       <c r="C24" s="12">
         <v>1</v>
       </c>
       <c r="D24" s="12"/>
-      <c r="E24" s="50">
-        <v>1</v>
-      </c>
-      <c r="F24" s="47"/>
+      <c r="E24" s="45">
+        <v>1</v>
+      </c>
+      <c r="F24" s="42"/>
       <c r="G24" s="20">
         <v>1</v>
       </c>
@@ -5571,7 +5221,7 @@
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
-      <c r="O24" s="71">
+      <c r="O24" s="60">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -5579,20 +5229,20 @@
       <c r="U24" s="20"/>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="61" t="s">
+      <c r="A25" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="62">
+      <c r="B25" s="53">
         <v>23</v>
       </c>
       <c r="C25" s="12">
         <v>0.85109999999999997</v>
       </c>
       <c r="D25" s="12"/>
-      <c r="E25" s="50">
+      <c r="E25" s="45">
         <v>0.85109999999999997</v>
       </c>
-      <c r="F25" s="47"/>
+      <c r="F25" s="42"/>
       <c r="G25" s="20">
         <v>0.85109999999999997</v>
       </c>
@@ -5609,7 +5259,7 @@
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
-      <c r="O25" s="71">
+      <c r="O25" s="60">
         <f t="shared" si="0"/>
         <v>0.85109999999999997</v>
       </c>
@@ -5617,20 +5267,20 @@
       <c r="U25" s="20"/>
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="61" t="s">
+      <c r="A26" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="62">
+      <c r="B26" s="53">
         <v>24</v>
       </c>
       <c r="C26" s="12">
         <v>0.73509999999999998</v>
       </c>
       <c r="D26" s="12"/>
-      <c r="E26" s="50">
+      <c r="E26" s="45">
         <v>0.73510000000000009</v>
       </c>
-      <c r="F26" s="47"/>
+      <c r="F26" s="42"/>
       <c r="G26" s="20">
         <v>0.73509999999999998</v>
       </c>
@@ -5647,7 +5297,7 @@
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
-      <c r="O26" s="71">
+      <c r="O26" s="60">
         <f t="shared" si="0"/>
         <v>0.73509999999999998</v>
       </c>
@@ -5655,20 +5305,20 @@
       <c r="U26" s="20"/>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="61" t="s">
+      <c r="A27" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="62">
+      <c r="B27" s="53">
         <v>25</v>
       </c>
       <c r="C27" s="12">
         <v>0.5323</v>
       </c>
       <c r="D27" s="12"/>
-      <c r="E27" s="50">
+      <c r="E27" s="45">
         <v>0.53290000000000004</v>
       </c>
-      <c r="F27" s="47"/>
+      <c r="F27" s="42"/>
       <c r="G27" s="20">
         <v>0.53290000000000004</v>
       </c>
@@ -5685,7 +5335,7 @@
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
-      <c r="O27" s="71">
+      <c r="O27" s="60">
         <f t="shared" si="0"/>
         <v>0.53290000000000004</v>
       </c>
@@ -5693,20 +5343,20 @@
       <c r="U27" s="20"/>
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="61" t="s">
+      <c r="A28" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="62">
+      <c r="B28" s="53">
         <v>26</v>
       </c>
       <c r="C28" s="12">
         <v>0.48670000000000002</v>
       </c>
       <c r="D28" s="12"/>
-      <c r="E28" s="50">
+      <c r="E28" s="45">
         <v>0.48950000000000005</v>
       </c>
-      <c r="F28" s="47"/>
+      <c r="F28" s="42"/>
       <c r="G28" s="21">
         <v>0.48609999999999998</v>
       </c>
@@ -5723,7 +5373,7 @@
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
-      <c r="O28" s="71">
+      <c r="O28" s="60">
         <f t="shared" si="0"/>
         <v>0.48949999999999999</v>
       </c>
@@ -5731,20 +5381,20 @@
       <c r="U28" s="20"/>
     </row>
     <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="61" t="s">
+      <c r="A29" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="62">
+      <c r="B29" s="53">
         <v>27</v>
       </c>
       <c r="C29" s="12">
         <v>0.46</v>
       </c>
       <c r="D29" s="12"/>
-      <c r="E29" s="50">
+      <c r="E29" s="45">
         <v>0.47259999999999996</v>
       </c>
-      <c r="F29" s="47"/>
+      <c r="F29" s="42"/>
       <c r="G29" s="21">
         <v>0.46210000000000001</v>
       </c>
@@ -5761,7 +5411,7 @@
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
-      <c r="O29" s="71">
+      <c r="O29" s="60">
         <f t="shared" si="0"/>
         <v>0.47260000000000002</v>
       </c>
@@ -5769,20 +5419,20 @@
       <c r="U29" s="20"/>
     </row>
     <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="62">
+      <c r="B30" s="53">
         <v>28</v>
       </c>
       <c r="C30" s="12">
         <v>0.54820000000000002</v>
       </c>
       <c r="D30" s="12"/>
-      <c r="E30" s="50">
+      <c r="E30" s="45">
         <v>0.54820000000000002</v>
       </c>
-      <c r="F30" s="47"/>
+      <c r="F30" s="42"/>
       <c r="G30" s="21">
         <v>0.54820000000000002</v>
       </c>
@@ -5799,7 +5449,7 @@
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
-      <c r="O30" s="71">
+      <c r="O30" s="60">
         <f t="shared" si="0"/>
         <v>0.54820000000000002</v>
       </c>
@@ -5807,20 +5457,20 @@
       <c r="U30" s="20"/>
     </row>
     <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="61" t="s">
+      <c r="A31" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="62">
+      <c r="B31" s="53">
         <v>29</v>
       </c>
       <c r="C31" s="12">
         <v>0.46550000000000002</v>
       </c>
       <c r="D31" s="12"/>
-      <c r="E31" s="55">
+      <c r="E31" s="49">
         <v>0.47850000000000004</v>
       </c>
-      <c r="F31" s="47"/>
+      <c r="F31" s="42"/>
       <c r="G31" s="21">
         <v>0.47060000000000002</v>
       </c>
@@ -5837,7 +5487,7 @@
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
-      <c r="O31" s="71">
+      <c r="O31" s="60">
         <f t="shared" si="0"/>
         <v>0.4723</v>
       </c>
@@ -5845,20 +5495,20 @@
       <c r="U31" s="20"/>
     </row>
     <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="61" t="s">
+      <c r="A32" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="62">
+      <c r="B32" s="53">
         <v>30</v>
       </c>
       <c r="C32" s="12">
         <v>0.62639999999999996</v>
       </c>
       <c r="D32" s="12"/>
-      <c r="E32" s="50">
+      <c r="E32" s="45">
         <v>0.6331</v>
       </c>
-      <c r="F32" s="47"/>
+      <c r="F32" s="42"/>
       <c r="G32" s="21">
         <v>0.6331</v>
       </c>
@@ -5875,27 +5525,27 @@
       <c r="L32" s="12"/>
       <c r="M32" s="12"/>
       <c r="N32" s="12"/>
-      <c r="O32" s="71">
+      <c r="O32" s="60">
         <f t="shared" si="0"/>
         <v>0.6331</v>
       </c>
       <c r="T32" s="20"/>
     </row>
     <row r="33" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="61" t="s">
+      <c r="A33" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="62">
+      <c r="B33" s="53">
         <v>31</v>
       </c>
       <c r="C33" s="12">
         <v>0.59670000000000001</v>
       </c>
       <c r="D33" s="12"/>
-      <c r="E33" s="50">
+      <c r="E33" s="45">
         <v>0.60119999999999996</v>
       </c>
-      <c r="F33" s="47"/>
+      <c r="F33" s="42"/>
       <c r="G33" s="22">
         <v>0.59770000000000001</v>
       </c>
@@ -5912,27 +5562,27 @@
       <c r="L33" s="12"/>
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
-      <c r="O33" s="71">
+      <c r="O33" s="60">
         <f t="shared" si="0"/>
         <v>0.60119999999999996</v>
       </c>
       <c r="T33" s="20"/>
     </row>
     <row r="34" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="61" t="s">
+      <c r="A34" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="62">
+      <c r="B34" s="53">
         <v>32</v>
       </c>
       <c r="C34" s="12">
         <v>0.50619999999999998</v>
       </c>
       <c r="D34" s="12"/>
-      <c r="E34" s="55">
+      <c r="E34" s="49">
         <v>0.50840000000000007</v>
       </c>
-      <c r="F34" s="47"/>
+      <c r="F34" s="42"/>
       <c r="G34" s="21">
         <v>0.50829999999999997</v>
       </c>
@@ -5949,27 +5599,27 @@
       <c r="L34" s="12"/>
       <c r="M34" s="12"/>
       <c r="N34" s="12"/>
-      <c r="O34" s="71">
+      <c r="O34" s="60">
         <f t="shared" si="0"/>
         <v>0.50829999999999997</v>
       </c>
       <c r="T34" s="20"/>
     </row>
     <row r="35" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="61" t="s">
+      <c r="A35" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="62">
+      <c r="B35" s="53">
         <v>33</v>
       </c>
       <c r="C35" s="12">
         <v>0.47820000000000001</v>
       </c>
       <c r="D35" s="12"/>
-      <c r="E35" s="55">
+      <c r="E35" s="49">
         <v>0.4829</v>
       </c>
-      <c r="F35" s="47"/>
+      <c r="F35" s="42"/>
       <c r="G35" s="21">
         <v>0.47749999999999998</v>
       </c>
@@ -5986,27 +5636,27 @@
       <c r="L35" s="12"/>
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
-      <c r="O35" s="71">
+      <c r="O35" s="60">
         <f t="shared" si="0"/>
         <v>0.47749999999999998</v>
       </c>
       <c r="T35" s="20"/>
     </row>
     <row r="36" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="61" t="s">
+      <c r="A36" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="62">
+      <c r="B36" s="53">
         <v>34</v>
       </c>
       <c r="C36" s="12">
         <v>0.60140000000000005</v>
       </c>
       <c r="D36" s="12"/>
-      <c r="E36" s="55">
+      <c r="E36" s="49">
         <v>0.61360000000000003</v>
       </c>
-      <c r="F36" s="47"/>
+      <c r="F36" s="42"/>
       <c r="G36" s="21">
         <v>0.60640000000000005</v>
       </c>
@@ -6023,27 +5673,27 @@
       <c r="L36" s="12"/>
       <c r="M36" s="12"/>
       <c r="N36" s="12"/>
-      <c r="O36" s="71">
+      <c r="O36" s="60">
         <f t="shared" si="0"/>
         <v>0.60640000000000005</v>
       </c>
       <c r="T36" s="20"/>
     </row>
     <row r="37" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="63" t="s">
+      <c r="A37" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="64">
+      <c r="B37" s="55">
         <v>35</v>
       </c>
       <c r="C37" s="13">
         <v>0.84030000000000005</v>
       </c>
       <c r="D37" s="13"/>
-      <c r="E37" s="51">
+      <c r="E37" s="46">
         <v>0.84030000000000005</v>
       </c>
-      <c r="F37" s="48"/>
+      <c r="F37" s="43"/>
       <c r="G37" s="34">
         <v>0.84030000000000005</v>
       </c>
@@ -6060,15 +5710,15 @@
       <c r="L37" s="13"/>
       <c r="M37" s="13"/>
       <c r="N37" s="13"/>
-      <c r="O37" s="72">
+      <c r="O37" s="61">
         <f t="shared" si="0"/>
         <v>0.84030000000000005</v>
       </c>
       <c r="T37" s="20"/>
     </row>
     <row r="38" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="65"/>
-      <c r="B38" s="66"/>
+      <c r="A38" s="56"/>
+      <c r="B38" s="57"/>
       <c r="T38" s="20"/>
     </row>
     <row r="39" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -6082,681 +5732,681 @@
     <mergeCell ref="A1:B2"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:E3">
-    <cfRule type="cellIs" dxfId="239" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="148" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:E4">
-    <cfRule type="cellIs" dxfId="238" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="145" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="237" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="146" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="236" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="143" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:E17">
-    <cfRule type="cellIs" dxfId="235" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="142" operator="equal">
       <formula>$O$17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="234" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="141" operator="equal">
       <formula>$O$17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="233" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="140" operator="equal">
       <formula>$O$18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="232" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="138" operator="equal">
       <formula>$O$19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:E19">
-    <cfRule type="cellIs" dxfId="231" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="137" operator="equal">
       <formula>$O$19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:E18">
-    <cfRule type="cellIs" dxfId="230" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="136" operator="equal">
       <formula>$O$18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="229" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="135" operator="equal">
       <formula>$O$20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:E20">
-    <cfRule type="cellIs" dxfId="228" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="134" operator="equal">
       <formula>$O$20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="227" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="133" operator="equal">
       <formula>$O$21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:E21">
-    <cfRule type="cellIs" dxfId="226" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="132" operator="equal">
       <formula>$O$21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="225" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="131" operator="equal">
       <formula>$O$22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:E22">
-    <cfRule type="cellIs" dxfId="224" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="130" operator="equal">
       <formula>$O$22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="223" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="129" operator="equal">
       <formula>$O$23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:E23">
-    <cfRule type="cellIs" dxfId="222" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="128" operator="equal">
       <formula>$O$23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:N28">
-    <cfRule type="cellIs" dxfId="221" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="127" operator="equal">
       <formula>$O$28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="220" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="124" operator="equal">
       <formula>$O$29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:E29">
-    <cfRule type="cellIs" dxfId="219" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="123" operator="equal">
       <formula>$O$29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="218" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="122" operator="equal">
       <formula>$O$30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:E30">
-    <cfRule type="cellIs" dxfId="217" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="121" operator="equal">
       <formula>$O$30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="216" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="119" operator="equal">
       <formula>$O$31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="215" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="117" operator="equal">
       <formula>$O$32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="214" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="116" operator="equal">
       <formula>$O$33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="213" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="115" operator="equal">
       <formula>$O$34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="212" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="114" operator="equal">
       <formula>$O$35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:E35">
-    <cfRule type="cellIs" dxfId="211" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="113" operator="equal">
       <formula>$O$35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:E34">
-    <cfRule type="cellIs" dxfId="210" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="112" operator="equal">
       <formula>$O$34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:E33">
-    <cfRule type="cellIs" dxfId="209" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="111" operator="equal">
       <formula>$O$33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:E32">
-    <cfRule type="cellIs" dxfId="208" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="110" operator="equal">
       <formula>$O$32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:E31">
-    <cfRule type="cellIs" dxfId="207" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="109" operator="equal">
       <formula>$O$31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="206" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="108" operator="equal">
       <formula>$O$36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="205" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="106" operator="equal">
       <formula>$O$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:E37">
-    <cfRule type="cellIs" dxfId="204" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="105" operator="equal">
       <formula>$O$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E36">
-    <cfRule type="cellIs" dxfId="203" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="104" operator="equal">
       <formula>$O$36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="cellIs" dxfId="202" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="103" operator="equal">
       <formula>$O$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:E27">
-    <cfRule type="cellIs" dxfId="201" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="102" operator="equal">
       <formula>$O$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="cellIs" dxfId="200" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="101" operator="equal">
       <formula>$O$26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:E26">
-    <cfRule type="cellIs" dxfId="199" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="100" operator="equal">
       <formula>$O$26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="198" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="99" operator="equal">
       <formula>$O$25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:E25">
-    <cfRule type="cellIs" dxfId="197" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="98" operator="equal">
       <formula>$O$25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="196" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="97" operator="equal">
       <formula>$O$24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:E24">
-    <cfRule type="cellIs" dxfId="195" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="96" operator="equal">
       <formula>$O$24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="194" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="95" operator="equal">
       <formula>$O$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:E16">
-    <cfRule type="cellIs" dxfId="193" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="94" operator="equal">
       <formula>$O$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="192" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="93" operator="equal">
       <formula>$O$15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:E15">
-    <cfRule type="cellIs" dxfId="191" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="92" operator="equal">
       <formula>$O$15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="190" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="91" operator="equal">
       <formula>$O$14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:E14">
-    <cfRule type="cellIs" dxfId="189" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="90" operator="equal">
       <formula>$O$14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="188" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="89" operator="equal">
       <formula>$O$13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:E13">
-    <cfRule type="cellIs" dxfId="187" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="88" operator="equal">
       <formula>$O$13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="186" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="87" operator="equal">
       <formula>$O$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:E12">
-    <cfRule type="cellIs" dxfId="185" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="86" operator="equal">
       <formula>$O$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="184" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="85" operator="equal">
       <formula>$O$11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:E11">
-    <cfRule type="cellIs" dxfId="183" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="84" operator="equal">
       <formula>$O$11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="182" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="83" operator="equal">
       <formula>$O$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:E10">
-    <cfRule type="cellIs" dxfId="181" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="82" operator="equal">
       <formula>$O$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="180" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="81" operator="equal">
       <formula>$O$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:E9">
-    <cfRule type="cellIs" dxfId="179" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="80" operator="equal">
       <formula>$O$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="178" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="79" operator="equal">
       <formula>$O$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:E8">
-    <cfRule type="cellIs" dxfId="177" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="78" operator="equal">
       <formula>$O$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="176" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="76" operator="equal">
       <formula>$O$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="77" operator="equal">
       <formula>$O$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:E7">
-    <cfRule type="cellIs" dxfId="174" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="74" operator="equal">
       <formula>$O$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="75" operator="equal">
       <formula>$O$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="172" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="73" operator="equal">
       <formula>$O$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:E6">
-    <cfRule type="cellIs" dxfId="171" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="72" operator="equal">
       <formula>$O$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="170" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="71" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:E5">
-    <cfRule type="cellIs" dxfId="169" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="70" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:N3">
-    <cfRule type="cellIs" dxfId="168" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="67" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:N4">
-    <cfRule type="cellIs" dxfId="167" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="65" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:N5">
-    <cfRule type="cellIs" dxfId="166" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="64" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:N6">
-    <cfRule type="cellIs" dxfId="165" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="63" operator="equal">
       <formula>$O$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:N7">
-    <cfRule type="cellIs" dxfId="164" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="61" operator="equal">
       <formula>$O$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="62" operator="equal">
       <formula>$O$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:N8">
-    <cfRule type="cellIs" dxfId="162" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="60" operator="equal">
       <formula>$O$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:N9">
-    <cfRule type="cellIs" dxfId="161" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="59" operator="equal">
       <formula>$O$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:N10">
-    <cfRule type="cellIs" dxfId="160" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="58" operator="equal">
       <formula>$O$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:N11">
-    <cfRule type="cellIs" dxfId="159" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="57" operator="equal">
       <formula>$O$11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:N12">
-    <cfRule type="cellIs" dxfId="158" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="56" operator="equal">
       <formula>$O$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:N13">
-    <cfRule type="cellIs" dxfId="157" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="55" operator="equal">
       <formula>$O$13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:N14">
-    <cfRule type="cellIs" dxfId="156" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="54" operator="equal">
       <formula>$O$14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:N15">
-    <cfRule type="cellIs" dxfId="155" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="53" operator="equal">
       <formula>$O$15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:N16">
-    <cfRule type="cellIs" dxfId="154" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="52" operator="equal">
       <formula>$O$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:N17">
-    <cfRule type="cellIs" dxfId="153" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="51" operator="equal">
       <formula>$O$17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:N18">
-    <cfRule type="cellIs" dxfId="152" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="50" operator="equal">
       <formula>$O$18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:N19">
-    <cfRule type="cellIs" dxfId="151" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="49" operator="equal">
       <formula>$O$19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:N20">
-    <cfRule type="cellIs" dxfId="150" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="48" operator="equal">
       <formula>$O$20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21:N21">
-    <cfRule type="cellIs" dxfId="149" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="47" operator="equal">
       <formula>$O$21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:N22">
-    <cfRule type="cellIs" dxfId="148" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="46" operator="equal">
       <formula>$O$22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:N23">
-    <cfRule type="cellIs" dxfId="147" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="45" operator="equal">
       <formula>$O$23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:N24">
-    <cfRule type="cellIs" dxfId="146" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="44" operator="equal">
       <formula>$O$24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:N25">
-    <cfRule type="cellIs" dxfId="145" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="43" operator="equal">
       <formula>$O$25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:N26">
-    <cfRule type="cellIs" dxfId="144" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="42" operator="equal">
       <formula>$O$26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:N27">
-    <cfRule type="cellIs" dxfId="143" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="41" operator="equal">
       <formula>$O$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:N29">
-    <cfRule type="cellIs" dxfId="142" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="40" operator="equal">
       <formula>$O$29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:N30">
-    <cfRule type="cellIs" dxfId="141" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="39" operator="equal">
       <formula>$O$30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:N31">
-    <cfRule type="cellIs" dxfId="140" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="38" operator="equal">
       <formula>$O$31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:N32">
-    <cfRule type="cellIs" dxfId="139" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="37" operator="equal">
       <formula>$O$32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33:N33">
-    <cfRule type="cellIs" dxfId="138" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="36" operator="equal">
       <formula>$O$33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:N34">
-    <cfRule type="cellIs" dxfId="137" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="35" operator="equal">
       <formula>$O$34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35:N35">
-    <cfRule type="cellIs" dxfId="136" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="34" operator="equal">
       <formula>$O$35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36:N36">
-    <cfRule type="cellIs" dxfId="135" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="33" operator="equal">
       <formula>$O$36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37:N37">
-    <cfRule type="cellIs" dxfId="134" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="32" operator="equal">
       <formula>$O$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T30">
-    <cfRule type="cellIs" dxfId="133" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="31" operator="equal">
       <formula>$O$28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T19">
-    <cfRule type="cellIs" dxfId="132" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="30" operator="equal">
       <formula>$O$17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T20">
-    <cfRule type="cellIs" dxfId="131" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="29" operator="equal">
       <formula>$O$18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T21">
-    <cfRule type="cellIs" dxfId="130" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="28" operator="equal">
       <formula>$O$19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T22">
-    <cfRule type="cellIs" dxfId="129" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="27" operator="equal">
       <formula>$O$20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T23">
-    <cfRule type="cellIs" dxfId="128" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="26" operator="equal">
       <formula>$O$21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T24">
-    <cfRule type="cellIs" dxfId="127" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="25" operator="equal">
       <formula>$O$22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T25">
-    <cfRule type="cellIs" dxfId="126" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="24" operator="equal">
       <formula>$O$23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T26">
-    <cfRule type="cellIs" dxfId="125" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="23" operator="equal">
       <formula>$O$24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T27">
-    <cfRule type="cellIs" dxfId="124" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="22" operator="equal">
       <formula>$O$25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T28">
-    <cfRule type="cellIs" dxfId="123" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="21" operator="equal">
       <formula>$O$26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T29">
-    <cfRule type="cellIs" dxfId="122" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="20" operator="equal">
       <formula>$O$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T31">
-    <cfRule type="cellIs" dxfId="121" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="19" operator="equal">
       <formula>$O$29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T32">
-    <cfRule type="cellIs" dxfId="120" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="18" operator="equal">
       <formula>$O$30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T33">
-    <cfRule type="cellIs" dxfId="119" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="17" operator="equal">
       <formula>$O$31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T34">
-    <cfRule type="cellIs" dxfId="118" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="16" operator="equal">
       <formula>$O$32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T35">
-    <cfRule type="cellIs" dxfId="117" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="15" operator="equal">
       <formula>$O$33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T36">
-    <cfRule type="cellIs" dxfId="116" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="14" operator="equal">
       <formula>$O$34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T37">
-    <cfRule type="cellIs" dxfId="115" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="13" operator="equal">
       <formula>$O$35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T38">
-    <cfRule type="cellIs" dxfId="114" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="12" operator="equal">
       <formula>$O$36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T39">
-    <cfRule type="cellIs" dxfId="113" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="11" operator="equal">
       <formula>$O$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U22">
-    <cfRule type="cellIs" dxfId="112" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="10" operator="equal">
       <formula>$O$28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U23">
-    <cfRule type="cellIs" dxfId="111" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="9" operator="equal">
       <formula>$O$29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U24">
-    <cfRule type="cellIs" dxfId="110" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="8" operator="equal">
       <formula>$O$30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U25">
-    <cfRule type="cellIs" dxfId="109" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="7" operator="equal">
       <formula>$O$31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U26">
-    <cfRule type="cellIs" dxfId="108" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="6" operator="equal">
       <formula>$O$32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U27">
-    <cfRule type="cellIs" dxfId="107" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="5" operator="equal">
       <formula>$O$33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U28">
-    <cfRule type="cellIs" dxfId="106" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="4" operator="equal">
       <formula>$O$34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U29">
-    <cfRule type="cellIs" dxfId="105" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="3" operator="equal">
       <formula>$O$35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U30">
-    <cfRule type="cellIs" dxfId="104" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="2" operator="equal">
       <formula>$O$36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U31">
-    <cfRule type="cellIs" dxfId="103" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="1" operator="equal">
       <formula>$O$37</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6793,10 +6443,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="71"/>
       <c r="C1" s="9" t="s">
         <v>7</v>
       </c>
@@ -8289,10 +7939,10 @@
       <c r="S36" s="20"/>
     </row>
     <row r="37" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="38" t="s">
+      <c r="A37" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="38"/>
+      <c r="B37" s="72"/>
       <c r="C37" s="31">
         <f>SUM(C2:C36)</f>
         <v>20</v>

--- a/bibliografia/results/Comparativa Resultados.xlsx
+++ b/bibliografia/results/Comparativa Resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\José Enrique\Desktop\cell-formation\cell-formation\bibliografia\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D874B5AD-9C8C-4493-BF17-5EB2BC893B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF7CC0D-31B3-41FD-B32E-AF47A73ADA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="75">
   <si>
     <t>ZODIAC</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>** Posibles soluciones con residual cells. Dataset Gonçalves (inconsistencias?)</t>
+  </si>
+  <si>
+    <t>Elbenani 2012**</t>
   </si>
 </sst>
 </file>
@@ -3217,7 +3220,7 @@
 (Avg)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Elbenani 2012</c:v>
+                  <c:v>Elbenani 2012**</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Ying 2011</c:v>
@@ -3241,13 +3244,13 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4342,7 +4345,7 @@
   <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4383,7 +4386,7 @@
         <v>64</v>
       </c>
       <c r="I1" s="40" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="J1" s="40" t="s">
         <v>13</v>
@@ -6419,8 +6422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD723B9-01A1-48E4-8446-9816D42E97F1}">
   <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:D37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6494,15 +6497,15 @@
         <v>1</v>
       </c>
       <c r="F2" s="12">
-        <f>IF(DatasetA!G3=DatasetA!$O3,1,0)</f>
+        <f>IF(DatasetA!H3=DatasetA!$O3,1,0)</f>
         <v>1</v>
       </c>
       <c r="G2" s="12">
-        <f>IF(DatasetA!H3=DatasetA!$O3,1,0)</f>
+        <f>IF(DatasetA!I3=DatasetA!$O3,1,0)</f>
         <v>1</v>
       </c>
       <c r="H2" s="12">
-        <f>IF(DatasetA!I3=DatasetA!$O3,1,0)</f>
+        <f>IF(DatasetA!J3=DatasetA!$O3,1,0)</f>
         <v>1</v>
       </c>
       <c r="I2" s="12"/>
@@ -6535,15 +6538,15 @@
         <v>1</v>
       </c>
       <c r="F3" s="12">
-        <f>IF(DatasetA!G4=DatasetA!$O4,1,0)</f>
+        <f>IF(DatasetA!H4=DatasetA!$O4,1,0)</f>
         <v>1</v>
       </c>
       <c r="G3" s="12">
-        <f>IF(DatasetA!H4=DatasetA!$O4,1,0)</f>
+        <f>IF(DatasetA!I4=DatasetA!$O4,1,0)</f>
         <v>1</v>
       </c>
       <c r="H3" s="12">
-        <f>IF(DatasetA!I4=DatasetA!$O4,1,0)</f>
+        <f>IF(DatasetA!J4=DatasetA!$O4,1,0)</f>
         <v>1</v>
       </c>
       <c r="I3" s="12"/>
@@ -6576,15 +6579,15 @@
         <v>1</v>
       </c>
       <c r="F4" s="12">
-        <f>IF(DatasetA!G5=DatasetA!$O5,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G4" s="12">
         <f>IF(DatasetA!H5=DatasetA!$O5,1,0)</f>
         <v>0</v>
       </c>
+      <c r="G4" s="12">
+        <f>IF(DatasetA!I5=DatasetA!$O5,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="H4" s="12">
-        <f>IF(DatasetA!I5=DatasetA!$O5,1,0)</f>
+        <f>IF(DatasetA!J5=DatasetA!$O5,1,0)</f>
         <v>1</v>
       </c>
       <c r="I4" s="12"/>
@@ -6617,15 +6620,15 @@
         <v>1</v>
       </c>
       <c r="F5" s="12">
-        <f>IF(DatasetA!G6=DatasetA!$O6,1,0)</f>
+        <f>IF(DatasetA!H6=DatasetA!$O6,1,0)</f>
         <v>1</v>
       </c>
       <c r="G5" s="12">
-        <f>IF(DatasetA!H6=DatasetA!$O6,1,0)</f>
+        <f>IF(DatasetA!I6=DatasetA!$O6,1,0)</f>
         <v>1</v>
       </c>
       <c r="H5" s="12">
-        <f>IF(DatasetA!I6=DatasetA!$O6,1,0)</f>
+        <f>IF(DatasetA!J6=DatasetA!$O6,1,0)</f>
         <v>1</v>
       </c>
       <c r="I5" s="12"/>
@@ -6658,15 +6661,15 @@
         <v>1</v>
       </c>
       <c r="F6" s="12">
-        <f>IF(DatasetA!G7=DatasetA!$O7,1,0)</f>
+        <f>IF(DatasetA!H7=DatasetA!$O7,1,0)</f>
         <v>1</v>
       </c>
       <c r="G6" s="12">
-        <f>IF(DatasetA!H7=DatasetA!$O7,1,0)</f>
+        <f>IF(DatasetA!I7=DatasetA!$O7,1,0)</f>
         <v>1</v>
       </c>
       <c r="H6" s="12">
-        <f>IF(DatasetA!I7=DatasetA!$O7,1,0)</f>
+        <f>IF(DatasetA!J7=DatasetA!$O7,1,0)</f>
         <v>1</v>
       </c>
       <c r="I6" s="12"/>
@@ -6699,15 +6702,15 @@
         <v>1</v>
       </c>
       <c r="F7" s="12">
-        <f>IF(DatasetA!G8=DatasetA!$O8,1,0)</f>
+        <f>IF(DatasetA!H8=DatasetA!$O8,1,0)</f>
         <v>1</v>
       </c>
       <c r="G7" s="12">
-        <f>IF(DatasetA!H8=DatasetA!$O8,1,0)</f>
+        <f>IF(DatasetA!I8=DatasetA!$O8,1,0)</f>
         <v>1</v>
       </c>
       <c r="H7" s="12">
-        <f>IF(DatasetA!I8=DatasetA!$O8,1,0)</f>
+        <f>IF(DatasetA!J8=DatasetA!$O8,1,0)</f>
         <v>1</v>
       </c>
       <c r="I7" s="12"/>
@@ -6740,15 +6743,15 @@
         <v>1</v>
       </c>
       <c r="F8" s="12">
-        <f>IF(DatasetA!G9=DatasetA!$O9,1,0)</f>
+        <f>IF(DatasetA!H9=DatasetA!$O9,1,0)</f>
         <v>1</v>
       </c>
       <c r="G8" s="12">
-        <f>IF(DatasetA!H9=DatasetA!$O9,1,0)</f>
+        <f>IF(DatasetA!I9=DatasetA!$O9,1,0)</f>
         <v>1</v>
       </c>
       <c r="H8" s="12">
-        <f>IF(DatasetA!I9=DatasetA!$O9,1,0)</f>
+        <f>IF(DatasetA!J9=DatasetA!$O9,1,0)</f>
         <v>1</v>
       </c>
       <c r="I8" s="12"/>
@@ -6781,15 +6784,15 @@
         <v>1</v>
       </c>
       <c r="F9" s="12">
-        <f>IF(DatasetA!G10=DatasetA!$O10,1,0)</f>
+        <f>IF(DatasetA!H10=DatasetA!$O10,1,0)</f>
         <v>1</v>
       </c>
       <c r="G9" s="12">
-        <f>IF(DatasetA!H10=DatasetA!$O10,1,0)</f>
+        <f>IF(DatasetA!I10=DatasetA!$O10,1,0)</f>
         <v>1</v>
       </c>
       <c r="H9" s="12">
-        <f>IF(DatasetA!I10=DatasetA!$O10,1,0)</f>
+        <f>IF(DatasetA!J10=DatasetA!$O10,1,0)</f>
         <v>1</v>
       </c>
       <c r="I9" s="12"/>
@@ -6822,15 +6825,15 @@
         <v>1</v>
       </c>
       <c r="F10" s="12">
-        <f>IF(DatasetA!G11=DatasetA!$O11,1,0)</f>
+        <f>IF(DatasetA!H11=DatasetA!$O11,1,0)</f>
         <v>1</v>
       </c>
       <c r="G10" s="12">
-        <f>IF(DatasetA!H11=DatasetA!$O11,1,0)</f>
+        <f>IF(DatasetA!I11=DatasetA!$O11,1,0)</f>
         <v>1</v>
       </c>
       <c r="H10" s="12">
-        <f>IF(DatasetA!I11=DatasetA!$O11,1,0)</f>
+        <f>IF(DatasetA!J11=DatasetA!$O11,1,0)</f>
         <v>1</v>
       </c>
       <c r="I10" s="12"/>
@@ -6863,15 +6866,15 @@
         <v>1</v>
       </c>
       <c r="F11" s="12">
-        <f>IF(DatasetA!G12=DatasetA!$O12,1,0)</f>
+        <f>IF(DatasetA!H12=DatasetA!$O12,1,0)</f>
         <v>1</v>
       </c>
       <c r="G11" s="12">
-        <f>IF(DatasetA!H12=DatasetA!$O12,1,0)</f>
+        <f>IF(DatasetA!I12=DatasetA!$O12,1,0)</f>
         <v>1</v>
       </c>
       <c r="H11" s="12">
-        <f>IF(DatasetA!I12=DatasetA!$O12,1,0)</f>
+        <f>IF(DatasetA!J12=DatasetA!$O12,1,0)</f>
         <v>1</v>
       </c>
       <c r="I11" s="12"/>
@@ -6904,15 +6907,15 @@
         <v>1</v>
       </c>
       <c r="F12" s="12">
-        <f>IF(DatasetA!G13=DatasetA!$O13,1,0)</f>
+        <f>IF(DatasetA!H13=DatasetA!$O13,1,0)</f>
         <v>1</v>
       </c>
       <c r="G12" s="12">
-        <f>IF(DatasetA!H13=DatasetA!$O13,1,0)</f>
+        <f>IF(DatasetA!I13=DatasetA!$O13,1,0)</f>
         <v>1</v>
       </c>
       <c r="H12" s="12">
-        <f>IF(DatasetA!I13=DatasetA!$O13,1,0)</f>
+        <f>IF(DatasetA!J13=DatasetA!$O13,1,0)</f>
         <v>1</v>
       </c>
       <c r="I12" s="12"/>
@@ -6945,15 +6948,15 @@
         <v>1</v>
       </c>
       <c r="F13" s="12">
-        <f>IF(DatasetA!G14=DatasetA!$O14,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G13" s="12">
         <f>IF(DatasetA!H14=DatasetA!$O14,1,0)</f>
         <v>0</v>
       </c>
+      <c r="G13" s="12">
+        <f>IF(DatasetA!I14=DatasetA!$O14,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="H13" s="12">
-        <f>IF(DatasetA!I14=DatasetA!$O14,1,0)</f>
+        <f>IF(DatasetA!J14=DatasetA!$O14,1,0)</f>
         <v>1</v>
       </c>
       <c r="I13" s="12"/>
@@ -6986,15 +6989,15 @@
         <v>1</v>
       </c>
       <c r="F14" s="12">
-        <f>IF(DatasetA!G15=DatasetA!$O15,1,0)</f>
+        <f>IF(DatasetA!H15=DatasetA!$O15,1,0)</f>
         <v>1</v>
       </c>
       <c r="G14" s="12">
-        <f>IF(DatasetA!H15=DatasetA!$O15,1,0)</f>
+        <f>IF(DatasetA!I15=DatasetA!$O15,1,0)</f>
         <v>1</v>
       </c>
       <c r="H14" s="12">
-        <f>IF(DatasetA!I15=DatasetA!$O15,1,0)</f>
+        <f>IF(DatasetA!J15=DatasetA!$O15,1,0)</f>
         <v>1</v>
       </c>
       <c r="I14" s="12"/>
@@ -7027,15 +7030,15 @@
         <v>0</v>
       </c>
       <c r="F15" s="12">
-        <f>IF(DatasetA!G16=DatasetA!$O16,1,0)</f>
+        <f>IF(DatasetA!H16=DatasetA!$O16,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G15" s="12">
+        <f>IF(DatasetA!I16=DatasetA!$O16,1,0)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="12">
-        <f>IF(DatasetA!H16=DatasetA!$O16,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="H15" s="12">
-        <f>IF(DatasetA!I16=DatasetA!$O16,1,0)</f>
+        <f>IF(DatasetA!J16=DatasetA!$O16,1,0)</f>
         <v>0</v>
       </c>
       <c r="I15" s="12"/>
@@ -7068,16 +7071,16 @@
         <v>1</v>
       </c>
       <c r="F16" s="12">
-        <f>IF(DatasetA!G17=DatasetA!$O17,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G16" s="12">
         <f>IF(DatasetA!H17=DatasetA!$O17,1,0)</f>
         <v>0</v>
       </c>
+      <c r="G16" s="12">
+        <f>IF(DatasetA!I17=DatasetA!$O17,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="H16" s="12">
-        <f>IF(DatasetA!I17=DatasetA!$O17,1,0)</f>
-        <v>1</v>
+        <f>IF(DatasetA!J17=DatasetA!$O17,1,0)</f>
+        <v>0</v>
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -7109,15 +7112,15 @@
         <v>1</v>
       </c>
       <c r="F17" s="12">
-        <f>IF(DatasetA!G18=DatasetA!$O18,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G17" s="12">
         <f>IF(DatasetA!H18=DatasetA!$O18,1,0)</f>
         <v>0</v>
       </c>
+      <c r="G17" s="12">
+        <f>IF(DatasetA!I18=DatasetA!$O18,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="H17" s="12">
-        <f>IF(DatasetA!I18=DatasetA!$O18,1,0)</f>
+        <f>IF(DatasetA!J18=DatasetA!$O18,1,0)</f>
         <v>1</v>
       </c>
       <c r="I17" s="12"/>
@@ -7150,15 +7153,15 @@
         <v>1</v>
       </c>
       <c r="F18" s="12">
-        <f>IF(DatasetA!G19=DatasetA!$O19,1,0)</f>
+        <f>IF(DatasetA!H19=DatasetA!$O19,1,0)</f>
         <v>1</v>
       </c>
       <c r="G18" s="12">
-        <f>IF(DatasetA!H19=DatasetA!$O19,1,0)</f>
+        <f>IF(DatasetA!I19=DatasetA!$O19,1,0)</f>
         <v>1</v>
       </c>
       <c r="H18" s="12">
-        <f>IF(DatasetA!I19=DatasetA!$O19,1,0)</f>
+        <f>IF(DatasetA!J19=DatasetA!$O19,1,0)</f>
         <v>1</v>
       </c>
       <c r="I18" s="12"/>
@@ -7192,15 +7195,15 @@
         <v>1</v>
       </c>
       <c r="F19" s="12">
-        <f>IF(DatasetA!G20=DatasetA!$O20,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G19" s="12">
         <f>IF(DatasetA!H20=DatasetA!$O20,1,0)</f>
         <v>0</v>
       </c>
+      <c r="G19" s="12">
+        <f>IF(DatasetA!I20=DatasetA!$O20,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="H19" s="12">
-        <f>IF(DatasetA!I20=DatasetA!$O20,1,0)</f>
+        <f>IF(DatasetA!J20=DatasetA!$O20,1,0)</f>
         <v>1</v>
       </c>
       <c r="I19" s="12"/>
@@ -7234,15 +7237,15 @@
         <v>1</v>
       </c>
       <c r="F20" s="12">
-        <f>IF(DatasetA!G21=DatasetA!$O21,1,0)</f>
+        <f>IF(DatasetA!H21=DatasetA!$O21,1,0)</f>
         <v>1</v>
       </c>
       <c r="G20" s="12">
-        <f>IF(DatasetA!H21=DatasetA!$O21,1,0)</f>
+        <f>IF(DatasetA!I21=DatasetA!$O21,1,0)</f>
         <v>1</v>
       </c>
       <c r="H20" s="12">
-        <f>IF(DatasetA!I21=DatasetA!$O21,1,0)</f>
+        <f>IF(DatasetA!J21=DatasetA!$O21,1,0)</f>
         <v>1</v>
       </c>
       <c r="I20" s="12"/>
@@ -7276,15 +7279,15 @@
         <v>1</v>
       </c>
       <c r="F21" s="12">
-        <f>IF(DatasetA!G22=DatasetA!$O22,1,0)</f>
+        <f>IF(DatasetA!H22=DatasetA!$O22,1,0)</f>
         <v>1</v>
       </c>
       <c r="G21" s="12">
-        <f>IF(DatasetA!H22=DatasetA!$O22,1,0)</f>
+        <f>IF(DatasetA!I22=DatasetA!$O22,1,0)</f>
         <v>1</v>
       </c>
       <c r="H21" s="12">
-        <f>IF(DatasetA!I22=DatasetA!$O22,1,0)</f>
+        <f>IF(DatasetA!J22=DatasetA!$O22,1,0)</f>
         <v>1</v>
       </c>
       <c r="I21" s="12"/>
@@ -7319,15 +7322,15 @@
         <v>1</v>
       </c>
       <c r="F22" s="12">
-        <f>IF(DatasetA!G23=DatasetA!$O23,1,0)</f>
+        <f>IF(DatasetA!H23=DatasetA!$O23,1,0)</f>
         <v>1</v>
       </c>
       <c r="G22" s="12">
-        <f>IF(DatasetA!H23=DatasetA!$O23,1,0)</f>
+        <f>IF(DatasetA!I23=DatasetA!$O23,1,0)</f>
         <v>1</v>
       </c>
       <c r="H22" s="12">
-        <f>IF(DatasetA!I23=DatasetA!$O23,1,0)</f>
+        <f>IF(DatasetA!J23=DatasetA!$O23,1,0)</f>
         <v>1</v>
       </c>
       <c r="I22" s="12"/>
@@ -7362,15 +7365,15 @@
         <v>1</v>
       </c>
       <c r="F23" s="12">
-        <f>IF(DatasetA!G24=DatasetA!$O24,1,0)</f>
+        <f>IF(DatasetA!H24=DatasetA!$O24,1,0)</f>
         <v>1</v>
       </c>
       <c r="G23" s="12">
-        <f>IF(DatasetA!H24=DatasetA!$O24,1,0)</f>
+        <f>IF(DatasetA!I24=DatasetA!$O24,1,0)</f>
         <v>1</v>
       </c>
       <c r="H23" s="12">
-        <f>IF(DatasetA!I24=DatasetA!$O24,1,0)</f>
+        <f>IF(DatasetA!J24=DatasetA!$O24,1,0)</f>
         <v>1</v>
       </c>
       <c r="I23" s="12"/>
@@ -7405,15 +7408,15 @@
         <v>1</v>
       </c>
       <c r="F24" s="12">
-        <f>IF(DatasetA!G25=DatasetA!$O25,1,0)</f>
+        <f>IF(DatasetA!H25=DatasetA!$O25,1,0)</f>
         <v>1</v>
       </c>
       <c r="G24" s="12">
-        <f>IF(DatasetA!H25=DatasetA!$O25,1,0)</f>
+        <f>IF(DatasetA!I25=DatasetA!$O25,1,0)</f>
         <v>1</v>
       </c>
       <c r="H24" s="12">
-        <f>IF(DatasetA!I25=DatasetA!$O25,1,0)</f>
+        <f>IF(DatasetA!J25=DatasetA!$O25,1,0)</f>
         <v>1</v>
       </c>
       <c r="I24" s="12"/>
@@ -7448,15 +7451,15 @@
         <v>1</v>
       </c>
       <c r="F25" s="12">
-        <f>IF(DatasetA!G26=DatasetA!$O26,1,0)</f>
+        <f>IF(DatasetA!H26=DatasetA!$O26,1,0)</f>
         <v>1</v>
       </c>
       <c r="G25" s="12">
-        <f>IF(DatasetA!H26=DatasetA!$O26,1,0)</f>
+        <f>IF(DatasetA!I26=DatasetA!$O26,1,0)</f>
         <v>1</v>
       </c>
       <c r="H25" s="12">
-        <f>IF(DatasetA!I26=DatasetA!$O26,1,0)</f>
+        <f>IF(DatasetA!J26=DatasetA!$O26,1,0)</f>
         <v>1</v>
       </c>
       <c r="I25" s="12"/>
@@ -7491,15 +7494,15 @@
         <v>1</v>
       </c>
       <c r="F26" s="12">
-        <f>IF(DatasetA!G27=DatasetA!$O27,1,0)</f>
+        <f>IF(DatasetA!H27=DatasetA!$O27,1,0)</f>
         <v>1</v>
       </c>
       <c r="G26" s="12">
-        <f>IF(DatasetA!H27=DatasetA!$O27,1,0)</f>
+        <f>IF(DatasetA!I27=DatasetA!$O27,1,0)</f>
         <v>1</v>
       </c>
       <c r="H26" s="12">
-        <f>IF(DatasetA!I27=DatasetA!$O27,1,0)</f>
+        <f>IF(DatasetA!J27=DatasetA!$O27,1,0)</f>
         <v>1</v>
       </c>
       <c r="I26" s="12"/>
@@ -7534,15 +7537,15 @@
         <v>0</v>
       </c>
       <c r="F27" s="12">
-        <f>IF(DatasetA!G28=DatasetA!$O28,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="12">
         <f>IF(DatasetA!H28=DatasetA!$O28,1,0)</f>
         <v>0</v>
       </c>
+      <c r="G27" s="12">
+        <f>IF(DatasetA!I28=DatasetA!$O28,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="H27" s="12">
-        <f>IF(DatasetA!I28=DatasetA!$O28,1,0)</f>
+        <f>IF(DatasetA!J28=DatasetA!$O28,1,0)</f>
         <v>1</v>
       </c>
       <c r="I27" s="12"/>
@@ -7577,16 +7580,16 @@
         <v>0</v>
       </c>
       <c r="F28" s="12">
-        <f>IF(DatasetA!G29=DatasetA!$O29,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="12">
         <f>IF(DatasetA!H29=DatasetA!$O29,1,0)</f>
         <v>0</v>
       </c>
-      <c r="H28" s="12">
+      <c r="G28" s="12">
         <f>IF(DatasetA!I29=DatasetA!$O29,1,0)</f>
         <v>0</v>
+      </c>
+      <c r="H28" s="12">
+        <f>IF(DatasetA!J29=DatasetA!$O29,1,0)</f>
+        <v>1</v>
       </c>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -7620,15 +7623,15 @@
         <v>1</v>
       </c>
       <c r="F29" s="12">
-        <f>IF(DatasetA!G30=DatasetA!$O30,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G29" s="12">
         <f>IF(DatasetA!H30=DatasetA!$O30,1,0)</f>
         <v>0</v>
       </c>
+      <c r="G29" s="12">
+        <f>IF(DatasetA!I30=DatasetA!$O30,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="H29" s="12">
-        <f>IF(DatasetA!I30=DatasetA!$O30,1,0)</f>
+        <f>IF(DatasetA!J30=DatasetA!$O30,1,0)</f>
         <v>1</v>
       </c>
       <c r="I29" s="12"/>
@@ -7663,16 +7666,16 @@
         <v>0</v>
       </c>
       <c r="F30" s="12">
-        <f>IF(DatasetA!G31=DatasetA!$O31,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="12">
         <f>IF(DatasetA!H31=DatasetA!$O31,1,0)</f>
         <v>0</v>
       </c>
-      <c r="H30" s="12">
+      <c r="G30" s="12">
         <f>IF(DatasetA!I31=DatasetA!$O31,1,0)</f>
         <v>0</v>
+      </c>
+      <c r="H30" s="12">
+        <f>IF(DatasetA!J31=DatasetA!$O31,1,0)</f>
+        <v>1</v>
       </c>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
@@ -7681,7 +7684,7 @@
       <c r="M30" s="12"/>
       <c r="N30" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30" s="20"/>
       <c r="T30" s="20"/>
@@ -7706,16 +7709,16 @@
         <v>1</v>
       </c>
       <c r="F31" s="12">
-        <f>IF(DatasetA!G32=DatasetA!$O32,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G31" s="12">
         <f>IF(DatasetA!H32=DatasetA!$O32,1,0)</f>
         <v>0</v>
       </c>
-      <c r="H31" s="12">
+      <c r="G31" s="12">
         <f>IF(DatasetA!I32=DatasetA!$O32,1,0)</f>
         <v>0</v>
+      </c>
+      <c r="H31" s="12">
+        <f>IF(DatasetA!J32=DatasetA!$O32,1,0)</f>
+        <v>1</v>
       </c>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
@@ -7748,16 +7751,16 @@
         <v>0</v>
       </c>
       <c r="F32" s="12">
-        <f>IF(DatasetA!G33=DatasetA!$O33,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="12">
         <f>IF(DatasetA!H33=DatasetA!$O33,1,0)</f>
         <v>0</v>
       </c>
+      <c r="G32" s="12">
+        <f>IF(DatasetA!I33=DatasetA!$O33,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="H32" s="12">
-        <f>IF(DatasetA!I33=DatasetA!$O33,1,0)</f>
-        <v>1</v>
+        <f>IF(DatasetA!J33=DatasetA!$O33,1,0)</f>
+        <v>0</v>
       </c>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
@@ -7790,15 +7793,15 @@
         <v>1</v>
       </c>
       <c r="F33" s="12">
-        <f>IF(DatasetA!G34=DatasetA!$O34,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G33" s="12">
         <f>IF(DatasetA!H34=DatasetA!$O34,1,0)</f>
         <v>0</v>
       </c>
+      <c r="G33" s="12">
+        <f>IF(DatasetA!I34=DatasetA!$O34,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="H33" s="12">
-        <f>IF(DatasetA!I34=DatasetA!$O34,1,0)</f>
+        <f>IF(DatasetA!J34=DatasetA!$O34,1,0)</f>
         <v>1</v>
       </c>
       <c r="I33" s="12"/>
@@ -7832,16 +7835,16 @@
         <v>1</v>
       </c>
       <c r="F34" s="12">
-        <f>IF(DatasetA!G35=DatasetA!$O35,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G34" s="12">
         <f>IF(DatasetA!H35=DatasetA!$O35,1,0)</f>
         <v>0</v>
       </c>
+      <c r="G34" s="12">
+        <f>IF(DatasetA!I35=DatasetA!$O35,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="H34" s="12">
-        <f>IF(DatasetA!I35=DatasetA!$O35,1,0)</f>
-        <v>1</v>
+        <f>IF(DatasetA!J35=DatasetA!$O35,1,0)</f>
+        <v>0</v>
       </c>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
@@ -7874,16 +7877,16 @@
         <v>1</v>
       </c>
       <c r="F35" s="12">
-        <f>IF(DatasetA!G36=DatasetA!$O36,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G35" s="12">
         <f>IF(DatasetA!H36=DatasetA!$O36,1,0)</f>
         <v>0</v>
       </c>
-      <c r="H35" s="12">
+      <c r="G35" s="12">
         <f>IF(DatasetA!I36=DatasetA!$O36,1,0)</f>
         <v>0</v>
+      </c>
+      <c r="H35" s="12">
+        <f>IF(DatasetA!J36=DatasetA!$O36,1,0)</f>
+        <v>1</v>
       </c>
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
@@ -7915,16 +7918,16 @@
         <f>IF(DatasetA!G37=DatasetA!$O37,1,0)</f>
         <v>1</v>
       </c>
-      <c r="F36" s="13">
-        <f>IF(DatasetA!G37=DatasetA!$O37,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G36" s="13">
+      <c r="F36" s="12">
         <f>IF(DatasetA!H37=DatasetA!$O37,1,0)</f>
         <v>0</v>
       </c>
-      <c r="H36" s="13">
+      <c r="G36" s="12">
         <f>IF(DatasetA!I37=DatasetA!$O37,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H36" s="12">
+        <f>IF(DatasetA!J37=DatasetA!$O37,1,0)</f>
         <v>1</v>
       </c>
       <c r="I36" s="13"/>
@@ -7957,15 +7960,15 @@
       </c>
       <c r="F37" s="32">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G37" s="32">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H37" s="32">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I37" s="32">
         <f t="shared" si="1"/>
@@ -7989,7 +7992,7 @@
       </c>
       <c r="N37" s="30">
         <f>SUM(N2:N36)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S37" s="20"/>
     </row>

--- a/bibliografia/results/Comparativa Resultados.xlsx
+++ b/bibliografia/results/Comparativa Resultados.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\José Enrique\Desktop\cell-formation\cell-formation\bibliografia\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josee\Desktop\Departamento\formacion celulas\reproduccion_ulutas\bibliografia\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF7CC0D-31B3-41FD-B32E-AF47A73ADA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6644D062-C33F-4297-8F77-78A1DE76389F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="810" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DatasetA" sheetId="1" r:id="rId1"/>
-    <sheet name="DatasetA-2" sheetId="3" r:id="rId2"/>
-    <sheet name="OlderResults" sheetId="2" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId2"/>
+    <sheet name="DatasetA-2" sheetId="3" r:id="rId3"/>
+    <sheet name="OlderResults" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="76">
   <si>
     <t>ZODIAC</t>
   </si>
@@ -242,9 +243,6 @@
     <t>0,7353*</t>
   </si>
   <si>
-    <t>* SOLUTIONS WITH SINGLETONS</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -264,6 +262,13 @@
   </si>
   <si>
     <t>Elbenani 2012**</t>
+  </si>
+  <si>
+    <t>Martins
+2015</t>
+  </si>
+  <si>
+    <t>Ying 2011**</t>
   </si>
 </sst>
 </file>
@@ -3223,7 +3228,7 @@
                   <c:v>Elbenani 2012**</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Ying 2011</c:v>
+                  <c:v>Ying 2011**</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4345,7 +4350,7 @@
   <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4376,7 +4381,7 @@
       </c>
       <c r="D1" s="63"/>
       <c r="E1" s="62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F1" s="63"/>
       <c r="G1" s="39" t="s">
@@ -4386,12 +4391,14 @@
         <v>64</v>
       </c>
       <c r="I1" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="48"/>
       <c r="L1" s="48"/>
       <c r="M1" s="48"/>
       <c r="N1" s="58"/>
@@ -4399,23 +4406,23 @@
         <v>9</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="68"/>
       <c r="B2" s="69"/>
       <c r="C2" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F2" s="47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G2" s="36"/>
       <c r="H2" s="37"/>
@@ -4426,13 +4433,11 @@
       <c r="M2" s="37"/>
       <c r="N2" s="37"/>
       <c r="O2" s="65"/>
-      <c r="Q2" t="s">
-        <v>67</v>
-      </c>
+      <c r="Q2"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="51">
         <v>1</v>
@@ -4457,7 +4462,9 @@
       <c r="J3" s="12">
         <v>0.82350000000000001</v>
       </c>
-      <c r="K3" s="12"/>
+      <c r="K3" s="12">
+        <v>0.73680000000000001</v>
+      </c>
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
@@ -4468,7 +4475,7 @@
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="53">
         <v>2</v>
@@ -4493,7 +4500,9 @@
       <c r="J4" s="12">
         <v>0.69569999999999999</v>
       </c>
-      <c r="K4" s="12"/>
+      <c r="K4" s="12">
+        <v>0.625</v>
+      </c>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
@@ -4504,7 +4513,7 @@
     </row>
     <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="53">
         <v>3</v>
@@ -4529,7 +4538,9 @@
       <c r="J5" s="12">
         <v>0.79590000000000005</v>
       </c>
-      <c r="K5" s="12"/>
+      <c r="K5" s="12">
+        <v>0.79590000000000005</v>
+      </c>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
@@ -4540,7 +4551,7 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="53">
         <v>4</v>
@@ -4565,7 +4576,9 @@
       <c r="J6" s="12">
         <v>0.76919999999999999</v>
       </c>
-      <c r="K6" s="12"/>
+      <c r="K6" s="12">
+        <v>0.76919999999999999</v>
+      </c>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
@@ -4576,7 +4589,7 @@
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="53">
         <v>5</v>
@@ -4601,7 +4614,9 @@
       <c r="J7" s="12">
         <v>0.60870000000000002</v>
       </c>
-      <c r="K7" s="12"/>
+      <c r="K7" s="12">
+        <v>0.53129999999999999</v>
+      </c>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
@@ -4612,7 +4627,7 @@
     </row>
     <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="53">
         <v>6</v>
@@ -4637,7 +4652,9 @@
       <c r="J8" s="12">
         <v>0.70830000000000004</v>
       </c>
-      <c r="K8" s="12"/>
+      <c r="K8" s="12">
+        <v>0.70369999999999999</v>
+      </c>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
@@ -4648,7 +4665,7 @@
     </row>
     <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="53">
         <v>7</v>
@@ -4673,7 +4690,9 @@
       <c r="J9" s="12">
         <v>0.69440000000000002</v>
       </c>
-      <c r="K9" s="12"/>
+      <c r="K9" s="12">
+        <v>0.68289999999999995</v>
+      </c>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
@@ -4684,7 +4703,7 @@
     </row>
     <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="53">
         <v>8</v>
@@ -4709,7 +4728,9 @@
       <c r="J10" s="12">
         <v>0.85250000000000004</v>
       </c>
-      <c r="K10" s="12"/>
+      <c r="K10" s="12">
+        <v>0.85250000000000004</v>
+      </c>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
@@ -4720,7 +4741,7 @@
     </row>
     <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="53">
         <v>9</v>
@@ -4745,7 +4766,9 @@
       <c r="J11" s="12">
         <v>0.58720000000000006</v>
       </c>
-      <c r="K11" s="12"/>
+      <c r="K11" s="12">
+        <v>0.58720000000000006</v>
+      </c>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
@@ -4756,7 +4779,7 @@
     </row>
     <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="53">
         <v>10</v>
@@ -4781,7 +4804,9 @@
       <c r="J12" s="12">
         <v>0.75</v>
       </c>
-      <c r="K12" s="12"/>
+      <c r="K12" s="12">
+        <v>0.70589999999999997</v>
+      </c>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
@@ -4792,7 +4817,7 @@
     </row>
     <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="53">
         <v>11</v>
@@ -4817,7 +4842,9 @@
       <c r="J13" s="12">
         <v>0.92</v>
       </c>
-      <c r="K13" s="12"/>
+      <c r="K13" s="12">
+        <v>0.92</v>
+      </c>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
@@ -4828,7 +4855,7 @@
     </row>
     <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B14" s="53">
         <v>12</v>
@@ -4853,7 +4880,9 @@
       <c r="J14" s="12">
         <v>0.72060000000000002</v>
       </c>
-      <c r="K14" s="12"/>
+      <c r="K14" s="12">
+        <v>0.6986</v>
+      </c>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
@@ -4864,7 +4893,7 @@
     </row>
     <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B15" s="53">
         <v>13</v>
@@ -4889,7 +4918,9 @@
       <c r="J15" s="12">
         <v>0.71830000000000005</v>
       </c>
-      <c r="K15" s="12"/>
+      <c r="K15" s="12">
+        <v>0.69330000000000003</v>
+      </c>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
@@ -4900,7 +4931,7 @@
     </row>
     <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="53">
         <v>14</v>
@@ -4925,7 +4956,9 @@
       <c r="J16" s="12">
         <v>0.53259999999999996</v>
       </c>
-      <c r="K16" s="12"/>
+      <c r="K16" s="12">
+        <v>0.51959999999999995</v>
+      </c>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
@@ -4936,7 +4969,7 @@
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B17" s="53">
         <v>15</v>
@@ -4949,7 +4982,7 @@
         <v>0.70760000000000001</v>
       </c>
       <c r="F17" s="42"/>
-      <c r="G17" s="21">
+      <c r="G17" s="22">
         <v>0.69530000000000003</v>
       </c>
       <c r="H17" s="12" t="s">
@@ -4961,7 +4994,9 @@
       <c r="J17" s="12">
         <v>0.68989999999999996</v>
       </c>
-      <c r="K17" s="12"/>
+      <c r="K17" s="12">
+        <v>0.67830000000000001</v>
+      </c>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
@@ -4972,7 +5007,7 @@
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" s="53">
         <v>16</v>
@@ -4997,7 +5032,9 @@
       <c r="J18" s="12">
         <v>0.57530000000000003</v>
       </c>
-      <c r="K18" s="12"/>
+      <c r="K18" s="12">
+        <v>0.56369999999999998</v>
+      </c>
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
@@ -5008,7 +5045,7 @@
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" s="53">
         <v>17</v>
@@ -5033,7 +5070,9 @@
       <c r="J19" s="12">
         <v>0.57730000000000004</v>
       </c>
-      <c r="K19" s="12"/>
+      <c r="K19" s="12">
+        <v>0.54459999999999997</v>
+      </c>
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
@@ -5045,7 +5084,7 @@
     </row>
     <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" s="53">
         <v>18</v>
@@ -5070,7 +5109,9 @@
       <c r="J20" s="12">
         <v>0.4345</v>
       </c>
-      <c r="K20" s="12"/>
+      <c r="K20" s="12">
+        <v>0.42930000000000001</v>
+      </c>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
@@ -5082,7 +5123,7 @@
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B21" s="53">
         <v>19</v>
@@ -5107,7 +5148,9 @@
       <c r="J21" s="12">
         <v>0.5081</v>
       </c>
-      <c r="K21" s="12"/>
+      <c r="K21" s="12">
+        <v>0.4965</v>
+      </c>
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
@@ -5119,7 +5162,7 @@
     </row>
     <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" s="53">
         <v>20</v>
@@ -5144,7 +5187,9 @@
       <c r="J22" s="12">
         <v>0.77910000000000001</v>
       </c>
-      <c r="K22" s="12"/>
+      <c r="K22" s="12">
+        <v>0.76539999999999997</v>
+      </c>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
@@ -5157,7 +5202,7 @@
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B23" s="53">
         <v>21</v>
@@ -5182,7 +5227,9 @@
       <c r="J23" s="12">
         <v>0.57979999999999998</v>
       </c>
-      <c r="K23" s="35"/>
+      <c r="K23" s="35">
+        <v>0.58150000000000002</v>
+      </c>
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
@@ -5195,7 +5242,7 @@
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" s="53">
         <v>22</v>
@@ -5220,7 +5267,9 @@
       <c r="J24" s="12">
         <v>1</v>
       </c>
-      <c r="K24" s="12"/>
+      <c r="K24" s="12">
+        <v>1</v>
+      </c>
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
@@ -5233,7 +5282,7 @@
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25" s="53">
         <v>23</v>
@@ -5258,7 +5307,9 @@
       <c r="J25" s="12">
         <v>0.85109999999999997</v>
       </c>
-      <c r="K25" s="12"/>
+      <c r="K25" s="12">
+        <v>0.85109999999999997</v>
+      </c>
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
@@ -5271,7 +5322,7 @@
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B26" s="53">
         <v>24</v>
@@ -5296,7 +5347,9 @@
       <c r="J26" s="12">
         <v>0.73509999999999998</v>
       </c>
-      <c r="K26" s="12"/>
+      <c r="K26" s="12">
+        <v>0.73509999999999998</v>
+      </c>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
@@ -5309,7 +5362,7 @@
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B27" s="53">
         <v>25</v>
@@ -5334,7 +5387,9 @@
       <c r="J27" s="12">
         <v>0.53290000000000004</v>
       </c>
-      <c r="K27" s="12"/>
+      <c r="K27" s="12">
+        <v>0.51949999999999996</v>
+      </c>
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
@@ -5347,7 +5402,7 @@
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B28" s="53">
         <v>26</v>
@@ -5372,7 +5427,9 @@
       <c r="J28" s="12">
         <v>0.48949999999999999</v>
       </c>
-      <c r="K28" s="12"/>
+      <c r="K28" s="12">
+        <v>0.47039999999999998</v>
+      </c>
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
@@ -5385,7 +5442,7 @@
     </row>
     <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29" s="53">
         <v>27</v>
@@ -5410,7 +5467,9 @@
       <c r="J29" s="12">
         <v>0.47260000000000002</v>
       </c>
-      <c r="K29" s="12"/>
+      <c r="K29" s="12">
+        <v>0.44840000000000002</v>
+      </c>
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
@@ -5423,7 +5482,7 @@
     </row>
     <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B30" s="53">
         <v>28</v>
@@ -5448,7 +5507,9 @@
       <c r="J30" s="12">
         <v>0.54820000000000002</v>
       </c>
-      <c r="K30" s="12"/>
+      <c r="K30" s="12">
+        <v>0.54269999999999996</v>
+      </c>
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
@@ -5461,7 +5522,7 @@
     </row>
     <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B31" s="53">
         <v>29</v>
@@ -5486,7 +5547,9 @@
       <c r="J31" s="12">
         <v>0.4723</v>
       </c>
-      <c r="K31" s="12"/>
+      <c r="K31" s="12">
+        <v>0.45569999999999999</v>
+      </c>
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
@@ -5499,7 +5562,7 @@
     </row>
     <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B32" s="53">
         <v>30</v>
@@ -5524,7 +5587,9 @@
       <c r="J32" s="12">
         <v>0.6331</v>
       </c>
-      <c r="K32" s="12"/>
+      <c r="K32" s="12">
+        <v>0.58860000000000001</v>
+      </c>
       <c r="L32" s="12"/>
       <c r="M32" s="12"/>
       <c r="N32" s="12"/>
@@ -5536,7 +5601,7 @@
     </row>
     <row r="33" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B33" s="53">
         <v>31</v>
@@ -5561,7 +5626,9 @@
       <c r="J33" s="12">
         <v>0.59770000000000001</v>
       </c>
-      <c r="K33" s="12"/>
+      <c r="K33" s="12">
+        <v>0.59660000000000002</v>
+      </c>
       <c r="L33" s="12"/>
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
@@ -5573,7 +5640,7 @@
     </row>
     <row r="34" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B34" s="53">
         <v>32</v>
@@ -5598,7 +5665,9 @@
       <c r="J34" s="12">
         <v>0.50829999999999997</v>
       </c>
-      <c r="K34" s="12"/>
+      <c r="K34" s="12">
+        <v>0.50509999999999999</v>
+      </c>
       <c r="L34" s="12"/>
       <c r="M34" s="12"/>
       <c r="N34" s="12"/>
@@ -5610,7 +5679,7 @@
     </row>
     <row r="35" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B35" s="53">
         <v>33</v>
@@ -5635,7 +5704,9 @@
       <c r="J35" s="12">
         <v>0.47139999999999999</v>
       </c>
-      <c r="K35" s="12"/>
+      <c r="K35" s="12">
+        <v>0.43219999999999997</v>
+      </c>
       <c r="L35" s="12"/>
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
@@ -5647,7 +5718,7 @@
     </row>
     <row r="36" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B36" s="53">
         <v>34</v>
@@ -5672,7 +5743,9 @@
       <c r="J36" s="12">
         <v>0.60640000000000005</v>
       </c>
-      <c r="K36" s="12"/>
+      <c r="K36" s="12">
+        <v>0.59389999999999998</v>
+      </c>
       <c r="L36" s="12"/>
       <c r="M36" s="12"/>
       <c r="N36" s="12"/>
@@ -5684,7 +5757,7 @@
     </row>
     <row r="37" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B37" s="55">
         <v>35</v>
@@ -5709,7 +5782,9 @@
       <c r="J37" s="13">
         <v>0.84030000000000005</v>
       </c>
-      <c r="K37" s="13"/>
+      <c r="K37" s="13">
+        <v>0.84030000000000005</v>
+      </c>
       <c r="L37" s="13"/>
       <c r="M37" s="13"/>
       <c r="N37" s="13"/>
@@ -6419,6 +6494,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EDC0E87-A0A8-4B67-8EB6-D72199C74DF3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD723B9-01A1-48E4-8446-9816D42E97F1}">
   <dimension ref="A1:T38"/>
   <sheetViews>
@@ -6454,7 +6541,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>6</v>
@@ -6479,7 +6566,7 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="26">
         <v>1</v>
@@ -6520,7 +6607,7 @@
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="26">
         <v>2</v>
@@ -6561,7 +6648,7 @@
     </row>
     <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="26">
         <v>3</v>
@@ -6602,7 +6689,7 @@
     </row>
     <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="26">
         <v>4</v>
@@ -6643,7 +6730,7 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="26">
         <v>5</v>
@@ -6684,7 +6771,7 @@
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="26">
         <v>6</v>
@@ -6725,7 +6812,7 @@
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="26">
         <v>7</v>
@@ -6766,7 +6853,7 @@
     </row>
     <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="26">
         <v>8</v>
@@ -6807,7 +6894,7 @@
     </row>
     <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="26">
         <v>9</v>
@@ -6848,7 +6935,7 @@
     </row>
     <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="26">
         <v>10</v>
@@ -6889,7 +6976,7 @@
     </row>
     <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="26">
         <v>11</v>
@@ -6930,7 +7017,7 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="26">
         <v>12</v>
@@ -6971,7 +7058,7 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B14" s="26">
         <v>13</v>
@@ -7012,7 +7099,7 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B15" s="26">
         <v>14</v>
@@ -7053,7 +7140,7 @@
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="26">
         <v>15</v>
@@ -7094,7 +7181,7 @@
     </row>
     <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B17" s="26">
         <v>16</v>
@@ -7135,7 +7222,7 @@
     </row>
     <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" s="26">
         <v>17</v>
@@ -7177,7 +7264,7 @@
     </row>
     <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" s="26">
         <v>18</v>
@@ -7219,7 +7306,7 @@
     </row>
     <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" s="26">
         <v>19</v>
@@ -7261,7 +7348,7 @@
     </row>
     <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B21" s="26">
         <v>20</v>
@@ -7304,7 +7391,7 @@
     </row>
     <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" s="26">
         <v>21</v>
@@ -7347,7 +7434,7 @@
     </row>
     <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B23" s="26">
         <v>22</v>
@@ -7390,7 +7477,7 @@
     </row>
     <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" s="26">
         <v>23</v>
@@ -7433,7 +7520,7 @@
     </row>
     <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25" s="26">
         <v>24</v>
@@ -7476,7 +7563,7 @@
     </row>
     <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B26" s="26">
         <v>25</v>
@@ -7519,7 +7606,7 @@
     </row>
     <row r="27" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B27" s="26">
         <v>26</v>
@@ -7562,7 +7649,7 @@
     </row>
     <row r="28" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B28" s="26">
         <v>27</v>
@@ -7605,7 +7692,7 @@
     </row>
     <row r="29" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29" s="26">
         <v>28</v>
@@ -7648,7 +7735,7 @@
     </row>
     <row r="30" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B30" s="26">
         <v>29</v>
@@ -7691,7 +7778,7 @@
     </row>
     <row r="31" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B31" s="26">
         <v>30</v>
@@ -7733,7 +7820,7 @@
     </row>
     <row r="32" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B32" s="26">
         <v>31</v>
@@ -7775,7 +7862,7 @@
     </row>
     <row r="33" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B33" s="26">
         <v>32</v>
@@ -7817,7 +7904,7 @@
     </row>
     <row r="34" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B34" s="26">
         <v>33</v>
@@ -7859,7 +7946,7 @@
     </row>
     <row r="35" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B35" s="26">
         <v>34</v>
@@ -7901,7 +7988,7 @@
     </row>
     <row r="36" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B36" s="29">
         <v>35</v>
@@ -7943,7 +8030,7 @@
     </row>
     <row r="37" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B37" s="72"/>
       <c r="C37" s="31">
@@ -8346,7 +8433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B0DA31A-F31B-4500-9F26-8A1017F0132C}">
   <dimension ref="B1:W37"/>
   <sheetViews>

--- a/bibliografia/results/Comparativa Resultados.xlsx
+++ b/bibliografia/results/Comparativa Resultados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josee\Desktop\Departamento\formacion celulas\reproduccion_ulutas\bibliografia\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\José Enrique\Desktop\cell-formation\cell-formation\bibliografia\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6644D062-C33F-4297-8F77-78A1DE76389F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B77418-05FE-4ACD-A6F7-185C87DF3C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="810" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DatasetA" sheetId="1" r:id="rId1"/>

--- a/bibliografia/results/Comparativa Resultados.xlsx
+++ b/bibliografia/results/Comparativa Resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\José Enrique\Desktop\cell-formation\cell-formation\bibliografia\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B77418-05FE-4ACD-A6F7-185C87DF3C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6AC300-E84D-4EE2-9051-BF355B9CC3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/bibliografia/results/Comparativa Resultados.xlsx
+++ b/bibliografia/results/Comparativa Resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\José Enrique\Desktop\cell-formation\cell-formation\bibliografia\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6AC300-E84D-4EE2-9051-BF355B9CC3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9162D8-69FE-4DEB-A8D9-B3C20CBBF38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
